--- a/Data/out/Re-organization_1.xlsx
+++ b/Data/out/Re-organization_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="1829">
   <si>
     <t>Label</t>
   </si>
@@ -3812,6 +3812,1062 @@
   </si>
   <si>
     <t>t1</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t34</t>
+  </si>
+  <si>
+    <t>t39</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t37</t>
+  </si>
+  <si>
+    <t>t44</t>
+  </si>
+  <si>
+    <t>t50</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t45</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t32</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t19</t>
+  </si>
+  <si>
+    <t>t41</t>
+  </si>
+  <si>
+    <t>t55</t>
+  </si>
+  <si>
+    <t>t70</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t11</t>
   </si>
   <si>
     <t>Depth</t>
@@ -4536,120 +5592,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1091</v>
+        <v>1477</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1095</v>
+        <v>1481</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1096</v>
+        <v>1482</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1098</v>
+        <v>1484</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1099</v>
+        <v>1485</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1134</v>
+        <v>1520</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1135</v>
+        <v>1521</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1136</v>
+        <v>1522</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1137</v>
+        <v>1523</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1138</v>
+        <v>1524</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1139</v>
+        <v>1525</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1140</v>
+        <v>1526</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1141</v>
+        <v>1527</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1142</v>
+        <v>1528</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1143</v>
+        <v>1529</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1144</v>
+        <v>1530</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1145</v>
+        <v>1531</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1146</v>
+        <v>1532</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1147</v>
+        <v>1533</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1148</v>
+        <v>1534</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1149</v>
+        <v>1535</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1150</v>
+        <v>1536</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1151</v>
+        <v>1537</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1152</v>
+        <v>1538</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1153</v>
+        <v>1539</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1154</v>
+        <v>1540</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1155</v>
+        <v>1541</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1156</v>
+        <v>1542</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1157</v>
+        <v>1543</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1158</v>
+        <v>1544</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1160</v>
+        <v>1546</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1161</v>
+        <v>1547</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1162</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B2" s="0">
         <v>70518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1100</v>
+        <v>1486</v>
       </c>
       <c r="F2" s="0">
         <v>527.33900000000006</v>
@@ -4722,7 +5778,7 @@
       </c>
       <c r="AC2" s="0"/>
       <c r="AD2" s="0" t="s">
-        <v>1159</v>
+        <v>1545</v>
       </c>
       <c r="AE2" s="0">
         <v>23.333333333333336</v>
@@ -4736,19 +5792,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B3" s="0">
         <v>50618</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D3" s="0">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1100</v>
+        <v>1486</v>
       </c>
       <c r="F3" s="0">
         <v>478.911</v>
@@ -4823,7 +5879,7 @@
         <v>3.25</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>1159</v>
+        <v>1545</v>
       </c>
       <c r="AE3" s="0">
         <v>0</v>
@@ -4837,19 +5893,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B4" s="0">
         <v>50618</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D4" s="0">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1101</v>
+        <v>1487</v>
       </c>
       <c r="F4" s="0">
         <v>429.96600000000001</v>
@@ -4924,7 +5980,7 @@
         <v>2.78125</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>1159</v>
+        <v>1545</v>
       </c>
       <c r="AE4" s="0">
         <v>0</v>
@@ -4938,19 +5994,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B5" s="0">
         <v>50618</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D5" s="0">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1102</v>
+        <v>1488</v>
       </c>
       <c r="F5" s="0">
         <v>513.00300000000004</v>
@@ -5023,7 +6079,7 @@
       </c>
       <c r="AC5" s="0"/>
       <c r="AD5" s="0" t="s">
-        <v>1159</v>
+        <v>1545</v>
       </c>
       <c r="AE5" s="0">
         <v>16.666666666666668</v>
@@ -5037,19 +6093,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B6" s="0">
         <v>50618</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1103</v>
+        <v>1489</v>
       </c>
       <c r="F6" s="0">
         <v>474.71600000000001</v>
@@ -5124,7 +6180,7 @@
         <v>8.625</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>1159</v>
+        <v>1545</v>
       </c>
       <c r="AE6" s="0">
         <v>1.6666666666666667</v>
@@ -5138,19 +6194,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B7" s="0">
         <v>50618</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1104</v>
+        <v>1490</v>
       </c>
       <c r="F7" s="0">
         <v>354.89999999999998</v>
@@ -5225,7 +6281,7 @@
         <v>4.21875</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>1159</v>
+        <v>1545</v>
       </c>
       <c r="AE7" s="0">
         <v>0</v>
@@ -5239,19 +6295,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B8" s="0">
         <v>50618</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1105</v>
+        <v>1491</v>
       </c>
       <c r="F8" s="0">
         <v>383.32900000000001</v>
@@ -5326,7 +6382,7 @@
         <v>3.125</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>1159</v>
+        <v>1545</v>
       </c>
       <c r="AE8" s="0">
         <v>0</v>
@@ -5340,19 +6396,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B9" s="0">
         <v>50618</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1106</v>
+        <v>1492</v>
       </c>
       <c r="F9" s="0">
         <v>460.68299999999999</v>
@@ -5425,7 +6481,7 @@
       </c>
       <c r="AC9" s="0"/>
       <c r="AD9" s="0" t="s">
-        <v>1159</v>
+        <v>1545</v>
       </c>
       <c r="AE9" s="0">
         <v>23.333333333333336</v>
@@ -5439,19 +6495,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B10" s="0">
         <v>311018</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1107</v>
+        <v>1493</v>
       </c>
       <c r="F10" s="0">
         <v>575.81500000000005</v>
@@ -5526,7 +6582,7 @@
         <v>6.1875</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>1159</v>
+        <v>1545</v>
       </c>
       <c r="AE10" s="0">
         <v>16.666666666666668</v>
@@ -5540,19 +6596,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B11" s="0">
         <v>311018</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1108</v>
+        <v>1494</v>
       </c>
       <c r="F11" s="0">
         <v>620.48500000000001</v>
@@ -5627,7 +6683,7 @@
         <v>2.125</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>1159</v>
+        <v>1545</v>
       </c>
       <c r="AE11" s="0">
         <v>13.333333333333334</v>
@@ -5641,19 +6697,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B12" s="0">
         <v>311018</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1109</v>
+        <v>1495</v>
       </c>
       <c r="F12" s="0">
         <v>532.50900000000001</v>
@@ -5728,7 +6784,7 @@
         <v>1.40625</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>1159</v>
+        <v>1545</v>
       </c>
       <c r="AE12" s="0">
         <v>25</v>
@@ -5742,19 +6798,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B13" s="0">
         <v>260420</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1110</v>
+        <v>1496</v>
       </c>
       <c r="F13" s="0">
         <v>384.10599999999999</v>
@@ -5841,19 +6897,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B14" s="0">
         <v>280420</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1110</v>
+        <v>1496</v>
       </c>
       <c r="F14" s="0">
         <v>345.839</v>
@@ -5940,19 +6996,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B15" s="0">
         <v>290420</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D15" s="0">
         <v>3</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1111</v>
+        <v>1497</v>
       </c>
       <c r="F15" s="0">
         <v>497.36599999999999</v>
@@ -6039,19 +7095,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B16" s="0">
         <v>290420</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D16" s="0">
         <v>3</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1112</v>
+        <v>1498</v>
       </c>
       <c r="F16" s="0">
         <v>530.32899999999995</v>
@@ -6138,19 +7194,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B17" s="0">
         <v>20520</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D17" s="0">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1113</v>
+        <v>1499</v>
       </c>
       <c r="F17" s="0">
         <v>509.142</v>
@@ -6237,19 +7293,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B18" s="0">
         <v>20520</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D18" s="0">
         <v>3</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1114</v>
+        <v>1500</v>
       </c>
       <c r="F18" s="0">
         <v>377.27699999999999</v>
@@ -6336,19 +7392,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B19" s="0">
         <v>60520</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D19" s="0">
         <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1115</v>
+        <v>1501</v>
       </c>
       <c r="F19" s="0">
         <v>554.601</v>
@@ -6435,19 +7491,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B20" s="0">
         <v>41220</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D20" s="0">
         <v>3</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1116</v>
+        <v>1502</v>
       </c>
       <c r="F20" s="0">
         <v>468.20600000000002</v>
@@ -6534,19 +7590,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1092</v>
+        <v>1478</v>
       </c>
       <c r="B21" s="0">
         <v>30221</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D21" s="0">
         <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1117</v>
+        <v>1503</v>
       </c>
       <c r="F21" s="0">
         <v>445.892</v>
@@ -6633,19 +7689,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1093</v>
+        <v>1479</v>
       </c>
       <c r="B22" s="0">
         <v>30221</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D22" s="0">
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1118</v>
+        <v>1504</v>
       </c>
       <c r="F22" s="0">
         <v>378.37099999999998</v>
@@ -6732,19 +7788,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1094</v>
+        <v>1480</v>
       </c>
       <c r="B23" s="0">
         <v>40221</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D23" s="0">
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1118</v>
+        <v>1504</v>
       </c>
       <c r="F23" s="0">
         <v>476.60199999999998</v>
@@ -6835,13 +7891,13 @@
         <v>300518</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D24" s="0">
         <v>1</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1119</v>
+        <v>1505</v>
       </c>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
@@ -6902,13 +7958,13 @@
         <v>300518</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D25" s="0">
         <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1120</v>
+        <v>1506</v>
       </c>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
@@ -6969,13 +8025,13 @@
         <v>300518</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D26" s="0">
         <v>2</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1121</v>
+        <v>1507</v>
       </c>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
@@ -7036,13 +8092,13 @@
         <v>300518</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D27" s="0">
         <v>3</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>1122</v>
+        <v>1508</v>
       </c>
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
@@ -7103,13 +8159,13 @@
         <v>300518</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D28" s="0">
         <v>3</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1123</v>
+        <v>1509</v>
       </c>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
@@ -7170,13 +8226,13 @@
         <v>300518</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D29" s="0">
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>1124</v>
+        <v>1510</v>
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
@@ -7235,13 +8291,13 @@
         <v>70618</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D30" s="0">
         <v>1</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1125</v>
+        <v>1511</v>
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
@@ -7302,13 +8358,13 @@
         <v>70618</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D31" s="0">
         <v>1</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1126</v>
+        <v>1512</v>
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
@@ -7369,13 +8425,13 @@
         <v>70618</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D32" s="0">
         <v>2</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1127</v>
+        <v>1513</v>
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
@@ -7436,13 +8492,13 @@
         <v>70618</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D33" s="0">
         <v>2</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1128</v>
+        <v>1514</v>
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
@@ -7503,13 +8559,13 @@
         <v>70618</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D34" s="0">
         <v>3</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1129</v>
+        <v>1515</v>
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
@@ -7570,13 +8626,13 @@
         <v>70618</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D35" s="0">
         <v>3</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1130</v>
+        <v>1516</v>
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0"/>
@@ -7637,13 +8693,13 @@
         <v>80618</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D36" s="0">
         <v>1</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1131</v>
+        <v>1517</v>
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0"/>
@@ -7704,13 +8760,13 @@
         <v>80618</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D37" s="0">
         <v>1</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1132</v>
+        <v>1518</v>
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0"/>
@@ -7771,13 +8827,13 @@
         <v>80618</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>1097</v>
+        <v>1483</v>
       </c>
       <c r="D38" s="0">
         <v>2</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1133</v>
+        <v>1519</v>
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0"/>
@@ -7878,120 +8934,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1163</v>
+        <v>1549</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1166</v>
+        <v>1552</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1167</v>
+        <v>1553</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1169</v>
+        <v>1555</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1170</v>
+        <v>1556</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1182</v>
+        <v>1568</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1183</v>
+        <v>1569</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1184</v>
+        <v>1570</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1185</v>
+        <v>1571</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1186</v>
+        <v>1572</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1187</v>
+        <v>1573</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1188</v>
+        <v>1574</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1189</v>
+        <v>1575</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1190</v>
+        <v>1576</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1191</v>
+        <v>1577</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1192</v>
+        <v>1578</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1193</v>
+        <v>1579</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1194</v>
+        <v>1580</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1195</v>
+        <v>1581</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1196</v>
+        <v>1582</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1197</v>
+        <v>1583</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1198</v>
+        <v>1584</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1199</v>
+        <v>1585</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1200</v>
+        <v>1586</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1201</v>
+        <v>1587</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1202</v>
+        <v>1588</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1203</v>
+        <v>1589</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1204</v>
+        <v>1590</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1205</v>
+        <v>1591</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1206</v>
+        <v>1592</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1208</v>
+        <v>1594</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1209</v>
+        <v>1595</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1210</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1164</v>
+        <v>1550</v>
       </c>
       <c r="B2" s="0">
         <v>220918</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1168</v>
+        <v>1554</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1171</v>
+        <v>1557</v>
       </c>
       <c r="F2" s="0">
         <v>480.77300000000002</v>
@@ -8066,7 +9122,7 @@
         <v>4.75</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>1207</v>
+        <v>1593</v>
       </c>
       <c r="AE2" s="0">
         <v>8.3333333333333339</v>
@@ -8080,19 +9136,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1164</v>
+        <v>1550</v>
       </c>
       <c r="B3" s="0">
         <v>250320</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1168</v>
+        <v>1554</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1172</v>
+        <v>1558</v>
       </c>
       <c r="F3" s="0">
         <v>480.77499999999998</v>
@@ -8179,19 +9235,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1164</v>
+        <v>1550</v>
       </c>
       <c r="B4" s="0">
         <v>260320</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1168</v>
+        <v>1554</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1173</v>
+        <v>1559</v>
       </c>
       <c r="F4" s="0">
         <v>524.59799999999996</v>
@@ -8276,19 +9332,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1164</v>
+        <v>1550</v>
       </c>
       <c r="B5" s="0">
         <v>150520</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1168</v>
+        <v>1554</v>
       </c>
       <c r="D5" s="0">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1173</v>
+        <v>1559</v>
       </c>
       <c r="F5" s="0">
         <v>515.92899999999997</v>
@@ -8375,19 +9431,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1164</v>
+        <v>1550</v>
       </c>
       <c r="B6" s="0">
         <v>150520</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1168</v>
+        <v>1554</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1174</v>
+        <v>1560</v>
       </c>
       <c r="F6" s="0">
         <v>462.14400000000001</v>
@@ -8474,19 +9530,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1164</v>
+        <v>1550</v>
       </c>
       <c r="B7" s="0">
         <v>180520</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1168</v>
+        <v>1554</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1175</v>
+        <v>1561</v>
       </c>
       <c r="F7" s="0">
         <v>424.25799999999998</v>
@@ -8573,19 +9629,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1164</v>
+        <v>1550</v>
       </c>
       <c r="B8" s="0">
         <v>180520</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1168</v>
+        <v>1554</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1176</v>
+        <v>1562</v>
       </c>
       <c r="F8" s="0">
         <v>383.39499999999998</v>
@@ -8672,19 +9728,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1164</v>
+        <v>1550</v>
       </c>
       <c r="B9" s="0">
         <v>190520</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1168</v>
+        <v>1554</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1177</v>
+        <v>1563</v>
       </c>
       <c r="F9" s="0">
         <v>450.01600000000002</v>
@@ -8771,19 +9827,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1164</v>
+        <v>1550</v>
       </c>
       <c r="B10" s="0">
         <v>190520</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1168</v>
+        <v>1554</v>
       </c>
       <c r="D10" s="0">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1178</v>
+        <v>1564</v>
       </c>
       <c r="F10" s="0">
         <v>424.30099999999999</v>
@@ -8870,19 +9926,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1164</v>
+        <v>1550</v>
       </c>
       <c r="B11" s="0">
         <v>200520</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1168</v>
+        <v>1554</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1178</v>
+        <v>1564</v>
       </c>
       <c r="F11" s="0">
         <v>520.65999999999997</v>
@@ -8969,19 +10025,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1165</v>
+        <v>1551</v>
       </c>
       <c r="B12" s="0">
         <v>240520</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1168</v>
+        <v>1554</v>
       </c>
       <c r="D12" s="0">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1179</v>
+        <v>1565</v>
       </c>
       <c r="F12" s="0">
         <v>378.04399999999998</v>
@@ -9072,13 +10128,13 @@
         <v>40918</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1168</v>
+        <v>1554</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1180</v>
+        <v>1566</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -9137,13 +10193,13 @@
         <v>40918</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1168</v>
+        <v>1554</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1181</v>
+        <v>1567</v>
       </c>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
@@ -9202,7 +10258,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AG13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
@@ -9242,120 +10298,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1250</v>
+        <v>1597</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1252</v>
+        <v>1599</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1253</v>
+        <v>1600</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1255</v>
+        <v>1602</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1256</v>
+        <v>1603</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1264</v>
+        <v>1616</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1265</v>
+        <v>1617</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1266</v>
+        <v>1618</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1267</v>
+        <v>1619</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1268</v>
+        <v>1620</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1269</v>
+        <v>1621</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1270</v>
+        <v>1622</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1271</v>
+        <v>1623</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1272</v>
+        <v>1624</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1273</v>
+        <v>1625</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1274</v>
+        <v>1626</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1275</v>
+        <v>1627</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1276</v>
+        <v>1628</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1277</v>
+        <v>1629</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1278</v>
+        <v>1630</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1279</v>
+        <v>1631</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1280</v>
+        <v>1632</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1281</v>
+        <v>1633</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1282</v>
+        <v>1634</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1283</v>
+        <v>1635</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1284</v>
+        <v>1636</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1285</v>
+        <v>1637</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1286</v>
+        <v>1638</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1287</v>
+        <v>1639</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1288</v>
+        <v>1640</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1291</v>
+        <v>1643</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1292</v>
+        <v>1644</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1293</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1251</v>
+        <v>1598</v>
       </c>
       <c r="B2" s="0">
         <v>11018</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1254</v>
+        <v>1601</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1257</v>
+        <v>1604</v>
       </c>
       <c r="F2" s="0">
         <v>410.63499999999999</v>
@@ -9430,7 +10486,7 @@
         <v>0.25</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>1289</v>
+        <v>1641</v>
       </c>
       <c r="AE2" s="0">
         <v>30</v>
@@ -9444,19 +10500,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1251</v>
+        <v>1598</v>
       </c>
       <c r="B3" s="0">
         <v>150519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1254</v>
+        <v>1601</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1258</v>
+        <v>1605</v>
       </c>
       <c r="F3" s="0">
         <v>342.39699999999999</v>
@@ -9539,19 +10595,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1251</v>
+        <v>1598</v>
       </c>
       <c r="B4" s="0">
         <v>150519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1254</v>
+        <v>1601</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1259</v>
+        <v>1606</v>
       </c>
       <c r="F4" s="0">
         <v>499.39800000000002</v>
@@ -9626,7 +10682,7 @@
         <v>7.8125</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>1290</v>
+        <v>1642</v>
       </c>
       <c r="AE4" s="0">
         <v>28.333333333333336</v>
@@ -9640,19 +10696,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1251</v>
+        <v>1598</v>
       </c>
       <c r="B5" s="0">
         <v>160519</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1254</v>
+        <v>1601</v>
       </c>
       <c r="D5" s="0">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1260</v>
+        <v>1607</v>
       </c>
       <c r="F5" s="0">
         <v>407.608</v>
@@ -9739,19 +10795,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1251</v>
+        <v>1598</v>
       </c>
       <c r="B6" s="0">
         <v>160519</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1254</v>
+        <v>1601</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1261</v>
+        <v>1608</v>
       </c>
       <c r="F6" s="0">
         <v>409.11200000000002</v>
@@ -9838,19 +10894,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1251</v>
+        <v>1598</v>
       </c>
       <c r="B7" s="0">
         <v>170519</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1254</v>
+        <v>1601</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1262</v>
+        <v>1609</v>
       </c>
       <c r="F7" s="0">
         <v>463.661</v>
@@ -9937,19 +10993,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1251</v>
+        <v>1598</v>
       </c>
       <c r="B8" s="0">
         <v>170519</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1254</v>
+        <v>1601</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1263</v>
+        <v>1610</v>
       </c>
       <c r="F8" s="0">
         <v>452.399</v>
@@ -10031,6 +11087,335 @@
         <v>3.8125</v>
       </c>
       <c r="AG8" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0">
+        <v>11018</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D9" s="0">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0">
+        <v>1.1166464155528555</v>
+      </c>
+      <c r="V9" s="0">
+        <v>3</v>
+      </c>
+      <c r="W9" s="0">
+        <v>83.406249999999972</v>
+      </c>
+      <c r="X9" s="0">
+        <v>-65.759375000000006</v>
+      </c>
+      <c r="Y9" s="0">
+        <v>20.380017688410859</v>
+      </c>
+      <c r="Z9" s="0">
+        <v>17</v>
+      </c>
+      <c r="AA9" s="0">
+        <v>112.94687500000001</v>
+      </c>
+      <c r="AB9" s="0">
+        <v>1.0032131299494864</v>
+      </c>
+      <c r="AC9" s="0">
+        <v>2.25</v>
+      </c>
+      <c r="AD9" s="0"/>
+      <c r="AE9" s="0">
+        <v>28.333333333333336</v>
+      </c>
+      <c r="AF9" s="0">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0">
+        <v>11018</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D10" s="0">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0">
+        <v>1.2399497487437185</v>
+      </c>
+      <c r="V10" s="0">
+        <v>5.96875</v>
+      </c>
+      <c r="W10" s="0">
+        <v>82.531250000000014</v>
+      </c>
+      <c r="X10" s="0">
+        <v>-67.709374999999994</v>
+      </c>
+      <c r="Y10" s="0">
+        <v>17.006857272664618</v>
+      </c>
+      <c r="Z10" s="0">
+        <v>19</v>
+      </c>
+      <c r="AA10" s="0">
+        <v>95.240624999999994</v>
+      </c>
+      <c r="AB10" s="0">
+        <v>1.2525143744783449</v>
+      </c>
+      <c r="AC10" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="AD10" s="0"/>
+      <c r="AE10" s="0">
+        <v>30</v>
+      </c>
+      <c r="AF10" s="0">
+        <v>5.9687999999999999</v>
+      </c>
+      <c r="AG10" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0">
+        <v>270319</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0">
+        <v>1.1842496285289748</v>
+      </c>
+      <c r="V11" s="0">
+        <v>3.875</v>
+      </c>
+      <c r="W11" s="0">
+        <v>75.010416666666657</v>
+      </c>
+      <c r="X11" s="0">
+        <v>-58.590625000000003</v>
+      </c>
+      <c r="Y11" s="0">
+        <v>108.37022759616001</v>
+      </c>
+      <c r="Z11" s="0">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="0">
+        <v>110.49687499999999</v>
+      </c>
+      <c r="AB11" s="0">
+        <v>0.64974014483610532</v>
+      </c>
+      <c r="AC11" s="0">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="0"/>
+      <c r="AE11" s="0">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AF11" s="0">
+        <v>4.5</v>
+      </c>
+      <c r="AG11" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0">
+        <v>270319</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0">
+        <v>1.1585106382978723</v>
+      </c>
+      <c r="V12" s="0">
+        <v>4.65625</v>
+      </c>
+      <c r="W12" s="0">
+        <v>98.604166666666643</v>
+      </c>
+      <c r="X12" s="0">
+        <v>-71.793750000000003</v>
+      </c>
+      <c r="Y12" s="0">
+        <v>111.71955309804117</v>
+      </c>
+      <c r="Z12" s="0">
+        <v>13.375</v>
+      </c>
+      <c r="AA12" s="0">
+        <v>123.98124999999999</v>
+      </c>
+      <c r="AB12" s="0">
+        <v>0.72256668164666138</v>
+      </c>
+      <c r="AC12" s="0">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AF12" s="0">
+        <v>4.1224999999999996</v>
+      </c>
+      <c r="AG12" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0">
+        <v>270320</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="0">
+        <v>1.5454144620811288</v>
+      </c>
+      <c r="V13" s="0">
+        <v>38.65625</v>
+      </c>
+      <c r="W13" s="0">
+        <v>244.59374999999997</v>
+      </c>
+      <c r="X13" s="0">
+        <v>-58.871875000000003</v>
+      </c>
+      <c r="Y13" s="0">
+        <v>30.015659654797815</v>
+      </c>
+      <c r="Z13" s="0">
+        <v>12.25</v>
+      </c>
+      <c r="AA13" s="0">
+        <v>121.43437499999999</v>
+      </c>
+      <c r="AB13" s="0">
+        <v>0.5770044053724428</v>
+      </c>
+      <c r="AC13" s="0">
+        <v>20</v>
+      </c>
+      <c r="AD13" s="0"/>
+      <c r="AE13" s="0">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="AF13" s="0">
+        <v>6.75</v>
+      </c>
+      <c r="AG13" s="0">
         <v>1</v>
       </c>
     </row>
@@ -10080,120 +11465,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1294</v>
+        <v>1646</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1296</v>
+        <v>1648</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1297</v>
+        <v>1649</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1299</v>
+        <v>1651</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1300</v>
+        <v>1652</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1348</v>
+        <v>1700</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1349</v>
+        <v>1701</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1350</v>
+        <v>1702</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1351</v>
+        <v>1703</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1352</v>
+        <v>1704</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1353</v>
+        <v>1705</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1354</v>
+        <v>1706</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1355</v>
+        <v>1707</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1356</v>
+        <v>1708</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1357</v>
+        <v>1709</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1358</v>
+        <v>1710</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1359</v>
+        <v>1711</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1360</v>
+        <v>1712</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1361</v>
+        <v>1713</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1362</v>
+        <v>1714</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1363</v>
+        <v>1715</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1364</v>
+        <v>1716</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1365</v>
+        <v>1717</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1366</v>
+        <v>1718</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1367</v>
+        <v>1719</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1368</v>
+        <v>1720</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1369</v>
+        <v>1721</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1370</v>
+        <v>1722</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1371</v>
+        <v>1723</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1372</v>
+        <v>1724</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1374</v>
+        <v>1726</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1375</v>
+        <v>1727</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1376</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B2" s="0">
         <v>30518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1301</v>
+        <v>1653</v>
       </c>
       <c r="F2" s="0">
         <v>532.80600000000004</v>
@@ -10268,7 +11653,7 @@
         <v>2.40625</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>1373</v>
+        <v>1725</v>
       </c>
       <c r="AE2" s="0">
         <v>3.3333333333333335</v>
@@ -10282,19 +11667,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B3" s="0">
         <v>30518</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1302</v>
+        <v>1654</v>
       </c>
       <c r="F3" s="0">
         <v>462.94099999999997</v>
@@ -10369,7 +11754,7 @@
         <v>5.875</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>1373</v>
+        <v>1725</v>
       </c>
       <c r="AE3" s="0">
         <v>3.3333333333333335</v>
@@ -10383,19 +11768,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B4" s="0">
         <v>80518</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1303</v>
+        <v>1655</v>
       </c>
       <c r="F4" s="0">
         <v>484.14499999999998</v>
@@ -10470,7 +11855,7 @@
         <v>12.21875</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>1373</v>
+        <v>1725</v>
       </c>
       <c r="AE4" s="0">
         <v>21.666666666666668</v>
@@ -10484,19 +11869,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B5" s="0">
         <v>80518</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1304</v>
+        <v>1656</v>
       </c>
       <c r="F5" s="0">
         <v>472.774</v>
@@ -10571,7 +11956,7 @@
         <v>2.53125</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>1373</v>
+        <v>1725</v>
       </c>
       <c r="AE5" s="0">
         <v>10</v>
@@ -10585,19 +11970,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B6" s="0">
         <v>80518</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1305</v>
+        <v>1657</v>
       </c>
       <c r="F6" s="0">
         <v>499.76400000000001</v>
@@ -10670,7 +12055,7 @@
       </c>
       <c r="AC6" s="0"/>
       <c r="AD6" s="0" t="s">
-        <v>1373</v>
+        <v>1725</v>
       </c>
       <c r="AE6" s="0">
         <v>21.666666666666668</v>
@@ -10684,19 +12069,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B7" s="0">
         <v>80818</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1306</v>
+        <v>1658</v>
       </c>
       <c r="F7" s="0">
         <v>486.38900000000001</v>
@@ -10771,7 +12156,7 @@
         <v>2.71875</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>1373</v>
+        <v>1725</v>
       </c>
       <c r="AE7" s="0">
         <v>25</v>
@@ -10785,19 +12170,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B8" s="0">
         <v>80818</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1307</v>
+        <v>1659</v>
       </c>
       <c r="F8" s="0">
         <v>496.774</v>
@@ -10866,7 +12251,7 @@
       </c>
       <c r="AC8" s="0"/>
       <c r="AD8" s="0" t="s">
-        <v>1373</v>
+        <v>1725</v>
       </c>
       <c r="AE8" s="0">
         <v>53.333333333333336</v>
@@ -10880,19 +12265,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B9" s="0">
         <v>80818</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1308</v>
+        <v>1660</v>
       </c>
       <c r="F9" s="0">
         <v>448.62900000000002</v>
@@ -10967,7 +12352,7 @@
         <v>3.53125</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>1373</v>
+        <v>1725</v>
       </c>
       <c r="AE9" s="0">
         <v>11.666666666666668</v>
@@ -10981,19 +12366,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B10" s="0">
         <v>80818</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1309</v>
+        <v>1661</v>
       </c>
       <c r="F10" s="0">
         <v>482.81599999999997</v>
@@ -11066,7 +12451,7 @@
       </c>
       <c r="AC10" s="0"/>
       <c r="AD10" s="0" t="s">
-        <v>1373</v>
+        <v>1725</v>
       </c>
       <c r="AE10" s="0">
         <v>50</v>
@@ -11080,19 +12465,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B11" s="0">
         <v>80818</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1310</v>
+        <v>1662</v>
       </c>
       <c r="F11" s="0">
         <v>361.84899999999999</v>
@@ -11167,7 +12552,7 @@
         <v>2.53125</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>1373</v>
+        <v>1725</v>
       </c>
       <c r="AE11" s="0">
         <v>36.666666666666671</v>
@@ -11181,19 +12566,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B12" s="0">
         <v>80818</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1311</v>
+        <v>1663</v>
       </c>
       <c r="F12" s="0">
         <v>417.62</v>
@@ -11268,7 +12653,7 @@
         <v>4.6875</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>1373</v>
+        <v>1725</v>
       </c>
       <c r="AE12" s="0">
         <v>0</v>
@@ -11282,19 +12667,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B13" s="0">
         <v>41220</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1312</v>
+        <v>1664</v>
       </c>
       <c r="F13" s="0">
         <v>443.95999999999998</v>
@@ -11381,19 +12766,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B14" s="0">
         <v>81220</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1313</v>
+        <v>1665</v>
       </c>
       <c r="F14" s="0">
         <v>337.86000000000001</v>
@@ -11480,19 +12865,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B15" s="0">
         <v>81220</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D15" s="0">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1314</v>
+        <v>1666</v>
       </c>
       <c r="F15" s="0">
         <v>395.22399999999999</v>
@@ -11579,19 +12964,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B16" s="0">
         <v>91220</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D16" s="0">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1315</v>
+        <v>1667</v>
       </c>
       <c r="F16" s="0">
         <v>402.30399999999997</v>
@@ -11678,19 +13063,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B17" s="0">
         <v>91220</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D17" s="0">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1316</v>
+        <v>1668</v>
       </c>
       <c r="F17" s="0">
         <v>420.47300000000001</v>
@@ -11777,19 +13162,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B18" s="0">
         <v>130121</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D18" s="0">
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1317</v>
+        <v>1669</v>
       </c>
       <c r="F18" s="0">
         <v>433.36700000000002</v>
@@ -11876,19 +13261,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B19" s="0">
         <v>130121</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D19" s="0">
         <v>3</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1318</v>
+        <v>1670</v>
       </c>
       <c r="F19" s="0">
         <v>494.46800000000002</v>
@@ -11975,19 +13360,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B20" s="0">
         <v>130121</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D20" s="0">
         <v>5</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1319</v>
+        <v>1671</v>
       </c>
       <c r="F20" s="0">
         <v>457.59800000000001</v>
@@ -12074,19 +13459,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B21" s="0">
         <v>180121</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D21" s="0">
         <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1320</v>
+        <v>1672</v>
       </c>
       <c r="F21" s="0">
         <v>361.38999999999999</v>
@@ -12173,19 +13558,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B22" s="0">
         <v>180121</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D22" s="0">
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1321</v>
+        <v>1673</v>
       </c>
       <c r="F22" s="0">
         <v>416.15499999999997</v>
@@ -12272,19 +13657,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B23" s="0">
         <v>180121</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D23" s="0">
         <v>3</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1322</v>
+        <v>1674</v>
       </c>
       <c r="F23" s="0">
         <v>404.61900000000003</v>
@@ -12371,19 +13756,19 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B24" s="0">
         <v>190121</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D24" s="0">
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1323</v>
+        <v>1675</v>
       </c>
       <c r="F24" s="0">
         <v>517.55600000000004</v>
@@ -12470,19 +13855,19 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B25" s="0">
         <v>250121</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D25" s="0">
         <v>2</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1324</v>
+        <v>1676</v>
       </c>
       <c r="F25" s="0">
         <v>418.19600000000003</v>
@@ -12569,19 +13954,19 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B26" s="0">
         <v>250121</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D26" s="0">
         <v>2</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1325</v>
+        <v>1677</v>
       </c>
       <c r="F26" s="0">
         <v>421.99000000000001</v>
@@ -12668,19 +14053,19 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B27" s="0">
         <v>250121</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D27" s="0">
         <v>2</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>1326</v>
+        <v>1678</v>
       </c>
       <c r="F27" s="0">
         <v>450.01600000000002</v>
@@ -12767,19 +14152,19 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B28" s="0">
         <v>250121</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D28" s="0">
         <v>3</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1327</v>
+        <v>1679</v>
       </c>
       <c r="F28" s="0">
         <v>479.04000000000002</v>
@@ -12866,19 +14251,19 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1295</v>
+        <v>1647</v>
       </c>
       <c r="B29" s="0">
         <v>250121</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D29" s="0">
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>1328</v>
+        <v>1680</v>
       </c>
       <c r="F29" s="0">
         <v>457.59699999999998</v>
@@ -12969,13 +14354,13 @@
         <v>30818</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D30" s="0">
         <v>3</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1329</v>
+        <v>1681</v>
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
@@ -13036,13 +14421,13 @@
         <v>30818</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D31" s="0">
         <v>3</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1330</v>
+        <v>1682</v>
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
@@ -13103,13 +14488,13 @@
         <v>30818</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D32" s="0">
         <v>3</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1331</v>
+        <v>1683</v>
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
@@ -13170,13 +14555,13 @@
         <v>30818</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D33" s="0">
         <v>3</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1332</v>
+        <v>1684</v>
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
@@ -13237,13 +14622,13 @@
         <v>30818</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D34" s="0">
         <v>1</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1333</v>
+        <v>1685</v>
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
@@ -13302,13 +14687,13 @@
         <v>30818</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D35" s="0">
         <v>2</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1334</v>
+        <v>1686</v>
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0"/>
@@ -13369,13 +14754,13 @@
         <v>60818</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D36" s="0">
         <v>1</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1335</v>
+        <v>1687</v>
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0"/>
@@ -13436,13 +14821,13 @@
         <v>60818</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D37" s="0">
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1336</v>
+        <v>1688</v>
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0"/>
@@ -13503,13 +14888,13 @@
         <v>60818</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D38" s="0">
         <v>1</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1337</v>
+        <v>1689</v>
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0"/>
@@ -13570,13 +14955,13 @@
         <v>60818</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D39" s="0">
         <v>2</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1338</v>
+        <v>1690</v>
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0"/>
@@ -13637,13 +15022,13 @@
         <v>60818</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D40" s="0">
         <v>3</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1339</v>
+        <v>1691</v>
       </c>
       <c r="F40" s="0"/>
       <c r="G40" s="0"/>
@@ -13704,13 +15089,13 @@
         <v>60818</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D41" s="0">
         <v>3</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1340</v>
+        <v>1692</v>
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0"/>
@@ -13771,13 +15156,13 @@
         <v>70818</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D42" s="0">
         <v>1</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1341</v>
+        <v>1693</v>
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0"/>
@@ -13838,13 +15223,13 @@
         <v>70818</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D43" s="0">
         <v>2</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1342</v>
+        <v>1694</v>
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0"/>
@@ -13905,13 +15290,13 @@
         <v>70818</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D44" s="0">
         <v>1</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1343</v>
+        <v>1695</v>
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0"/>
@@ -13972,13 +15357,13 @@
         <v>70818</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D45" s="0">
         <v>2</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>1344</v>
+        <v>1696</v>
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0"/>
@@ -14039,13 +15424,13 @@
         <v>140818</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D46" s="0">
         <v>1</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1345</v>
+        <v>1697</v>
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0"/>
@@ -14104,13 +15489,13 @@
         <v>140818</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D47" s="0">
         <v>1</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1346</v>
+        <v>1698</v>
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0"/>
@@ -14171,13 +15556,13 @@
         <v>140818</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>1298</v>
+        <v>1650</v>
       </c>
       <c r="D48" s="0">
         <v>2</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1347</v>
+        <v>1699</v>
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0"/>
@@ -14278,120 +15663,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1377</v>
+        <v>1729</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1379</v>
+        <v>1731</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1380</v>
+        <v>1732</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1382</v>
+        <v>1734</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1383</v>
+        <v>1735</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1400</v>
+        <v>1752</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1401</v>
+        <v>1753</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1402</v>
+        <v>1754</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1403</v>
+        <v>1755</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1404</v>
+        <v>1756</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1405</v>
+        <v>1757</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1406</v>
+        <v>1758</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1407</v>
+        <v>1759</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1408</v>
+        <v>1760</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1409</v>
+        <v>1761</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1410</v>
+        <v>1762</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1411</v>
+        <v>1763</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1412</v>
+        <v>1764</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1413</v>
+        <v>1765</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1414</v>
+        <v>1766</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1415</v>
+        <v>1767</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1416</v>
+        <v>1768</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1417</v>
+        <v>1769</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1418</v>
+        <v>1770</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1419</v>
+        <v>1771</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1420</v>
+        <v>1772</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1421</v>
+        <v>1773</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1422</v>
+        <v>1774</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1423</v>
+        <v>1775</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1424</v>
+        <v>1776</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1425</v>
+        <v>1777</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1426</v>
+        <v>1778</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1427</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1378</v>
+        <v>1730</v>
       </c>
       <c r="B2" s="0">
         <v>220519</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1381</v>
+        <v>1733</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1384</v>
+        <v>1736</v>
       </c>
       <c r="F2" s="0">
         <v>588.45399999999995</v>
@@ -14478,19 +15863,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1378</v>
+        <v>1730</v>
       </c>
       <c r="B3" s="0">
         <v>220519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1381</v>
+        <v>1733</v>
       </c>
       <c r="D3" s="0">
         <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1385</v>
+        <v>1737</v>
       </c>
       <c r="F3" s="0">
         <v>505.04199999999997</v>
@@ -14577,19 +15962,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1378</v>
+        <v>1730</v>
       </c>
       <c r="B4" s="0">
         <v>220519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1381</v>
+        <v>1733</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1386</v>
+        <v>1738</v>
       </c>
       <c r="F4" s="0">
         <v>488.39400000000001</v>
@@ -14674,19 +16059,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1378</v>
+        <v>1730</v>
       </c>
       <c r="B5" s="0">
         <v>290519</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1381</v>
+        <v>1733</v>
       </c>
       <c r="D5" s="0">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1387</v>
+        <v>1739</v>
       </c>
       <c r="F5" s="0">
         <v>421.226</v>
@@ -14773,19 +16158,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1378</v>
+        <v>1730</v>
       </c>
       <c r="B6" s="0">
         <v>300519</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1381</v>
+        <v>1733</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1388</v>
+        <v>1740</v>
       </c>
       <c r="F6" s="0">
         <v>434.90699999999998</v>
@@ -14870,19 +16255,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1378</v>
+        <v>1730</v>
       </c>
       <c r="B7" s="0">
         <v>300519</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1381</v>
+        <v>1733</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1389</v>
+        <v>1741</v>
       </c>
       <c r="F7" s="0">
         <v>528.89200000000005</v>
@@ -14969,19 +16354,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1378</v>
+        <v>1730</v>
       </c>
       <c r="B8" s="0">
         <v>270520</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1381</v>
+        <v>1733</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1390</v>
+        <v>1742</v>
       </c>
       <c r="F8" s="0">
         <v>391.40600000000001</v>
@@ -15068,19 +16453,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1378</v>
+        <v>1730</v>
       </c>
       <c r="B9" s="0">
         <v>270520</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1381</v>
+        <v>1733</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1391</v>
+        <v>1743</v>
       </c>
       <c r="F9" s="0">
         <v>400.02699999999999</v>
@@ -15171,13 +16556,13 @@
         <v>251018</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1381</v>
+        <v>1733</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1392</v>
+        <v>1744</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -15238,13 +16623,13 @@
         <v>261018</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1381</v>
+        <v>1733</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1393</v>
+        <v>1745</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -15305,13 +16690,13 @@
         <v>261018</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1381</v>
+        <v>1733</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1394</v>
+        <v>1746</v>
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -15372,13 +16757,13 @@
         <v>261018</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1381</v>
+        <v>1733</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1395</v>
+        <v>1747</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -15439,13 +16824,13 @@
         <v>261018</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1381</v>
+        <v>1733</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1396</v>
+        <v>1748</v>
       </c>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
@@ -15504,13 +16889,13 @@
         <v>220519</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1381</v>
+        <v>1733</v>
       </c>
       <c r="D15" s="0">
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1397</v>
+        <v>1749</v>
       </c>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
@@ -15571,13 +16956,13 @@
         <v>220519</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1381</v>
+        <v>1733</v>
       </c>
       <c r="D16" s="0">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1398</v>
+        <v>1750</v>
       </c>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
@@ -15636,13 +17021,13 @@
         <v>220519</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1381</v>
+        <v>1733</v>
       </c>
       <c r="D17" s="0">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1399</v>
+        <v>1751</v>
       </c>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
@@ -15743,120 +17128,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1428</v>
+        <v>1780</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1432</v>
+        <v>1784</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1433</v>
+        <v>1785</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1435</v>
+        <v>1787</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1436</v>
+        <v>1788</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1447</v>
+        <v>1799</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1448</v>
+        <v>1800</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1449</v>
+        <v>1801</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1450</v>
+        <v>1802</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1451</v>
+        <v>1803</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1452</v>
+        <v>1804</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1453</v>
+        <v>1805</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1454</v>
+        <v>1806</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1455</v>
+        <v>1807</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1456</v>
+        <v>1808</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1457</v>
+        <v>1809</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1458</v>
+        <v>1810</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1459</v>
+        <v>1811</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1460</v>
+        <v>1812</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1461</v>
+        <v>1813</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1462</v>
+        <v>1814</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1463</v>
+        <v>1815</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1464</v>
+        <v>1816</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1465</v>
+        <v>1817</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1466</v>
+        <v>1818</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1467</v>
+        <v>1819</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1468</v>
+        <v>1820</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1469</v>
+        <v>1821</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1470</v>
+        <v>1822</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1471</v>
+        <v>1823</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1474</v>
+        <v>1826</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1475</v>
+        <v>1827</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1476</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1429</v>
+        <v>1781</v>
       </c>
       <c r="B2" s="0">
         <v>31218</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1434</v>
+        <v>1786</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1437</v>
+        <v>1789</v>
       </c>
       <c r="F2" s="0">
         <v>429.56400000000002</v>
@@ -15931,7 +17316,7 @@
         <v>8.5</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>1472</v>
+        <v>1824</v>
       </c>
       <c r="AE2" s="0">
         <v>3.3333333333333335</v>
@@ -15945,19 +17330,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1429</v>
+        <v>1781</v>
       </c>
       <c r="B3" s="0">
         <v>31218</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1434</v>
+        <v>1786</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1438</v>
+        <v>1790</v>
       </c>
       <c r="F3" s="0">
         <v>387.68099999999998</v>
@@ -16032,7 +17417,7 @@
         <v>6.59375</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>1472</v>
+        <v>1824</v>
       </c>
       <c r="AE3" s="0">
         <v>13.333333333333334</v>
@@ -16046,19 +17431,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1429</v>
+        <v>1781</v>
       </c>
       <c r="B4" s="0">
         <v>171218</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1434</v>
+        <v>1786</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1439</v>
+        <v>1791</v>
       </c>
       <c r="F4" s="0">
         <v>389.012</v>
@@ -16133,7 +17518,7 @@
         <v>4.6875</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>1472</v>
+        <v>1824</v>
       </c>
       <c r="AE4" s="0">
         <v>13.333333333333334</v>
@@ -16147,19 +17532,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1429</v>
+        <v>1781</v>
       </c>
       <c r="B5" s="0">
         <v>70219</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1434</v>
+        <v>1786</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1440</v>
+        <v>1792</v>
       </c>
       <c r="F5" s="0">
         <v>404.084</v>
@@ -16232,7 +17617,7 @@
       </c>
       <c r="AC5" s="0"/>
       <c r="AD5" s="0" t="s">
-        <v>1473</v>
+        <v>1825</v>
       </c>
       <c r="AE5" s="0">
         <v>11.666666666666668</v>
@@ -16246,19 +17631,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1429</v>
+        <v>1781</v>
       </c>
       <c r="B6" s="0">
         <v>80219</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1434</v>
+        <v>1786</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1441</v>
+        <v>1793</v>
       </c>
       <c r="F6" s="0">
         <v>309.95600000000002</v>
@@ -16345,19 +17730,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1429</v>
+        <v>1781</v>
       </c>
       <c r="B7" s="0">
         <v>80219</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1434</v>
+        <v>1786</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1442</v>
+        <v>1794</v>
       </c>
       <c r="F7" s="0">
         <v>409.024</v>
@@ -16444,19 +17829,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1429</v>
+        <v>1781</v>
       </c>
       <c r="B8" s="0">
         <v>80219</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1434</v>
+        <v>1786</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1443</v>
+        <v>1795</v>
       </c>
       <c r="F8" s="0">
         <v>428.99900000000002</v>
@@ -16541,19 +17926,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1430</v>
+        <v>1782</v>
       </c>
       <c r="B9" s="0">
         <v>80219</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1434</v>
+        <v>1786</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1444</v>
+        <v>1796</v>
       </c>
       <c r="F9" s="0">
         <v>411.88499999999999</v>
@@ -16640,19 +18025,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1431</v>
+        <v>1783</v>
       </c>
       <c r="B10" s="0">
         <v>120219</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1434</v>
+        <v>1786</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1445</v>
+        <v>1797</v>
       </c>
       <c r="F10" s="0">
         <v>362.279</v>
@@ -16739,19 +18124,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1431</v>
+        <v>1783</v>
       </c>
       <c r="B11" s="0">
         <v>120219</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1434</v>
+        <v>1786</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1446</v>
+        <v>1798</v>
       </c>
       <c r="F11" s="0">
         <v>341.43299999999999</v>

--- a/Data/out/Re-organization_1.xlsx
+++ b/Data/out/Re-organization_1.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Saline d1" sheetId="5" r:id="rId7"/>
     <sheet name="Saline d7" sheetId="6" r:id="rId8"/>
     <sheet name="Saline d7NS" sheetId="7" r:id="rId9"/>
-    <sheet name="CFA d7 NS" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -20,4438 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="1829">
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t22</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t33</t>
-  </si>
-  <si>
-    <t>t45</t>
-  </si>
-  <si>
-    <t>t63</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t25</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t28</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t17</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t25</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t34</t>
-  </si>
-  <si>
-    <t>t39</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t38</t>
-  </si>
-  <si>
-    <t>t28</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t27</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t33</t>
-  </si>
-  <si>
-    <t>t45</t>
-  </si>
-  <si>
-    <t>t63</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t25</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t28</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>t32</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t19</t>
-  </si>
-  <si>
-    <t>t41</t>
-  </si>
-  <si>
-    <t>t55</t>
-  </si>
-  <si>
-    <t>t70</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t17</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7 NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t34</t>
-  </si>
-  <si>
-    <t>t39</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>t35</t>
-  </si>
-  <si>
-    <t>t37</t>
-  </si>
-  <si>
-    <t>t44</t>
-  </si>
-  <si>
-    <t>t50</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t17</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t28</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t27</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t33</t>
-  </si>
-  <si>
-    <t>t45</t>
-  </si>
-  <si>
-    <t>t63</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t25</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t28</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>t32</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t19</t>
-  </si>
-  <si>
-    <t>t41</t>
-  </si>
-  <si>
-    <t>t55</t>
-  </si>
-  <si>
-    <t>t70</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t17</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7 NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t34</t>
-  </si>
-  <si>
-    <t>t39</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>t35</t>
-  </si>
-  <si>
-    <t>t37</t>
-  </si>
-  <si>
-    <t>t44</t>
-  </si>
-  <si>
-    <t>t50</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t17</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t28</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t27</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t33</t>
-  </si>
-  <si>
-    <t>t45</t>
-  </si>
-  <si>
-    <t>t63</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t25</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t28</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>t32</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t19</t>
-  </si>
-  <si>
-    <t>t41</t>
-  </si>
-  <si>
-    <t>t55</t>
-  </si>
-  <si>
-    <t>t70</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t17</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7 NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t34</t>
-  </si>
-  <si>
-    <t>t39</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>t35</t>
-  </si>
-  <si>
-    <t>t37</t>
-  </si>
-  <si>
-    <t>t44</t>
-  </si>
-  <si>
-    <t>t50</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t17</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t28</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t27</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="352">
   <si>
     <t>Label</t>
   </si>
@@ -5527,7 +1095,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -5536,13 +1104,23 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5555,157 +1133,157 @@
   <dimension ref="A1:AG38"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.85546875" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="10.140625" customWidth="true"/>
+    <col min="7" max="7" width="10.15625" customWidth="true"/>
+    <col min="8" max="8" width="7.37890625" customWidth="true"/>
+    <col min="9" max="9" width="9.15625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="9.42578125" customWidth="true"/>
-    <col min="12" max="12" width="10" customWidth="true"/>
+    <col min="11" max="11" width="8.7109375" customWidth="true"/>
+    <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.140625" customWidth="true"/>
-    <col min="17" max="17" width="8.140625" customWidth="true"/>
+    <col min="15" max="15" width="4.37890625" customWidth="true"/>
+    <col min="16" max="16" width="7.93359375" customWidth="true"/>
+    <col min="17" max="17" width="7.82421875" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10" customWidth="true"/>
-    <col min="20" max="20" width="8.28515625" customWidth="true"/>
+    <col min="19" max="19" width="9.37890625" customWidth="true"/>
+    <col min="20" max="20" width="7.37890625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.85546875" customWidth="true"/>
+    <col min="22" max="22" width="8.7109375" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.42578125" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="11.28515625" customWidth="true"/>
-    <col min="27" max="27" width="13" customWidth="true"/>
+    <col min="24" max="24" width="10.37890625" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.26953125" customWidth="true"/>
+    <col min="27" max="27" width="11.48828125" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="8.7109375" customWidth="true"/>
-    <col min="30" max="30" width="5.7109375" customWidth="true"/>
+    <col min="30" max="30" width="5.37890625" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="6.7109375" customWidth="true"/>
-    <col min="33" max="33" width="15" customWidth="true"/>
+    <col min="33" max="33" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1477</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1481</v>
+        <v>4</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1482</v>
+        <v>5</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1484</v>
+        <v>7</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1485</v>
+        <v>8</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1520</v>
+        <v>43</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1521</v>
+        <v>44</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1522</v>
+        <v>45</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1523</v>
+        <v>46</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1524</v>
+        <v>47</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1525</v>
+        <v>48</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1526</v>
+        <v>49</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1527</v>
+        <v>50</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1528</v>
+        <v>51</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1529</v>
+        <v>52</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1530</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1531</v>
+        <v>54</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1532</v>
+        <v>55</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1533</v>
+        <v>56</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1534</v>
+        <v>57</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1535</v>
+        <v>58</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1536</v>
+        <v>59</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1537</v>
+        <v>60</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1538</v>
+        <v>61</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1539</v>
+        <v>62</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1540</v>
+        <v>63</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1541</v>
+        <v>64</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1542</v>
+        <v>65</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1543</v>
+        <v>66</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1544</v>
+        <v>67</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1546</v>
+        <v>69</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1547</v>
+        <v>70</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1548</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0">
         <v>70518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1486</v>
+        <v>9</v>
       </c>
       <c r="F2" s="0">
         <v>527.33900000000006</v>
@@ -5778,7 +1356,7 @@
       </c>
       <c r="AC2" s="0"/>
       <c r="AD2" s="0" t="s">
-        <v>1545</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="0">
         <v>23.333333333333336</v>
@@ -5792,19 +1370,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0">
         <v>50618</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1486</v>
+        <v>9</v>
       </c>
       <c r="F3" s="0">
         <v>478.911</v>
@@ -5879,7 +1457,7 @@
         <v>3.25</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>1545</v>
+        <v>68</v>
       </c>
       <c r="AE3" s="0">
         <v>0</v>
@@ -5893,19 +1471,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B4" s="0">
         <v>50618</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D4" s="0">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1487</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0">
         <v>429.96600000000001</v>
@@ -5980,7 +1558,7 @@
         <v>2.78125</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>1545</v>
+        <v>68</v>
       </c>
       <c r="AE4" s="0">
         <v>0</v>
@@ -5994,19 +1572,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B5" s="0">
         <v>50618</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D5" s="0">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1488</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0">
         <v>513.00300000000004</v>
@@ -6079,7 +1657,7 @@
       </c>
       <c r="AC5" s="0"/>
       <c r="AD5" s="0" t="s">
-        <v>1545</v>
+        <v>68</v>
       </c>
       <c r="AE5" s="0">
         <v>16.666666666666668</v>
@@ -6093,19 +1671,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B6" s="0">
         <v>50618</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1489</v>
+        <v>12</v>
       </c>
       <c r="F6" s="0">
         <v>474.71600000000001</v>
@@ -6180,7 +1758,7 @@
         <v>8.625</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>1545</v>
+        <v>68</v>
       </c>
       <c r="AE6" s="0">
         <v>1.6666666666666667</v>
@@ -6194,19 +1772,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B7" s="0">
         <v>50618</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1490</v>
+        <v>13</v>
       </c>
       <c r="F7" s="0">
         <v>354.89999999999998</v>
@@ -6281,7 +1859,7 @@
         <v>4.21875</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>1545</v>
+        <v>68</v>
       </c>
       <c r="AE7" s="0">
         <v>0</v>
@@ -6295,19 +1873,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B8" s="0">
         <v>50618</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1491</v>
+        <v>14</v>
       </c>
       <c r="F8" s="0">
         <v>383.32900000000001</v>
@@ -6382,7 +1960,7 @@
         <v>3.125</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>1545</v>
+        <v>68</v>
       </c>
       <c r="AE8" s="0">
         <v>0</v>
@@ -6396,19 +1974,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B9" s="0">
         <v>50618</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1492</v>
+        <v>15</v>
       </c>
       <c r="F9" s="0">
         <v>460.68299999999999</v>
@@ -6481,7 +2059,7 @@
       </c>
       <c r="AC9" s="0"/>
       <c r="AD9" s="0" t="s">
-        <v>1545</v>
+        <v>68</v>
       </c>
       <c r="AE9" s="0">
         <v>23.333333333333336</v>
@@ -6495,19 +2073,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B10" s="0">
         <v>311018</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1493</v>
+        <v>16</v>
       </c>
       <c r="F10" s="0">
         <v>575.81500000000005</v>
@@ -6582,7 +2160,7 @@
         <v>6.1875</v>
       </c>
       <c r="AD10" s="0" t="s">
-        <v>1545</v>
+        <v>68</v>
       </c>
       <c r="AE10" s="0">
         <v>16.666666666666668</v>
@@ -6596,19 +2174,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B11" s="0">
         <v>311018</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1494</v>
+        <v>17</v>
       </c>
       <c r="F11" s="0">
         <v>620.48500000000001</v>
@@ -6683,7 +2261,7 @@
         <v>2.125</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>1545</v>
+        <v>68</v>
       </c>
       <c r="AE11" s="0">
         <v>13.333333333333334</v>
@@ -6697,19 +2275,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B12" s="0">
         <v>311018</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1495</v>
+        <v>18</v>
       </c>
       <c r="F12" s="0">
         <v>532.50900000000001</v>
@@ -6784,7 +2362,7 @@
         <v>1.40625</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>1545</v>
+        <v>68</v>
       </c>
       <c r="AE12" s="0">
         <v>25</v>
@@ -6798,19 +2376,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B13" s="0">
         <v>260420</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1496</v>
+        <v>19</v>
       </c>
       <c r="F13" s="0">
         <v>384.10599999999999</v>
@@ -6897,19 +2475,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B14" s="0">
         <v>280420</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1496</v>
+        <v>19</v>
       </c>
       <c r="F14" s="0">
         <v>345.839</v>
@@ -6996,19 +2574,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B15" s="0">
         <v>290420</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D15" s="0">
         <v>3</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1497</v>
+        <v>20</v>
       </c>
       <c r="F15" s="0">
         <v>497.36599999999999</v>
@@ -7095,19 +2673,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B16" s="0">
         <v>290420</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D16" s="0">
         <v>3</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1498</v>
+        <v>21</v>
       </c>
       <c r="F16" s="0">
         <v>530.32899999999995</v>
@@ -7194,19 +2772,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B17" s="0">
         <v>20520</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D17" s="0">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1499</v>
+        <v>22</v>
       </c>
       <c r="F17" s="0">
         <v>509.142</v>
@@ -7293,19 +2871,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B18" s="0">
         <v>20520</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D18" s="0">
         <v>3</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1500</v>
+        <v>23</v>
       </c>
       <c r="F18" s="0">
         <v>377.27699999999999</v>
@@ -7392,19 +2970,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B19" s="0">
         <v>60520</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D19" s="0">
         <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1501</v>
+        <v>24</v>
       </c>
       <c r="F19" s="0">
         <v>554.601</v>
@@ -7491,19 +3069,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B20" s="0">
         <v>41220</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D20" s="0">
         <v>3</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1502</v>
+        <v>25</v>
       </c>
       <c r="F20" s="0">
         <v>468.20600000000002</v>
@@ -7590,19 +3168,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1478</v>
+        <v>1</v>
       </c>
       <c r="B21" s="0">
         <v>30221</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D21" s="0">
         <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1503</v>
+        <v>26</v>
       </c>
       <c r="F21" s="0">
         <v>445.892</v>
@@ -7689,19 +3267,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1479</v>
+        <v>2</v>
       </c>
       <c r="B22" s="0">
         <v>30221</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D22" s="0">
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1504</v>
+        <v>27</v>
       </c>
       <c r="F22" s="0">
         <v>378.37099999999998</v>
@@ -7788,19 +3366,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1480</v>
+        <v>3</v>
       </c>
       <c r="B23" s="0">
         <v>40221</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D23" s="0">
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1504</v>
+        <v>27</v>
       </c>
       <c r="F23" s="0">
         <v>476.60199999999998</v>
@@ -7891,13 +3469,13 @@
         <v>300518</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D24" s="0">
         <v>1</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1505</v>
+        <v>28</v>
       </c>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
@@ -7958,13 +3536,13 @@
         <v>300518</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D25" s="0">
         <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1506</v>
+        <v>29</v>
       </c>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
@@ -8025,13 +3603,13 @@
         <v>300518</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D26" s="0">
         <v>2</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1507</v>
+        <v>30</v>
       </c>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
@@ -8092,13 +3670,13 @@
         <v>300518</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D27" s="0">
         <v>3</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>1508</v>
+        <v>31</v>
       </c>
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
@@ -8159,13 +3737,13 @@
         <v>300518</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D28" s="0">
         <v>3</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1509</v>
+        <v>32</v>
       </c>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
@@ -8226,13 +3804,13 @@
         <v>300518</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D29" s="0">
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>1510</v>
+        <v>33</v>
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
@@ -8291,13 +3869,13 @@
         <v>70618</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D30" s="0">
         <v>1</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1511</v>
+        <v>34</v>
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
@@ -8358,13 +3936,13 @@
         <v>70618</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D31" s="0">
         <v>1</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1512</v>
+        <v>35</v>
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
@@ -8425,13 +4003,13 @@
         <v>70618</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D32" s="0">
         <v>2</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1513</v>
+        <v>36</v>
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
@@ -8492,13 +4070,13 @@
         <v>70618</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D33" s="0">
         <v>2</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1514</v>
+        <v>37</v>
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
@@ -8559,13 +4137,13 @@
         <v>70618</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D34" s="0">
         <v>3</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1515</v>
+        <v>38</v>
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
@@ -8626,13 +4204,13 @@
         <v>70618</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D35" s="0">
         <v>3</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1516</v>
+        <v>39</v>
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0"/>
@@ -8693,13 +4271,13 @@
         <v>80618</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D36" s="0">
         <v>1</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1517</v>
+        <v>40</v>
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0"/>
@@ -8760,13 +4338,13 @@
         <v>80618</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D37" s="0">
         <v>1</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1518</v>
+        <v>41</v>
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0"/>
@@ -8827,13 +4405,13 @@
         <v>80618</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>1483</v>
+        <v>6</v>
       </c>
       <c r="D38" s="0">
         <v>2</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1519</v>
+        <v>42</v>
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0"/>
@@ -8897,157 +4475,157 @@
   <dimension ref="A1:AG14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.85546875" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="10.140625" customWidth="true"/>
+    <col min="7" max="7" width="10.15625" customWidth="true"/>
+    <col min="8" max="8" width="7.37890625" customWidth="true"/>
+    <col min="9" max="9" width="9.15625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="9.42578125" customWidth="true"/>
-    <col min="12" max="12" width="10" customWidth="true"/>
+    <col min="11" max="11" width="8.7109375" customWidth="true"/>
+    <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.140625" customWidth="true"/>
-    <col min="17" max="17" width="8.140625" customWidth="true"/>
+    <col min="15" max="15" width="4.37890625" customWidth="true"/>
+    <col min="16" max="16" width="7.93359375" customWidth="true"/>
+    <col min="17" max="17" width="7.82421875" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10" customWidth="true"/>
-    <col min="20" max="20" width="8.28515625" customWidth="true"/>
+    <col min="19" max="19" width="9.37890625" customWidth="true"/>
+    <col min="20" max="20" width="7.37890625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.85546875" customWidth="true"/>
+    <col min="22" max="22" width="8.7109375" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.42578125" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="11.28515625" customWidth="true"/>
-    <col min="27" max="27" width="13" customWidth="true"/>
+    <col min="24" max="24" width="10.37890625" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.26953125" customWidth="true"/>
+    <col min="27" max="27" width="11.48828125" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="7.7109375" customWidth="true"/>
-    <col min="30" max="30" width="5.7109375" customWidth="true"/>
+    <col min="30" max="30" width="5.37890625" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="6.7109375" customWidth="true"/>
-    <col min="33" max="33" width="15" customWidth="true"/>
+    <col min="33" max="33" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1549</v>
+        <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1552</v>
+        <v>75</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1553</v>
+        <v>76</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1555</v>
+        <v>78</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1556</v>
+        <v>79</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1568</v>
+        <v>91</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1569</v>
+        <v>92</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1570</v>
+        <v>93</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1571</v>
+        <v>94</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1572</v>
+        <v>95</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1573</v>
+        <v>96</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1574</v>
+        <v>97</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1575</v>
+        <v>98</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1576</v>
+        <v>99</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1577</v>
+        <v>100</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1578</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1579</v>
+        <v>102</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1580</v>
+        <v>103</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1581</v>
+        <v>104</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1582</v>
+        <v>105</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1583</v>
+        <v>106</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1584</v>
+        <v>107</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1585</v>
+        <v>108</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1586</v>
+        <v>109</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1587</v>
+        <v>110</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1588</v>
+        <v>111</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1589</v>
+        <v>112</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1590</v>
+        <v>113</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1591</v>
+        <v>114</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1592</v>
+        <v>115</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1594</v>
+        <v>117</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1595</v>
+        <v>118</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1596</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1550</v>
+        <v>73</v>
       </c>
       <c r="B2" s="0">
         <v>220918</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1554</v>
+        <v>77</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1557</v>
+        <v>80</v>
       </c>
       <c r="F2" s="0">
         <v>480.77300000000002</v>
@@ -9122,7 +4700,7 @@
         <v>4.75</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>1593</v>
+        <v>116</v>
       </c>
       <c r="AE2" s="0">
         <v>8.3333333333333339</v>
@@ -9136,19 +4714,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1550</v>
+        <v>73</v>
       </c>
       <c r="B3" s="0">
         <v>250320</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1554</v>
+        <v>77</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1558</v>
+        <v>81</v>
       </c>
       <c r="F3" s="0">
         <v>480.77499999999998</v>
@@ -9235,19 +4813,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1550</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0">
         <v>260320</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1554</v>
+        <v>77</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1559</v>
+        <v>82</v>
       </c>
       <c r="F4" s="0">
         <v>524.59799999999996</v>
@@ -9332,19 +4910,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1550</v>
+        <v>73</v>
       </c>
       <c r="B5" s="0">
         <v>150520</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1554</v>
+        <v>77</v>
       </c>
       <c r="D5" s="0">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1559</v>
+        <v>82</v>
       </c>
       <c r="F5" s="0">
         <v>515.92899999999997</v>
@@ -9431,19 +5009,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1550</v>
+        <v>73</v>
       </c>
       <c r="B6" s="0">
         <v>150520</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1554</v>
+        <v>77</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1560</v>
+        <v>83</v>
       </c>
       <c r="F6" s="0">
         <v>462.14400000000001</v>
@@ -9530,19 +5108,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1550</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0">
         <v>180520</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1554</v>
+        <v>77</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1561</v>
+        <v>84</v>
       </c>
       <c r="F7" s="0">
         <v>424.25799999999998</v>
@@ -9629,19 +5207,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1550</v>
+        <v>73</v>
       </c>
       <c r="B8" s="0">
         <v>180520</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1554</v>
+        <v>77</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1562</v>
+        <v>85</v>
       </c>
       <c r="F8" s="0">
         <v>383.39499999999998</v>
@@ -9728,19 +5306,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1550</v>
+        <v>73</v>
       </c>
       <c r="B9" s="0">
         <v>190520</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1554</v>
+        <v>77</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1563</v>
+        <v>86</v>
       </c>
       <c r="F9" s="0">
         <v>450.01600000000002</v>
@@ -9827,19 +5405,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1550</v>
+        <v>73</v>
       </c>
       <c r="B10" s="0">
         <v>190520</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1554</v>
+        <v>77</v>
       </c>
       <c r="D10" s="0">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1564</v>
+        <v>87</v>
       </c>
       <c r="F10" s="0">
         <v>424.30099999999999</v>
@@ -9926,19 +5504,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1550</v>
+        <v>73</v>
       </c>
       <c r="B11" s="0">
         <v>200520</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1554</v>
+        <v>77</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1564</v>
+        <v>87</v>
       </c>
       <c r="F11" s="0">
         <v>520.65999999999997</v>
@@ -10025,19 +5603,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1551</v>
+        <v>74</v>
       </c>
       <c r="B12" s="0">
         <v>240520</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1554</v>
+        <v>77</v>
       </c>
       <c r="D12" s="0">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1565</v>
+        <v>88</v>
       </c>
       <c r="F12" s="0">
         <v>378.04399999999998</v>
@@ -10128,13 +5706,13 @@
         <v>40918</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1554</v>
+        <v>77</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1566</v>
+        <v>89</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -10193,13 +5771,13 @@
         <v>40918</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1554</v>
+        <v>77</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1567</v>
+        <v>90</v>
       </c>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
@@ -10261,157 +5839,157 @@
   <dimension ref="A1:AG13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.85546875" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="10.140625" customWidth="true"/>
+    <col min="7" max="7" width="10.15625" customWidth="true"/>
+    <col min="8" max="8" width="7.37890625" customWidth="true"/>
+    <col min="9" max="9" width="9.15625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="9.42578125" customWidth="true"/>
-    <col min="12" max="12" width="10" customWidth="true"/>
+    <col min="11" max="11" width="8.7109375" customWidth="true"/>
+    <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.140625" customWidth="true"/>
-    <col min="17" max="17" width="8.140625" customWidth="true"/>
+    <col min="15" max="15" width="4.37890625" customWidth="true"/>
+    <col min="16" max="16" width="7.93359375" customWidth="true"/>
+    <col min="17" max="17" width="7.82421875" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10" customWidth="true"/>
-    <col min="20" max="20" width="8.28515625" customWidth="true"/>
+    <col min="19" max="19" width="9.37890625" customWidth="true"/>
+    <col min="20" max="20" width="7.37890625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.85546875" customWidth="true"/>
+    <col min="22" max="22" width="8.046875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.42578125" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="11.28515625" customWidth="true"/>
-    <col min="27" max="27" width="13" customWidth="true"/>
+    <col min="24" max="24" width="10.37890625" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.26953125" customWidth="true"/>
+    <col min="27" max="27" width="11.48828125" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="7.7109375" customWidth="true"/>
-    <col min="30" max="30" width="5.7109375" customWidth="true"/>
+    <col min="30" max="30" width="5.37890625" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="6.7109375" customWidth="true"/>
-    <col min="33" max="33" width="15" customWidth="true"/>
+    <col min="33" max="33" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1597</v>
+        <v>120</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1599</v>
+        <v>122</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1600</v>
+        <v>123</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1602</v>
+        <v>125</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1603</v>
+        <v>126</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1616</v>
+        <v>139</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1617</v>
+        <v>140</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1618</v>
+        <v>141</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1619</v>
+        <v>142</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1620</v>
+        <v>143</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1621</v>
+        <v>144</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1622</v>
+        <v>145</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1623</v>
+        <v>146</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1624</v>
+        <v>147</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1625</v>
+        <v>148</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1626</v>
+        <v>149</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1627</v>
+        <v>150</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1628</v>
+        <v>151</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1629</v>
+        <v>152</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1630</v>
+        <v>153</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1631</v>
+        <v>154</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1632</v>
+        <v>155</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1633</v>
+        <v>156</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1634</v>
+        <v>157</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1635</v>
+        <v>158</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1636</v>
+        <v>159</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1637</v>
+        <v>160</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1638</v>
+        <v>161</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1639</v>
+        <v>162</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1640</v>
+        <v>163</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1643</v>
+        <v>166</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1644</v>
+        <v>167</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1645</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1598</v>
+        <v>121</v>
       </c>
       <c r="B2" s="0">
         <v>11018</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1601</v>
+        <v>124</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1604</v>
+        <v>127</v>
       </c>
       <c r="F2" s="0">
         <v>410.63499999999999</v>
@@ -10486,7 +6064,7 @@
         <v>0.25</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>1641</v>
+        <v>164</v>
       </c>
       <c r="AE2" s="0">
         <v>30</v>
@@ -10500,19 +6078,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1598</v>
+        <v>121</v>
       </c>
       <c r="B3" s="0">
         <v>150519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1601</v>
+        <v>124</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1605</v>
+        <v>128</v>
       </c>
       <c r="F3" s="0">
         <v>342.39699999999999</v>
@@ -10595,19 +6173,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1598</v>
+        <v>121</v>
       </c>
       <c r="B4" s="0">
         <v>150519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1601</v>
+        <v>124</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1606</v>
+        <v>129</v>
       </c>
       <c r="F4" s="0">
         <v>499.39800000000002</v>
@@ -10682,7 +6260,7 @@
         <v>7.8125</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>1642</v>
+        <v>165</v>
       </c>
       <c r="AE4" s="0">
         <v>28.333333333333336</v>
@@ -10696,19 +6274,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1598</v>
+        <v>121</v>
       </c>
       <c r="B5" s="0">
         <v>160519</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1601</v>
+        <v>124</v>
       </c>
       <c r="D5" s="0">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1607</v>
+        <v>130</v>
       </c>
       <c r="F5" s="0">
         <v>407.608</v>
@@ -10795,19 +6373,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1598</v>
+        <v>121</v>
       </c>
       <c r="B6" s="0">
         <v>160519</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1601</v>
+        <v>124</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1608</v>
+        <v>131</v>
       </c>
       <c r="F6" s="0">
         <v>409.11200000000002</v>
@@ -10894,19 +6472,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1598</v>
+        <v>121</v>
       </c>
       <c r="B7" s="0">
         <v>170519</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1601</v>
+        <v>124</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1609</v>
+        <v>132</v>
       </c>
       <c r="F7" s="0">
         <v>463.661</v>
@@ -10993,19 +6571,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1598</v>
+        <v>121</v>
       </c>
       <c r="B8" s="0">
         <v>170519</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1601</v>
+        <v>124</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1610</v>
+        <v>133</v>
       </c>
       <c r="F8" s="0">
         <v>452.399</v>
@@ -11096,13 +6674,13 @@
         <v>11018</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1601</v>
+        <v>124</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1611</v>
+        <v>134</v>
       </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
@@ -11163,13 +6741,13 @@
         <v>11018</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1601</v>
+        <v>124</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1612</v>
+        <v>135</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -11230,11 +6808,11 @@
         <v>270319</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1601</v>
+        <v>124</v>
       </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0" t="s">
-        <v>1613</v>
+        <v>136</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -11295,11 +6873,11 @@
         <v>270319</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1601</v>
+        <v>124</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0" t="s">
-        <v>1614</v>
+        <v>137</v>
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -11360,11 +6938,11 @@
         <v>270320</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1601</v>
+        <v>124</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0" t="s">
-        <v>1615</v>
+        <v>138</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -11428,157 +7006,157 @@
   <dimension ref="A1:AG48"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.85546875" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="10.140625" customWidth="true"/>
+    <col min="7" max="7" width="10.15625" customWidth="true"/>
+    <col min="8" max="8" width="7.37890625" customWidth="true"/>
+    <col min="9" max="9" width="9.15625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="9.42578125" customWidth="true"/>
-    <col min="12" max="12" width="10" customWidth="true"/>
+    <col min="11" max="11" width="8.7109375" customWidth="true"/>
+    <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.140625" customWidth="true"/>
-    <col min="17" max="17" width="8.140625" customWidth="true"/>
+    <col min="15" max="15" width="4.37890625" customWidth="true"/>
+    <col min="16" max="16" width="7.93359375" customWidth="true"/>
+    <col min="17" max="17" width="7.82421875" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10" customWidth="true"/>
-    <col min="20" max="20" width="8.28515625" customWidth="true"/>
+    <col min="19" max="19" width="9.37890625" customWidth="true"/>
+    <col min="20" max="20" width="7.37890625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.85546875" customWidth="true"/>
+    <col min="22" max="22" width="8.7109375" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="12.42578125" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="11.28515625" customWidth="true"/>
-    <col min="27" max="27" width="13" customWidth="true"/>
+    <col min="24" max="24" width="12.37890625" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.26953125" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="8.7109375" customWidth="true"/>
-    <col min="30" max="30" width="5.7109375" customWidth="true"/>
+    <col min="30" max="30" width="5.37890625" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="6.7109375" customWidth="true"/>
-    <col min="33" max="33" width="15" customWidth="true"/>
+    <col min="33" max="33" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1646</v>
+        <v>169</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1648</v>
+        <v>171</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1649</v>
+        <v>172</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1651</v>
+        <v>174</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1652</v>
+        <v>175</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1700</v>
+        <v>223</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1701</v>
+        <v>224</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1702</v>
+        <v>225</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1703</v>
+        <v>226</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1704</v>
+        <v>227</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1705</v>
+        <v>228</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1706</v>
+        <v>229</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1707</v>
+        <v>230</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1708</v>
+        <v>231</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1709</v>
+        <v>232</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1710</v>
+        <v>233</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1711</v>
+        <v>234</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1712</v>
+        <v>235</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1713</v>
+        <v>236</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1714</v>
+        <v>237</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1715</v>
+        <v>238</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1716</v>
+        <v>239</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1717</v>
+        <v>240</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1718</v>
+        <v>241</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1719</v>
+        <v>242</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1720</v>
+        <v>243</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1721</v>
+        <v>244</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1722</v>
+        <v>245</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1723</v>
+        <v>246</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1724</v>
+        <v>247</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1726</v>
+        <v>249</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1727</v>
+        <v>250</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1728</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B2" s="0">
         <v>30518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1653</v>
+        <v>176</v>
       </c>
       <c r="F2" s="0">
         <v>532.80600000000004</v>
@@ -11653,7 +7231,7 @@
         <v>2.40625</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>1725</v>
+        <v>248</v>
       </c>
       <c r="AE2" s="0">
         <v>3.3333333333333335</v>
@@ -11667,19 +7245,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B3" s="0">
         <v>30518</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1654</v>
+        <v>177</v>
       </c>
       <c r="F3" s="0">
         <v>462.94099999999997</v>
@@ -11754,7 +7332,7 @@
         <v>5.875</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>1725</v>
+        <v>248</v>
       </c>
       <c r="AE3" s="0">
         <v>3.3333333333333335</v>
@@ -11768,19 +7346,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B4" s="0">
         <v>80518</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1655</v>
+        <v>178</v>
       </c>
       <c r="F4" s="0">
         <v>484.14499999999998</v>
@@ -11855,7 +7433,7 @@
         <v>12.21875</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>1725</v>
+        <v>248</v>
       </c>
       <c r="AE4" s="0">
         <v>21.666666666666668</v>
@@ -11869,19 +7447,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B5" s="0">
         <v>80518</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1656</v>
+        <v>179</v>
       </c>
       <c r="F5" s="0">
         <v>472.774</v>
@@ -11956,7 +7534,7 @@
         <v>2.53125</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>1725</v>
+        <v>248</v>
       </c>
       <c r="AE5" s="0">
         <v>10</v>
@@ -11970,19 +7548,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B6" s="0">
         <v>80518</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1657</v>
+        <v>180</v>
       </c>
       <c r="F6" s="0">
         <v>499.76400000000001</v>
@@ -12055,7 +7633,7 @@
       </c>
       <c r="AC6" s="0"/>
       <c r="AD6" s="0" t="s">
-        <v>1725</v>
+        <v>248</v>
       </c>
       <c r="AE6" s="0">
         <v>21.666666666666668</v>
@@ -12069,19 +7647,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B7" s="0">
         <v>80818</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1658</v>
+        <v>181</v>
       </c>
       <c r="F7" s="0">
         <v>486.38900000000001</v>
@@ -12156,7 +7734,7 @@
         <v>2.71875</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>1725</v>
+        <v>248</v>
       </c>
       <c r="AE7" s="0">
         <v>25</v>
@@ -12170,19 +7748,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B8" s="0">
         <v>80818</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1659</v>
+        <v>182</v>
       </c>
       <c r="F8" s="0">
         <v>496.774</v>
@@ -12251,7 +7829,7 @@
       </c>
       <c r="AC8" s="0"/>
       <c r="AD8" s="0" t="s">
-        <v>1725</v>
+        <v>248</v>
       </c>
       <c r="AE8" s="0">
         <v>53.333333333333336</v>
@@ -12265,19 +7843,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B9" s="0">
         <v>80818</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1660</v>
+        <v>183</v>
       </c>
       <c r="F9" s="0">
         <v>448.62900000000002</v>
@@ -12352,7 +7930,7 @@
         <v>3.53125</v>
       </c>
       <c r="AD9" s="0" t="s">
-        <v>1725</v>
+        <v>248</v>
       </c>
       <c r="AE9" s="0">
         <v>11.666666666666668</v>
@@ -12366,19 +7944,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B10" s="0">
         <v>80818</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1661</v>
+        <v>184</v>
       </c>
       <c r="F10" s="0">
         <v>482.81599999999997</v>
@@ -12451,7 +8029,7 @@
       </c>
       <c r="AC10" s="0"/>
       <c r="AD10" s="0" t="s">
-        <v>1725</v>
+        <v>248</v>
       </c>
       <c r="AE10" s="0">
         <v>50</v>
@@ -12465,19 +8043,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B11" s="0">
         <v>80818</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1662</v>
+        <v>185</v>
       </c>
       <c r="F11" s="0">
         <v>361.84899999999999</v>
@@ -12552,7 +8130,7 @@
         <v>2.53125</v>
       </c>
       <c r="AD11" s="0" t="s">
-        <v>1725</v>
+        <v>248</v>
       </c>
       <c r="AE11" s="0">
         <v>36.666666666666671</v>
@@ -12566,19 +8144,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B12" s="0">
         <v>80818</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1663</v>
+        <v>186</v>
       </c>
       <c r="F12" s="0">
         <v>417.62</v>
@@ -12653,7 +8231,7 @@
         <v>4.6875</v>
       </c>
       <c r="AD12" s="0" t="s">
-        <v>1725</v>
+        <v>248</v>
       </c>
       <c r="AE12" s="0">
         <v>0</v>
@@ -12667,19 +8245,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B13" s="0">
         <v>41220</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1664</v>
+        <v>187</v>
       </c>
       <c r="F13" s="0">
         <v>443.95999999999998</v>
@@ -12766,19 +8344,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B14" s="0">
         <v>81220</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1665</v>
+        <v>188</v>
       </c>
       <c r="F14" s="0">
         <v>337.86000000000001</v>
@@ -12865,19 +8443,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B15" s="0">
         <v>81220</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D15" s="0">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1666</v>
+        <v>189</v>
       </c>
       <c r="F15" s="0">
         <v>395.22399999999999</v>
@@ -12964,19 +8542,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B16" s="0">
         <v>91220</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D16" s="0">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1667</v>
+        <v>190</v>
       </c>
       <c r="F16" s="0">
         <v>402.30399999999997</v>
@@ -13063,19 +8641,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B17" s="0">
         <v>91220</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D17" s="0">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1668</v>
+        <v>191</v>
       </c>
       <c r="F17" s="0">
         <v>420.47300000000001</v>
@@ -13162,19 +8740,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B18" s="0">
         <v>130121</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D18" s="0">
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1669</v>
+        <v>192</v>
       </c>
       <c r="F18" s="0">
         <v>433.36700000000002</v>
@@ -13261,19 +8839,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B19" s="0">
         <v>130121</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D19" s="0">
         <v>3</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1670</v>
+        <v>193</v>
       </c>
       <c r="F19" s="0">
         <v>494.46800000000002</v>
@@ -13360,19 +8938,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B20" s="0">
         <v>130121</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D20" s="0">
         <v>5</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1671</v>
+        <v>194</v>
       </c>
       <c r="F20" s="0">
         <v>457.59800000000001</v>
@@ -13459,19 +9037,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B21" s="0">
         <v>180121</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D21" s="0">
         <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1672</v>
+        <v>195</v>
       </c>
       <c r="F21" s="0">
         <v>361.38999999999999</v>
@@ -13558,19 +9136,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B22" s="0">
         <v>180121</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D22" s="0">
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1673</v>
+        <v>196</v>
       </c>
       <c r="F22" s="0">
         <v>416.15499999999997</v>
@@ -13657,19 +9235,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B23" s="0">
         <v>180121</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D23" s="0">
         <v>3</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1674</v>
+        <v>197</v>
       </c>
       <c r="F23" s="0">
         <v>404.61900000000003</v>
@@ -13756,19 +9334,19 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B24" s="0">
         <v>190121</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D24" s="0">
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1675</v>
+        <v>198</v>
       </c>
       <c r="F24" s="0">
         <v>517.55600000000004</v>
@@ -13855,19 +9433,19 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B25" s="0">
         <v>250121</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D25" s="0">
         <v>2</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1676</v>
+        <v>199</v>
       </c>
       <c r="F25" s="0">
         <v>418.19600000000003</v>
@@ -13954,19 +9532,19 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B26" s="0">
         <v>250121</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D26" s="0">
         <v>2</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1677</v>
+        <v>200</v>
       </c>
       <c r="F26" s="0">
         <v>421.99000000000001</v>
@@ -14053,19 +9631,19 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B27" s="0">
         <v>250121</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D27" s="0">
         <v>2</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>1678</v>
+        <v>201</v>
       </c>
       <c r="F27" s="0">
         <v>450.01600000000002</v>
@@ -14152,19 +9730,19 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B28" s="0">
         <v>250121</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D28" s="0">
         <v>3</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>1679</v>
+        <v>202</v>
       </c>
       <c r="F28" s="0">
         <v>479.04000000000002</v>
@@ -14251,19 +9829,19 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1647</v>
+        <v>170</v>
       </c>
       <c r="B29" s="0">
         <v>250121</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D29" s="0">
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>1680</v>
+        <v>203</v>
       </c>
       <c r="F29" s="0">
         <v>457.59699999999998</v>
@@ -14354,13 +9932,13 @@
         <v>30818</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D30" s="0">
         <v>3</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>1681</v>
+        <v>204</v>
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
@@ -14421,13 +9999,13 @@
         <v>30818</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D31" s="0">
         <v>3</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>1682</v>
+        <v>205</v>
       </c>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
@@ -14488,13 +10066,13 @@
         <v>30818</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D32" s="0">
         <v>3</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>1683</v>
+        <v>206</v>
       </c>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
@@ -14555,13 +10133,13 @@
         <v>30818</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D33" s="0">
         <v>3</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>1684</v>
+        <v>207</v>
       </c>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
@@ -14622,13 +10200,13 @@
         <v>30818</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D34" s="0">
         <v>1</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>1685</v>
+        <v>208</v>
       </c>
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
@@ -14687,13 +10265,13 @@
         <v>30818</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D35" s="0">
         <v>2</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>1686</v>
+        <v>209</v>
       </c>
       <c r="F35" s="0"/>
       <c r="G35" s="0"/>
@@ -14754,13 +10332,13 @@
         <v>60818</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D36" s="0">
         <v>1</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>1687</v>
+        <v>210</v>
       </c>
       <c r="F36" s="0"/>
       <c r="G36" s="0"/>
@@ -14821,13 +10399,13 @@
         <v>60818</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D37" s="0">
         <v>3</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>1688</v>
+        <v>211</v>
       </c>
       <c r="F37" s="0"/>
       <c r="G37" s="0"/>
@@ -14888,13 +10466,13 @@
         <v>60818</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D38" s="0">
         <v>1</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>1689</v>
+        <v>212</v>
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0"/>
@@ -14955,13 +10533,13 @@
         <v>60818</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D39" s="0">
         <v>2</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>1690</v>
+        <v>213</v>
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0"/>
@@ -15022,13 +10600,13 @@
         <v>60818</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D40" s="0">
         <v>3</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>1691</v>
+        <v>214</v>
       </c>
       <c r="F40" s="0"/>
       <c r="G40" s="0"/>
@@ -15089,13 +10667,13 @@
         <v>60818</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D41" s="0">
         <v>3</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>1692</v>
+        <v>215</v>
       </c>
       <c r="F41" s="0"/>
       <c r="G41" s="0"/>
@@ -15156,13 +10734,13 @@
         <v>70818</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D42" s="0">
         <v>1</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1693</v>
+        <v>216</v>
       </c>
       <c r="F42" s="0"/>
       <c r="G42" s="0"/>
@@ -15223,13 +10801,13 @@
         <v>70818</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D43" s="0">
         <v>2</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1694</v>
+        <v>217</v>
       </c>
       <c r="F43" s="0"/>
       <c r="G43" s="0"/>
@@ -15290,13 +10868,13 @@
         <v>70818</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D44" s="0">
         <v>1</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>1695</v>
+        <v>218</v>
       </c>
       <c r="F44" s="0"/>
       <c r="G44" s="0"/>
@@ -15357,13 +10935,13 @@
         <v>70818</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D45" s="0">
         <v>2</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>1696</v>
+        <v>219</v>
       </c>
       <c r="F45" s="0"/>
       <c r="G45" s="0"/>
@@ -15424,13 +11002,13 @@
         <v>140818</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D46" s="0">
         <v>1</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>1697</v>
+        <v>220</v>
       </c>
       <c r="F46" s="0"/>
       <c r="G46" s="0"/>
@@ -15489,13 +11067,13 @@
         <v>140818</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D47" s="0">
         <v>1</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>1698</v>
+        <v>221</v>
       </c>
       <c r="F47" s="0"/>
       <c r="G47" s="0"/>
@@ -15556,13 +11134,13 @@
         <v>140818</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>1650</v>
+        <v>173</v>
       </c>
       <c r="D48" s="0">
         <v>2</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>1699</v>
+        <v>222</v>
       </c>
       <c r="F48" s="0"/>
       <c r="G48" s="0"/>
@@ -15626,157 +11204,157 @@
   <dimension ref="A1:AG17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.85546875" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="10.140625" customWidth="true"/>
+    <col min="7" max="7" width="10.15625" customWidth="true"/>
+    <col min="8" max="8" width="7.37890625" customWidth="true"/>
+    <col min="9" max="9" width="9.15625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="9.42578125" customWidth="true"/>
-    <col min="12" max="12" width="10" customWidth="true"/>
+    <col min="11" max="11" width="8.7109375" customWidth="true"/>
+    <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.140625" customWidth="true"/>
-    <col min="17" max="17" width="8.140625" customWidth="true"/>
+    <col min="15" max="15" width="4.37890625" customWidth="true"/>
+    <col min="16" max="16" width="7.93359375" customWidth="true"/>
+    <col min="17" max="17" width="7.82421875" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10" customWidth="true"/>
-    <col min="20" max="20" width="8.28515625" customWidth="true"/>
+    <col min="19" max="19" width="9.37890625" customWidth="true"/>
+    <col min="20" max="20" width="7.37890625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.85546875" customWidth="true"/>
+    <col min="22" max="22" width="8.046875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.42578125" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="11.28515625" customWidth="true"/>
-    <col min="27" max="27" width="13" customWidth="true"/>
+    <col min="24" max="24" width="10.37890625" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.26953125" customWidth="true"/>
+    <col min="27" max="27" width="11.48828125" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="8.7109375" customWidth="true"/>
-    <col min="30" max="30" width="5.7109375" customWidth="true"/>
+    <col min="30" max="30" width="5.37890625" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="6.7109375" customWidth="true"/>
-    <col min="33" max="33" width="15" customWidth="true"/>
+    <col min="33" max="33" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1729</v>
+        <v>252</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1731</v>
+        <v>254</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1732</v>
+        <v>255</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1734</v>
+        <v>257</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1735</v>
+        <v>258</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1752</v>
+        <v>275</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1753</v>
+        <v>276</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1754</v>
+        <v>277</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1755</v>
+        <v>278</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1756</v>
+        <v>279</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1757</v>
+        <v>280</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1758</v>
+        <v>281</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1759</v>
+        <v>282</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1760</v>
+        <v>283</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1761</v>
+        <v>284</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1762</v>
+        <v>285</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1763</v>
+        <v>286</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1764</v>
+        <v>287</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1765</v>
+        <v>288</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1766</v>
+        <v>289</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1767</v>
+        <v>290</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1768</v>
+        <v>291</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1769</v>
+        <v>292</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1770</v>
+        <v>293</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1771</v>
+        <v>294</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1772</v>
+        <v>295</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1773</v>
+        <v>296</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1774</v>
+        <v>297</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1775</v>
+        <v>298</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1776</v>
+        <v>299</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1777</v>
+        <v>300</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1778</v>
+        <v>301</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1779</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1730</v>
+        <v>253</v>
       </c>
       <c r="B2" s="0">
         <v>220519</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1733</v>
+        <v>256</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1736</v>
+        <v>259</v>
       </c>
       <c r="F2" s="0">
         <v>588.45399999999995</v>
@@ -15863,19 +11441,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1730</v>
+        <v>253</v>
       </c>
       <c r="B3" s="0">
         <v>220519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1733</v>
+        <v>256</v>
       </c>
       <c r="D3" s="0">
         <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1737</v>
+        <v>260</v>
       </c>
       <c r="F3" s="0">
         <v>505.04199999999997</v>
@@ -15962,19 +11540,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1730</v>
+        <v>253</v>
       </c>
       <c r="B4" s="0">
         <v>220519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1733</v>
+        <v>256</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1738</v>
+        <v>261</v>
       </c>
       <c r="F4" s="0">
         <v>488.39400000000001</v>
@@ -16059,19 +11637,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1730</v>
+        <v>253</v>
       </c>
       <c r="B5" s="0">
         <v>290519</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1733</v>
+        <v>256</v>
       </c>
       <c r="D5" s="0">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1739</v>
+        <v>262</v>
       </c>
       <c r="F5" s="0">
         <v>421.226</v>
@@ -16158,19 +11736,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1730</v>
+        <v>253</v>
       </c>
       <c r="B6" s="0">
         <v>300519</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1733</v>
+        <v>256</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1740</v>
+        <v>263</v>
       </c>
       <c r="F6" s="0">
         <v>434.90699999999998</v>
@@ -16255,19 +11833,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1730</v>
+        <v>253</v>
       </c>
       <c r="B7" s="0">
         <v>300519</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1733</v>
+        <v>256</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1741</v>
+        <v>264</v>
       </c>
       <c r="F7" s="0">
         <v>528.89200000000005</v>
@@ -16354,19 +11932,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1730</v>
+        <v>253</v>
       </c>
       <c r="B8" s="0">
         <v>270520</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1733</v>
+        <v>256</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1742</v>
+        <v>265</v>
       </c>
       <c r="F8" s="0">
         <v>391.40600000000001</v>
@@ -16453,19 +12031,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1730</v>
+        <v>253</v>
       </c>
       <c r="B9" s="0">
         <v>270520</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1733</v>
+        <v>256</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1743</v>
+        <v>266</v>
       </c>
       <c r="F9" s="0">
         <v>400.02699999999999</v>
@@ -16556,13 +12134,13 @@
         <v>251018</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1733</v>
+        <v>256</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1744</v>
+        <v>267</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -16623,13 +12201,13 @@
         <v>261018</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1733</v>
+        <v>256</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1745</v>
+        <v>268</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -16690,13 +12268,13 @@
         <v>261018</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1733</v>
+        <v>256</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1746</v>
+        <v>269</v>
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -16757,13 +12335,13 @@
         <v>261018</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1733</v>
+        <v>256</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1747</v>
+        <v>270</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -16824,13 +12402,13 @@
         <v>261018</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1733</v>
+        <v>256</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1748</v>
+        <v>271</v>
       </c>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
@@ -16889,13 +12467,13 @@
         <v>220519</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1733</v>
+        <v>256</v>
       </c>
       <c r="D15" s="0">
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1749</v>
+        <v>272</v>
       </c>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
@@ -16956,13 +12534,13 @@
         <v>220519</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1733</v>
+        <v>256</v>
       </c>
       <c r="D16" s="0">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1750</v>
+        <v>273</v>
       </c>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
@@ -17021,13 +12599,13 @@
         <v>220519</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1733</v>
+        <v>256</v>
       </c>
       <c r="D17" s="0">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1751</v>
+        <v>274</v>
       </c>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
@@ -17088,160 +12666,160 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG14"/>
+  <dimension ref="A1:AG11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.5703125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.6015625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.85546875" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="10.140625" customWidth="true"/>
+    <col min="7" max="7" width="10.15625" customWidth="true"/>
+    <col min="8" max="8" width="7.37890625" customWidth="true"/>
+    <col min="9" max="9" width="9.15625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="9.42578125" customWidth="true"/>
-    <col min="12" max="12" width="10" customWidth="true"/>
+    <col min="11" max="11" width="8.7109375" customWidth="true"/>
+    <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.140625" customWidth="true"/>
-    <col min="17" max="17" width="8.140625" customWidth="true"/>
+    <col min="15" max="15" width="4.37890625" customWidth="true"/>
+    <col min="16" max="16" width="7.93359375" customWidth="true"/>
+    <col min="17" max="17" width="7.82421875" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10" customWidth="true"/>
-    <col min="20" max="20" width="8.28515625" customWidth="true"/>
+    <col min="19" max="19" width="9.37890625" customWidth="true"/>
+    <col min="20" max="20" width="7.37890625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.85546875" customWidth="true"/>
+    <col min="22" max="22" width="8.046875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.42578125" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="11.28515625" customWidth="true"/>
-    <col min="27" max="27" width="13" customWidth="true"/>
+    <col min="24" max="24" width="10.37890625" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.26953125" customWidth="true"/>
+    <col min="27" max="27" width="11.48828125" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="7.7109375" customWidth="true"/>
-    <col min="30" max="30" width="5.7109375" customWidth="true"/>
+    <col min="30" max="30" width="5.37890625" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="6.7109375" customWidth="true"/>
-    <col min="33" max="33" width="15" customWidth="true"/>
+    <col min="33" max="33" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1780</v>
+        <v>303</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1784</v>
+        <v>307</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1785</v>
+        <v>308</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1787</v>
+        <v>310</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1788</v>
+        <v>311</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1799</v>
+        <v>322</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1800</v>
+        <v>323</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1801</v>
+        <v>324</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1802</v>
+        <v>325</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1803</v>
+        <v>326</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1804</v>
+        <v>327</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1805</v>
+        <v>328</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1806</v>
+        <v>329</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1807</v>
+        <v>330</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1808</v>
+        <v>331</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1809</v>
+        <v>332</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1810</v>
+        <v>333</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1811</v>
+        <v>334</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1812</v>
+        <v>335</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1813</v>
+        <v>336</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1814</v>
+        <v>337</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1815</v>
+        <v>338</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1816</v>
+        <v>339</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1817</v>
+        <v>340</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1818</v>
+        <v>341</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1819</v>
+        <v>342</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1820</v>
+        <v>343</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1821</v>
+        <v>344</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1822</v>
+        <v>345</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1823</v>
+        <v>346</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1826</v>
+        <v>349</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1827</v>
+        <v>350</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1828</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1781</v>
+        <v>304</v>
       </c>
       <c r="B2" s="0">
         <v>31218</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1786</v>
+        <v>309</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1789</v>
+        <v>312</v>
       </c>
       <c r="F2" s="0">
         <v>429.56400000000002</v>
@@ -17316,7 +12894,7 @@
         <v>8.5</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>1824</v>
+        <v>347</v>
       </c>
       <c r="AE2" s="0">
         <v>3.3333333333333335</v>
@@ -17330,19 +12908,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1781</v>
+        <v>304</v>
       </c>
       <c r="B3" s="0">
         <v>31218</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1786</v>
+        <v>309</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1790</v>
+        <v>313</v>
       </c>
       <c r="F3" s="0">
         <v>387.68099999999998</v>
@@ -17417,7 +12995,7 @@
         <v>6.59375</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>1824</v>
+        <v>347</v>
       </c>
       <c r="AE3" s="0">
         <v>13.333333333333334</v>
@@ -17431,19 +13009,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1781</v>
+        <v>304</v>
       </c>
       <c r="B4" s="0">
         <v>171218</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1786</v>
+        <v>309</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1791</v>
+        <v>314</v>
       </c>
       <c r="F4" s="0">
         <v>389.012</v>
@@ -17518,7 +13096,7 @@
         <v>4.6875</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>1824</v>
+        <v>347</v>
       </c>
       <c r="AE4" s="0">
         <v>13.333333333333334</v>
@@ -17532,19 +13110,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1781</v>
+        <v>304</v>
       </c>
       <c r="B5" s="0">
         <v>70219</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1786</v>
+        <v>309</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1792</v>
+        <v>315</v>
       </c>
       <c r="F5" s="0">
         <v>404.084</v>
@@ -17617,7 +13195,7 @@
       </c>
       <c r="AC5" s="0"/>
       <c r="AD5" s="0" t="s">
-        <v>1825</v>
+        <v>348</v>
       </c>
       <c r="AE5" s="0">
         <v>11.666666666666668</v>
@@ -17631,19 +13209,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1781</v>
+        <v>304</v>
       </c>
       <c r="B6" s="0">
         <v>80219</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1786</v>
+        <v>309</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1793</v>
+        <v>316</v>
       </c>
       <c r="F6" s="0">
         <v>309.95600000000002</v>
@@ -17730,19 +13308,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1781</v>
+        <v>304</v>
       </c>
       <c r="B7" s="0">
         <v>80219</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1786</v>
+        <v>309</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1794</v>
+        <v>317</v>
       </c>
       <c r="F7" s="0">
         <v>409.024</v>
@@ -17829,19 +13407,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1781</v>
+        <v>304</v>
       </c>
       <c r="B8" s="0">
         <v>80219</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1786</v>
+        <v>309</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1795</v>
+        <v>318</v>
       </c>
       <c r="F8" s="0">
         <v>428.99900000000002</v>
@@ -17926,19 +13504,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1782</v>
+        <v>305</v>
       </c>
       <c r="B9" s="0">
         <v>80219</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1786</v>
+        <v>309</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1796</v>
+        <v>319</v>
       </c>
       <c r="F9" s="0">
         <v>411.88499999999999</v>
@@ -18025,19 +13603,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1783</v>
+        <v>306</v>
       </c>
       <c r="B10" s="0">
         <v>120219</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1786</v>
+        <v>309</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1797</v>
+        <v>320</v>
       </c>
       <c r="F10" s="0">
         <v>362.279</v>
@@ -18124,19 +13702,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1783</v>
+        <v>306</v>
       </c>
       <c r="B11" s="0">
         <v>120219</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1786</v>
+        <v>309</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1798</v>
+        <v>321</v>
       </c>
       <c r="F11" s="0">
         <v>341.43299999999999</v>
@@ -18221,777 +13799,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="B12" s="0">
-        <v>120219</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12" s="0">
-        <v>2</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F12" s="0">
-        <v>341.43299999999999</v>
-      </c>
-      <c r="G12" s="0">
-        <v>118.57599999999999</v>
-      </c>
-      <c r="H12" s="0">
-        <v>8.0109999999999992</v>
-      </c>
-      <c r="I12" s="0">
-        <v>58.225000000000001</v>
-      </c>
-      <c r="J12" s="0">
-        <v>177.41499999999999</v>
-      </c>
-      <c r="K12" s="0">
-        <v>4.0300000000000002</v>
-      </c>
-      <c r="L12" s="0">
-        <v>15.722</v>
-      </c>
-      <c r="M12" s="0">
-        <v>101.824</v>
-      </c>
-      <c r="N12" s="0">
-        <v>66.611000000000004</v>
-      </c>
-      <c r="O12" s="0">
-        <v>5</v>
-      </c>
-      <c r="P12" s="0">
-        <v>155.98400000000001</v>
-      </c>
-      <c r="Q12" s="0">
-        <v>113.973</v>
-      </c>
-      <c r="R12" s="0">
-        <v>34.168999999999997</v>
-      </c>
-      <c r="S12" s="0">
-        <v>4</v>
-      </c>
-      <c r="T12" s="0">
-        <v>2</v>
-      </c>
-      <c r="U12" s="0">
-        <v>1.3712145880820581</v>
-      </c>
-      <c r="V12" s="0">
-        <v>7.125</v>
-      </c>
-      <c r="W12" s="0">
-        <v>63.979166666666643</v>
-      </c>
-      <c r="X12" s="0">
-        <v>-67.118750000000006</v>
-      </c>
-      <c r="Y12" s="0">
-        <v>109.54292096473466</v>
-      </c>
-      <c r="Z12" s="0">
-        <v>9</v>
-      </c>
-      <c r="AA12" s="0">
-        <v>113.05625000000001</v>
-      </c>
-      <c r="AB12" s="0">
-        <v>0.90709745720521795</v>
-      </c>
-      <c r="AC12" s="0">
-        <v>4.09375</v>
-      </c>
-      <c r="AD12" s="0"/>
-      <c r="AE12" s="0">
-        <v>15</v>
-      </c>
-      <c r="AF12" s="0">
-        <v>6.1875</v>
-      </c>
-      <c r="AG12" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="B13" s="0">
-        <v>120219</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" s="0">
-        <v>2</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="F13" s="0">
-        <v>500.5</v>
-      </c>
-      <c r="G13" s="0">
-        <v>320.55099999999999</v>
-      </c>
-      <c r="H13" s="0">
-        <v>11.882999999999999</v>
-      </c>
-      <c r="I13" s="0">
-        <v>54.436</v>
-      </c>
-      <c r="J13" s="0">
-        <v>182.595</v>
-      </c>
-      <c r="K13" s="0">
-        <v>3.4180000000000001</v>
-      </c>
-      <c r="L13" s="0">
-        <v>13.473000000000001</v>
-      </c>
-      <c r="M13" s="0">
-        <v>200.48699999999999</v>
-      </c>
-      <c r="N13" s="0">
-        <v>164.32400000000001</v>
-      </c>
-      <c r="O13" s="0">
-        <v>4</v>
-      </c>
-      <c r="P13" s="0">
-        <v>222.97</v>
-      </c>
-      <c r="Q13" s="0">
-        <v>168.53999999999999</v>
-      </c>
-      <c r="R13" s="0">
-        <v>34.561999999999998</v>
-      </c>
-      <c r="S13" s="0">
-        <v>4</v>
-      </c>
-      <c r="T13" s="0">
-        <v>11</v>
-      </c>
-      <c r="U13" s="0">
-        <v>1.2230009557183816</v>
-      </c>
-      <c r="V13" s="0">
-        <v>2.1875</v>
-      </c>
-      <c r="W13" s="0">
-        <v>32.697916666666679</v>
-      </c>
-      <c r="X13" s="0">
-        <v>-63.190624999999997</v>
-      </c>
-      <c r="Y13" s="0">
-        <v>252.73944893696972</v>
-      </c>
-      <c r="Z13" s="0">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="0">
-        <v>98.471875000000011</v>
-      </c>
-      <c r="AB13" s="0">
-        <v>1.0508429861355815</v>
-      </c>
-      <c r="AC13" s="0"/>
-      <c r="AD13" s="0"/>
-      <c r="AE13" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="0">
-        <v>1.9375</v>
-      </c>
-      <c r="AG13" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="B14" s="0">
-        <v>150519</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="0">
-        <v>2</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="F14" s="0">
-        <v>499.39800000000002</v>
-      </c>
-      <c r="G14" s="0">
-        <v>336.72300000000001</v>
-      </c>
-      <c r="H14" s="0">
-        <v>12.067</v>
-      </c>
-      <c r="I14" s="0">
-        <v>53.226999999999997</v>
-      </c>
-      <c r="J14" s="0">
-        <v>160.43700000000001</v>
-      </c>
-      <c r="K14" s="0">
-        <v>3.2229999999999999</v>
-      </c>
-      <c r="L14" s="0">
-        <v>15.356</v>
-      </c>
-      <c r="M14" s="0">
-        <v>124.006</v>
-      </c>
-      <c r="N14" s="0">
-        <v>100.104</v>
-      </c>
-      <c r="O14" s="0">
-        <v>4</v>
-      </c>
-      <c r="P14" s="0">
-        <v>191.535</v>
-      </c>
-      <c r="Q14" s="0">
-        <v>148.63800000000001</v>
-      </c>
-      <c r="R14" s="0">
-        <v>34.655000000000001</v>
-      </c>
-      <c r="S14" s="0">
-        <v>3</v>
-      </c>
-      <c r="T14" s="0">
-        <v>6</v>
-      </c>
-      <c r="U14" s="0">
-        <v>1.1239630906887874</v>
-      </c>
-      <c r="V14" s="0">
-        <v>4.15625</v>
-      </c>
-      <c r="W14" s="0">
-        <v>111.76041666666667</v>
-      </c>
-      <c r="X14" s="0">
-        <v>-67.659374999999997</v>
-      </c>
-      <c r="Y14" s="0">
-        <v>31.440799751835623</v>
-      </c>
-      <c r="Z14" s="0">
-        <v>15</v>
-      </c>
-      <c r="AA14" s="0">
-        <v>117.03437500000001</v>
-      </c>
-      <c r="AB14" s="0">
-        <v>0.90498754394407399</v>
-      </c>
-      <c r="AC14" s="0">
-        <v>7.8125</v>
-      </c>
-      <c r="AD14" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="AE14" s="0">
-        <v>28.333333333333336</v>
-      </c>
-      <c r="AF14" s="0">
-        <v>8.4687999999999999</v>
-      </c>
-      <c r="AG14" s="0">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG6"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3" customWidth="true"/>
-    <col min="6" max="6" width="6.5703125" customWidth="true"/>
-    <col min="7" max="7" width="10.85546875" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="10.140625" customWidth="true"/>
-    <col min="10" max="10" width="5.28515625" customWidth="true"/>
-    <col min="11" max="11" width="9.42578125" customWidth="true"/>
-    <col min="12" max="12" width="10" customWidth="true"/>
-    <col min="13" max="13" width="6.140625" customWidth="true"/>
-    <col min="14" max="14" width="6.140625" customWidth="true"/>
-    <col min="15" max="15" width="4.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.140625" customWidth="true"/>
-    <col min="17" max="17" width="8.140625" customWidth="true"/>
-    <col min="18" max="18" width="6.28515625" customWidth="true"/>
-    <col min="19" max="19" width="10" customWidth="true"/>
-    <col min="20" max="20" width="8.28515625" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.85546875" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.42578125" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="11.28515625" customWidth="true"/>
-    <col min="27" max="27" width="13" customWidth="true"/>
-    <col min="28" max="28" width="12.7109375" customWidth="true"/>
-    <col min="29" max="29" width="7" customWidth="true"/>
-    <col min="30" max="30" width="5.7109375" customWidth="true"/>
-    <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="6.7109375" customWidth="true"/>
-    <col min="33" max="33" width="15" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>1222</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>1223</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>1225</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>1226</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>1227</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>1228</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>1230</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>1231</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>1232</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>1233</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>1234</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>1235</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>1236</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>1237</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>1238</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>1239</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>1240</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>1241</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>1242</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>1244</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>1245</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>1246</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>1247</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>1248</v>
-      </c>
-      <c r="AG1" s="0" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0">
-        <v>11018</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D2" s="0">
-        <v>2</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0">
-        <v>1.1166464155528555</v>
-      </c>
-      <c r="V2" s="0">
-        <v>3</v>
-      </c>
-      <c r="W2" s="0">
-        <v>83.406249999999972</v>
-      </c>
-      <c r="X2" s="0">
-        <v>-65.759375000000006</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>20.380017688410859</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>17</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>112.94687500000001</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>1.0032131299494864</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>2.25</v>
-      </c>
-      <c r="AD2" s="0"/>
-      <c r="AE2" s="0">
-        <v>28.333333333333336</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0">
-        <v>11018</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D3" s="0">
-        <v>2</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0">
-        <v>1.2399497487437185</v>
-      </c>
-      <c r="V3" s="0">
-        <v>5.96875</v>
-      </c>
-      <c r="W3" s="0">
-        <v>82.531250000000014</v>
-      </c>
-      <c r="X3" s="0">
-        <v>-67.709374999999994</v>
-      </c>
-      <c r="Y3" s="0">
-        <v>17.006857272664618</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>19</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>95.240624999999994</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>1.2525143744783449</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="0">
-        <v>30</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>5.9687999999999999</v>
-      </c>
-      <c r="AG3" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0">
-        <v>270319</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
-      <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-      <c r="U4" s="0">
-        <v>1.1842496285289748</v>
-      </c>
-      <c r="V4" s="0">
-        <v>3.875</v>
-      </c>
-      <c r="W4" s="0">
-        <v>75.010416666666657</v>
-      </c>
-      <c r="X4" s="0">
-        <v>-58.590625000000003</v>
-      </c>
-      <c r="Y4" s="0">
-        <v>108.37022759616001</v>
-      </c>
-      <c r="Z4" s="0">
-        <v>4</v>
-      </c>
-      <c r="AA4" s="0">
-        <v>110.49687499999999</v>
-      </c>
-      <c r="AB4" s="0">
-        <v>0.64974014483610532</v>
-      </c>
-      <c r="AC4" s="0">
-        <v>10</v>
-      </c>
-      <c r="AD4" s="0"/>
-      <c r="AE4" s="0">
-        <v>16.666666666666668</v>
-      </c>
-      <c r="AF4" s="0">
-        <v>4.5</v>
-      </c>
-      <c r="AG4" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0">
-        <v>270319</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
-      <c r="K5" s="0"/>
-      <c r="L5" s="0"/>
-      <c r="M5" s="0"/>
-      <c r="N5" s="0"/>
-      <c r="O5" s="0"/>
-      <c r="P5" s="0"/>
-      <c r="Q5" s="0"/>
-      <c r="R5" s="0"/>
-      <c r="S5" s="0"/>
-      <c r="T5" s="0"/>
-      <c r="U5" s="0">
-        <v>1.1585106382978723</v>
-      </c>
-      <c r="V5" s="0">
-        <v>4.65625</v>
-      </c>
-      <c r="W5" s="0">
-        <v>98.604166666666643</v>
-      </c>
-      <c r="X5" s="0">
-        <v>-71.793750000000003</v>
-      </c>
-      <c r="Y5" s="0">
-        <v>111.71955309804117</v>
-      </c>
-      <c r="Z5" s="0">
-        <v>13.375</v>
-      </c>
-      <c r="AA5" s="0">
-        <v>123.98124999999999</v>
-      </c>
-      <c r="AB5" s="0">
-        <v>0.72256668164666138</v>
-      </c>
-      <c r="AC5" s="0">
-        <v>10</v>
-      </c>
-      <c r="AD5" s="0"/>
-      <c r="AE5" s="0">
-        <v>16.666666666666668</v>
-      </c>
-      <c r="AF5" s="0">
-        <v>4.1224999999999996</v>
-      </c>
-      <c r="AG5" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0">
-        <v>270320</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
-      <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
-      <c r="K6" s="0"/>
-      <c r="L6" s="0"/>
-      <c r="M6" s="0"/>
-      <c r="N6" s="0"/>
-      <c r="O6" s="0"/>
-      <c r="P6" s="0"/>
-      <c r="Q6" s="0"/>
-      <c r="R6" s="0"/>
-      <c r="S6" s="0"/>
-      <c r="T6" s="0"/>
-      <c r="U6" s="0">
-        <v>1.5454144620811288</v>
-      </c>
-      <c r="V6" s="0">
-        <v>38.65625</v>
-      </c>
-      <c r="W6" s="0">
-        <v>244.59374999999997</v>
-      </c>
-      <c r="X6" s="0">
-        <v>-58.871875000000003</v>
-      </c>
-      <c r="Y6" s="0">
-        <v>30.015659654797815</v>
-      </c>
-      <c r="Z6" s="0">
-        <v>12.25</v>
-      </c>
-      <c r="AA6" s="0">
-        <v>121.43437499999999</v>
-      </c>
-      <c r="AB6" s="0">
-        <v>0.5770044053724428</v>
-      </c>
-      <c r="AC6" s="0">
-        <v>20</v>
-      </c>
-      <c r="AD6" s="0"/>
-      <c r="AE6" s="0">
-        <v>33.333333333333336</v>
-      </c>
-      <c r="AF6" s="0">
-        <v>6.75</v>
-      </c>
-      <c r="AG6" s="0">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Data/out/Re-organization_1.xlsx
+++ b/Data/out/Re-organization_1.xlsx
@@ -1,25 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\out\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6323881B-B08C-4B33-9F84-5127A2A52BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="3024" yWindow="2148" windowWidth="21336" windowHeight="13488" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="CFA d1" sheetId="2" r:id="rId3"/>
-    <sheet name="CFA d7" sheetId="3" r:id="rId5"/>
-    <sheet name="CFA d7NS" sheetId="4" r:id="rId6"/>
-    <sheet name="Saline d1" sheetId="5" r:id="rId7"/>
-    <sheet name="Saline d7" sheetId="6" r:id="rId8"/>
-    <sheet name="Saline d7NS" sheetId="7" r:id="rId9"/>
+    <sheet name="CFA d1" sheetId="2" r:id="rId1"/>
+    <sheet name="CFA d7" sheetId="3" r:id="rId2"/>
+    <sheet name="CFA d7NS" sheetId="4" r:id="rId3"/>
+    <sheet name="Saline d1" sheetId="5" r:id="rId4"/>
+    <sheet name="Saline d7" sheetId="6" r:id="rId5"/>
+    <sheet name="Saline d7NS" sheetId="7" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="1380">
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Saline d7NS</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
   <si>
     <t>Label</t>
   </si>
@@ -48,12 +115,1029 @@
     <t>ID</t>
   </si>
   <si>
+    <t>t22</t>
+  </si>
+  <si>
     <t>t1</t>
   </si>
   <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
     <t>t12</t>
   </si>
   <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t34</t>
+  </si>
+  <si>
+    <t>t39</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>t22</t>
   </si>
   <si>
@@ -72,9 +1156,6 @@
     <t>t33</t>
   </si>
   <si>
-    <t>t45</t>
-  </si>
-  <si>
     <t>t63</t>
   </si>
   <si>
@@ -183,6 +1264,15 @@
     <t>APThreshold</t>
   </si>
   <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
     <t>SpikeCount</t>
   </si>
   <si>
@@ -192,15 +1282,18 @@
     <t>APHW</t>
   </si>
   <si>
-    <t>DAP</t>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
   </si>
   <si>
     <t>Burst</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>IInj</t>
   </si>
   <si>
@@ -219,6 +1312,150 @@
     <t>a</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
@@ -228,6 +1465,882 @@
     <t>Experiment</t>
   </si>
   <si>
+    <t>CFA d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t34</t>
+  </si>
+  <si>
+    <t>t39</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
     <t>CFA d7</t>
   </si>
   <si>
@@ -264,9 +2377,6 @@
     <t>t9</t>
   </si>
   <si>
-    <t>t25</t>
-  </si>
-  <si>
     <t>Depth</t>
   </si>
   <si>
@@ -327,6 +2437,15 @@
     <t>APThreshold</t>
   </si>
   <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
     <t>SpikeCount</t>
   </si>
   <si>
@@ -336,15 +2455,18 @@
     <t>APHW</t>
   </si>
   <si>
-    <t>DAP</t>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
   </si>
   <si>
     <t>Burst</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>IInj</t>
   </si>
   <si>
@@ -378,31 +2500,562 @@
     <t>t7</t>
   </si>
   <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t34</t>
+  </si>
+  <si>
+    <t>t39</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
     <t>t4</t>
   </si>
   <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
     <t>t3</t>
   </si>
   <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>t1</t>
   </si>
   <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t3</t>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t27</t>
   </si>
   <si>
     <t>t1</t>
   </si>
   <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t5</t>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t4</t>
   </si>
   <si>
     <t>Depth</t>
@@ -465,6 +3118,15 @@
     <t>APThreshold</t>
   </si>
   <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
     <t>SpikeCount</t>
   </si>
   <si>
@@ -474,523 +3136,16 @@
     <t>APHW</t>
   </si>
   <si>
-    <t>DAP</t>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
   </si>
   <si>
     <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t34</t>
-  </si>
-  <si>
-    <t>t39</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>DAP</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>DAP</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t38</t>
-  </si>
-  <si>
-    <t>t28</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t27</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>DAP</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>IInj</t>
@@ -2028,7 +4183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -2043,7 +4198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2063,11 +4218,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -2081,17 +4242,331 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL27"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.48828125" customWidth="true"/>
     <col min="2" max="2" width="7.15625" customWidth="true"/>
@@ -2106,7 +4581,6 @@
     <col min="11" max="11" width="8.7109375" customWidth="true"/>
     <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
-    <col min="14" max="14" width="7.7109375" customWidth="true"/>
     <col min="15" max="15" width="4.37890625" customWidth="true"/>
     <col min="16" max="16" width="7.93359375" customWidth="true"/>
     <col min="17" max="17" width="7.82421875" customWidth="true"/>
@@ -2118,7 +4592,6 @@
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="10.37890625" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="10.26953125" customWidth="true"/>
@@ -2131,139 +4604,141 @@
     <col min="36" max="36" width="3.7109375" customWidth="true"/>
     <col min="37" max="37" width="6.7109375" customWidth="true"/>
     <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="14" max="14" width="7.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>327</v>
+        <v>1039</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>331</v>
+        <v>1043</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>332</v>
+        <v>1044</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>334</v>
+        <v>1046</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>335</v>
+        <v>1047</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>358</v>
+        <v>1070</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>359</v>
+        <v>1071</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>360</v>
+        <v>1072</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>361</v>
+        <v>1073</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>362</v>
+        <v>1074</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>363</v>
+        <v>1075</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>364</v>
+        <v>1076</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>365</v>
+        <v>1077</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>366</v>
+        <v>1078</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>367</v>
+        <v>1079</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>368</v>
+        <v>1080</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>369</v>
+        <v>1081</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>370</v>
+        <v>1082</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>371</v>
+        <v>1083</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>372</v>
+        <v>1084</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>373</v>
+        <v>1085</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>374</v>
+        <v>1086</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>375</v>
+        <v>1087</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>376</v>
+        <v>1088</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>377</v>
+        <v>1089</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>378</v>
+        <v>1090</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>379</v>
+        <v>1091</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>380</v>
+        <v>1092</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>381</v>
+        <v>1093</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>382</v>
+        <v>1094</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>383</v>
+        <v>1095</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>384</v>
+        <v>1096</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>385</v>
+        <v>1097</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>386</v>
+        <v>1098</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>387</v>
+        <v>1099</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>388</v>
+        <v>1100</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>389</v>
+        <v>1101</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>390</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B2" s="0">
         <v>70518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>336</v>
+        <v>1048</v>
       </c>
       <c r="F2" s="0">
         <v>403.43200000000002</v>
@@ -2365,19 +4840,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B3" s="0">
         <v>50618</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D3" s="0">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>337</v>
+        <v>1049</v>
       </c>
       <c r="F3" s="0">
         <v>478.911</v>
@@ -2479,19 +4954,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B4" s="0">
         <v>50618</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D4" s="0">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>338</v>
+        <v>1050</v>
       </c>
       <c r="F4" s="0">
         <v>429.96600000000001</v>
@@ -2593,19 +5068,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B5" s="0">
         <v>50618</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D5" s="0">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>339</v>
+        <v>1051</v>
       </c>
       <c r="F5" s="0">
         <v>513.00300000000004</v>
@@ -2707,19 +5182,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B6" s="0">
         <v>50618</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>340</v>
+        <v>1052</v>
       </c>
       <c r="F6" s="0">
         <v>474.71600000000001</v>
@@ -2821,19 +5296,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B7" s="0">
         <v>50618</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>341</v>
+        <v>1053</v>
       </c>
       <c r="F7" s="0">
         <v>354.89999999999998</v>
@@ -2935,19 +5410,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B8" s="0">
         <v>50618</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>342</v>
+        <v>1054</v>
       </c>
       <c r="F8" s="0">
         <v>460.68299999999999</v>
@@ -3047,19 +5522,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B9" s="0">
         <v>311018</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>343</v>
+        <v>1055</v>
       </c>
       <c r="F9" s="0">
         <v>575.81500000000005</v>
@@ -3161,19 +5636,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B10" s="0">
         <v>311018</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>344</v>
+        <v>1056</v>
       </c>
       <c r="F10" s="0">
         <v>620.48500000000001</v>
@@ -3275,19 +5750,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B11" s="0">
         <v>311018</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>345</v>
+        <v>1057</v>
       </c>
       <c r="F11" s="0">
         <v>532.50900000000001</v>
@@ -3391,19 +5866,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B12" s="0">
         <v>280420</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>346</v>
+        <v>1058</v>
       </c>
       <c r="F12" s="0">
         <v>345.839</v>
@@ -3505,19 +5980,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B13" s="0">
         <v>290420</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>346</v>
+        <v>1058</v>
       </c>
       <c r="F13" s="0">
         <v>386.48500000000001</v>
@@ -3619,19 +6094,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B14" s="0">
         <v>290420</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D14" s="0">
         <v>3</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>347</v>
+        <v>1059</v>
       </c>
       <c r="F14" s="0">
         <v>497.36599999999999</v>
@@ -3733,19 +6208,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B15" s="0">
         <v>290420</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D15" s="0">
         <v>3</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>348</v>
+        <v>1060</v>
       </c>
       <c r="F15" s="0">
         <v>530.32899999999995</v>
@@ -3847,19 +6322,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B16" s="0">
         <v>20520</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D16" s="0">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>349</v>
+        <v>1061</v>
       </c>
       <c r="F16" s="0">
         <v>509.142</v>
@@ -3961,19 +6436,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B17" s="0">
         <v>20520</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D17" s="0">
         <v>3</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>350</v>
+        <v>1062</v>
       </c>
       <c r="F17" s="0">
         <v>377.27699999999999</v>
@@ -4075,19 +6550,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B18" s="0">
         <v>60520</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D18" s="0">
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>351</v>
+        <v>1063</v>
       </c>
       <c r="F18" s="0">
         <v>554.601</v>
@@ -4191,19 +6666,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>328</v>
+        <v>1040</v>
       </c>
       <c r="B19" s="0">
         <v>60520</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D19" s="0">
         <v>3</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>352</v>
+        <v>1064</v>
       </c>
       <c r="F19" s="0">
         <v>439.82600000000002</v>
@@ -4305,19 +6780,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>329</v>
+        <v>1041</v>
       </c>
       <c r="B20" s="0">
         <v>60520</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D20" s="0">
         <v>3</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>353</v>
+        <v>1065</v>
       </c>
       <c r="F20" s="0">
         <v>427.69200000000001</v>
@@ -4417,19 +6892,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>330</v>
+        <v>1042</v>
       </c>
       <c r="B21" s="0">
         <v>41220</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D21" s="0">
         <v>3</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>354</v>
+        <v>1066</v>
       </c>
       <c r="F21" s="0">
         <v>468.20600000000002</v>
@@ -4531,19 +7006,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>330</v>
+        <v>1042</v>
       </c>
       <c r="B22" s="0">
         <v>30221</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D22" s="0">
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>355</v>
+        <v>1067</v>
       </c>
       <c r="F22" s="0">
         <v>445.892</v>
@@ -4645,19 +7120,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>330</v>
+        <v>1042</v>
       </c>
       <c r="B23" s="0">
         <v>40221</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D23" s="0">
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>356</v>
+        <v>1068</v>
       </c>
       <c r="F23" s="0">
         <v>476.60199999999998</v>
@@ -4759,19 +7234,19 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>330</v>
+        <v>1042</v>
       </c>
       <c r="B24" s="0">
         <v>40221</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>333</v>
+        <v>1045</v>
       </c>
       <c r="D24" s="0">
         <v>1</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>357</v>
+        <v>1069</v>
       </c>
       <c r="F24" s="0">
         <v>531.20100000000002</v>
@@ -4871,311 +7346,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="0">
-        <v>30221</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="0">
-        <v>2</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="0">
-        <v>445.892</v>
-      </c>
-      <c r="G25" s="0">
-        <v>261.61900000000003</v>
-      </c>
-      <c r="H25" s="0">
-        <v>7.79</v>
-      </c>
-      <c r="I25" s="0">
-        <v>70.679000000000002</v>
-      </c>
-      <c r="J25" s="0">
-        <v>362.27800000000002</v>
-      </c>
-      <c r="K25" s="0">
-        <v>4.5540000000000003</v>
-      </c>
-      <c r="L25" s="0">
-        <v>19.716000000000001</v>
-      </c>
-      <c r="M25" s="0">
-        <v>211.16999999999999</v>
-      </c>
-      <c r="N25" s="0">
-        <v>111.47799999999999</v>
-      </c>
-      <c r="O25" s="0">
-        <v>7</v>
-      </c>
-      <c r="P25" s="0">
-        <v>303.714</v>
-      </c>
-      <c r="Q25" s="0">
-        <v>127.47799999999999</v>
-      </c>
-      <c r="R25" s="0">
-        <v>31.187000000000001</v>
-      </c>
-      <c r="S25" s="0">
-        <v>7</v>
-      </c>
-      <c r="T25" s="0">
-        <v>7</v>
-      </c>
-      <c r="U25" s="0">
-        <v>1.259307279125764</v>
-      </c>
-      <c r="V25" s="0">
-        <v>4.375</v>
-      </c>
-      <c r="W25" s="0">
-        <v>56.239583333333343</v>
-      </c>
-      <c r="X25" s="0">
-        <v>-65.596874999999997</v>
-      </c>
-      <c r="Y25" s="0">
-        <v>117.50023113578969</v>
-      </c>
-      <c r="Z25" s="0">
-        <v>6</v>
-      </c>
-      <c r="AA25" s="0">
-        <v>99.628125000000011</v>
-      </c>
-      <c r="AB25" s="0">
-        <v>0.91043527912376376</v>
-      </c>
-      <c r="AC25" s="0">
-        <v>2.625</v>
-      </c>
-      <c r="AD25" s="0"/>
-      <c r="AE25" s="0">
-        <v>10</v>
-      </c>
-      <c r="AF25" s="0">
-        <v>3.4687999999999999</v>
-      </c>
-      <c r="AG25" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="0">
-        <v>40221</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="0">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="0">
-        <v>476.60199999999998</v>
-      </c>
-      <c r="G26" s="0">
-        <v>292.33100000000002</v>
-      </c>
-      <c r="H26" s="0">
-        <v>15.5</v>
-      </c>
-      <c r="I26" s="0">
-        <v>67.421000000000006</v>
-      </c>
-      <c r="J26" s="0">
-        <v>313.11200000000002</v>
-      </c>
-      <c r="K26" s="0">
-        <v>4.1879999999999997</v>
-      </c>
-      <c r="L26" s="0">
-        <v>18.532</v>
-      </c>
-      <c r="M26" s="0">
-        <v>169.68000000000001</v>
-      </c>
-      <c r="N26" s="0">
-        <v>95.494</v>
-      </c>
-      <c r="O26" s="0">
-        <v>7</v>
-      </c>
-      <c r="P26" s="0">
-        <v>212.43700000000001</v>
-      </c>
-      <c r="Q26" s="0">
-        <v>139.44200000000001</v>
-      </c>
-      <c r="R26" s="0">
-        <v>16.748000000000001</v>
-      </c>
-      <c r="S26" s="0">
-        <v>6</v>
-      </c>
-      <c r="T26" s="0">
-        <v>5</v>
-      </c>
-      <c r="U26" s="0">
-        <v>1.1990779547359598</v>
-      </c>
-      <c r="V26" s="0">
-        <v>2.96875</v>
-      </c>
-      <c r="W26" s="0">
-        <v>49.708333333333314</v>
-      </c>
-      <c r="X26" s="0">
-        <v>-68.962500000000006</v>
-      </c>
-      <c r="Y26" s="0">
-        <v>215.11789105528544</v>
-      </c>
-      <c r="Z26" s="0">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="0">
-        <v>91.962500000000006</v>
-      </c>
-      <c r="AB26" s="0">
-        <v>0.970499372991938</v>
-      </c>
-      <c r="AC26" s="0">
-        <v>4.09375</v>
-      </c>
-      <c r="AD26" s="0"/>
-      <c r="AE26" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="0">
-        <v>2.625</v>
-      </c>
-      <c r="AG26" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="0">
-        <v>40221</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="0">
-        <v>1</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="0">
-        <v>531.20100000000002</v>
-      </c>
-      <c r="G27" s="0">
-        <v>289.10000000000002</v>
-      </c>
-      <c r="H27" s="0">
-        <v>14.317</v>
-      </c>
-      <c r="I27" s="0">
-        <v>57.215000000000003</v>
-      </c>
-      <c r="J27" s="0">
-        <v>225.13</v>
-      </c>
-      <c r="K27" s="0">
-        <v>3.4329999999999998</v>
-      </c>
-      <c r="L27" s="0">
-        <v>14.278</v>
-      </c>
-      <c r="M27" s="0">
-        <v>144.72</v>
-      </c>
-      <c r="N27" s="0">
-        <v>91.415999999999997</v>
-      </c>
-      <c r="O27" s="0">
-        <v>6</v>
-      </c>
-      <c r="P27" s="0">
-        <v>264.07999999999998</v>
-      </c>
-      <c r="Q27" s="0">
-        <v>190.29900000000001</v>
-      </c>
-      <c r="R27" s="0">
-        <v>29.699000000000002</v>
-      </c>
-      <c r="S27" s="0">
-        <v>5</v>
-      </c>
-      <c r="T27" s="0">
-        <v>7</v>
-      </c>
-      <c r="U27" s="0">
-        <v>1.1363950276243093</v>
-      </c>
-      <c r="V27" s="0">
-        <v>2.46875</v>
-      </c>
-      <c r="W27" s="0">
-        <v>60.333333333333307</v>
-      </c>
-      <c r="X27" s="0">
-        <v>-68.431250000000006</v>
-      </c>
-      <c r="Y27" s="0">
-        <v>215.7511869084442</v>
-      </c>
-      <c r="Z27" s="0">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="0">
-        <v>91.931250000000006</v>
-      </c>
-      <c r="AB27" s="0">
-        <v>1.1588521569686705</v>
-      </c>
-      <c r="AC27" s="0">
-        <v>3.53125</v>
-      </c>
-      <c r="AD27" s="0"/>
-      <c r="AE27" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="0">
-        <v>2.5</v>
-      </c>
-      <c r="AG27" s="0">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL13"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AL11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.48828125" customWidth="true"/>
     <col min="2" max="2" width="7.15625" customWidth="true"/>
@@ -5190,7 +7372,6 @@
     <col min="11" max="11" width="8.7109375" customWidth="true"/>
     <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
-    <col min="14" max="14" width="7.7109375" customWidth="true"/>
     <col min="15" max="15" width="4.37890625" customWidth="true"/>
     <col min="16" max="16" width="7.93359375" customWidth="true"/>
     <col min="17" max="17" width="7.82421875" customWidth="true"/>
@@ -5202,7 +7383,6 @@
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="10.37890625" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="10.26953125" customWidth="true"/>
@@ -5215,139 +7395,141 @@
     <col min="36" max="36" width="3.7109375" customWidth="true"/>
     <col min="37" max="37" width="6.7109375" customWidth="true"/>
     <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="14" max="14" width="7.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>391</v>
+        <v>1103</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>394</v>
+        <v>1106</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>395</v>
+        <v>1107</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>397</v>
+        <v>1109</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>398</v>
+        <v>1110</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>408</v>
+        <v>1120</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>409</v>
+        <v>1121</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>410</v>
+        <v>1122</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>411</v>
+        <v>1123</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>412</v>
+        <v>1124</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>413</v>
+        <v>1125</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>414</v>
+        <v>1126</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>415</v>
+        <v>1127</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>416</v>
+        <v>1128</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>417</v>
+        <v>1129</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>418</v>
+        <v>1130</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>419</v>
+        <v>1131</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>420</v>
+        <v>1132</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>421</v>
+        <v>1133</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>422</v>
+        <v>1134</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>423</v>
+        <v>1135</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>424</v>
+        <v>1136</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>425</v>
+        <v>1137</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>426</v>
+        <v>1138</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>427</v>
+        <v>1139</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>428</v>
+        <v>1140</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>429</v>
+        <v>1141</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>430</v>
+        <v>1142</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>431</v>
+        <v>1143</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>432</v>
+        <v>1144</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>433</v>
+        <v>1145</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>434</v>
+        <v>1146</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>435</v>
+        <v>1147</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>436</v>
+        <v>1148</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>437</v>
+        <v>1149</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>438</v>
+        <v>1150</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>439</v>
+        <v>1151</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>440</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>392</v>
+        <v>1104</v>
       </c>
       <c r="B2" s="0">
         <v>220918</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>396</v>
+        <v>1108</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>399</v>
+        <v>1111</v>
       </c>
       <c r="F2" s="0">
         <v>480.77300000000002</v>
@@ -5449,19 +7631,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>392</v>
+        <v>1104</v>
       </c>
       <c r="B3" s="0">
         <v>250320</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>396</v>
+        <v>1108</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>400</v>
+        <v>1112</v>
       </c>
       <c r="F3" s="0">
         <v>480.77499999999998</v>
@@ -5563,19 +7745,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>392</v>
+        <v>1104</v>
       </c>
       <c r="B4" s="0">
         <v>260320</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>396</v>
+        <v>1108</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>401</v>
+        <v>1113</v>
       </c>
       <c r="F4" s="0">
         <v>524.59799999999996</v>
@@ -5675,19 +7857,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>392</v>
+        <v>1104</v>
       </c>
       <c r="B5" s="0">
         <v>150520</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>396</v>
+        <v>1108</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>402</v>
+        <v>1114</v>
       </c>
       <c r="F5" s="0">
         <v>462.14400000000001</v>
@@ -5791,19 +7973,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>392</v>
+        <v>1104</v>
       </c>
       <c r="B6" s="0">
         <v>180520</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>396</v>
+        <v>1108</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>403</v>
+        <v>1115</v>
       </c>
       <c r="F6" s="0">
         <v>424.25799999999998</v>
@@ -5905,19 +8087,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>392</v>
+        <v>1104</v>
       </c>
       <c r="B7" s="0">
         <v>180520</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>396</v>
+        <v>1108</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>404</v>
+        <v>1116</v>
       </c>
       <c r="F7" s="0">
         <v>383.39499999999998</v>
@@ -6021,19 +8203,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>392</v>
+        <v>1104</v>
       </c>
       <c r="B8" s="0">
         <v>190520</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>396</v>
+        <v>1108</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>405</v>
+        <v>1117</v>
       </c>
       <c r="F8" s="0">
         <v>450.01600000000002</v>
@@ -6135,19 +8317,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>392</v>
+        <v>1104</v>
       </c>
       <c r="B9" s="0">
         <v>190520</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>396</v>
+        <v>1108</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>406</v>
+        <v>1118</v>
       </c>
       <c r="F9" s="0">
         <v>424.30099999999999</v>
@@ -6249,19 +8431,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>392</v>
+        <v>1104</v>
       </c>
       <c r="B10" s="0">
         <v>200520</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>396</v>
+        <v>1108</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>406</v>
+        <v>1118</v>
       </c>
       <c r="F10" s="0">
         <v>520.65999999999997</v>
@@ -6363,19 +8545,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>393</v>
+        <v>1105</v>
       </c>
       <c r="B11" s="0">
         <v>240520</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>396</v>
+        <v>1108</v>
       </c>
       <c r="D11" s="0">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>407</v>
+        <v>1119</v>
       </c>
       <c r="F11" s="0">
         <v>378.04399999999998</v>
@@ -6477,212 +8659,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="0">
-        <v>240520</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="0">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="0">
-        <v>378.04399999999998</v>
-      </c>
-      <c r="G12" s="0">
-        <v>260.12</v>
-      </c>
-      <c r="H12" s="0">
-        <v>-5.7690000000000001</v>
-      </c>
-      <c r="I12" s="0">
-        <v>66.954999999999998</v>
-      </c>
-      <c r="J12" s="0">
-        <v>302.76100000000002</v>
-      </c>
-      <c r="K12" s="0">
-        <v>2.4940000000000002</v>
-      </c>
-      <c r="L12" s="0">
-        <v>14.579000000000001</v>
-      </c>
-      <c r="M12" s="0">
-        <v>69.388000000000005</v>
-      </c>
-      <c r="N12" s="0">
-        <v>105.37</v>
-      </c>
-      <c r="O12" s="0">
-        <v>6</v>
-      </c>
-      <c r="P12" s="0">
-        <v>214.15799999999999</v>
-      </c>
-      <c r="Q12" s="0">
-        <v>85.531999999999996</v>
-      </c>
-      <c r="R12" s="0">
-        <v>57.857999999999997</v>
-      </c>
-      <c r="S12" s="0">
-        <v>5</v>
-      </c>
-      <c r="T12" s="0">
-        <v>4</v>
-      </c>
-      <c r="U12" s="0">
-        <v>1.0758125123607356</v>
-      </c>
-      <c r="V12" s="0">
-        <v>3.59375</v>
-      </c>
-      <c r="W12" s="0">
-        <v>158.01041666666666</v>
-      </c>
-      <c r="X12" s="0">
-        <v>-74.096874999999997</v>
-      </c>
-      <c r="Y12" s="0">
-        <v>20.415417820699627</v>
-      </c>
-      <c r="Z12" s="0">
-        <v>16</v>
-      </c>
-      <c r="AA12" s="0">
-        <v>122.34687500000001</v>
-      </c>
-      <c r="AB12" s="0">
-        <v>0.83202383941524971</v>
-      </c>
-      <c r="AC12" s="0">
-        <v>2.03125</v>
-      </c>
-      <c r="AD12" s="0"/>
-      <c r="AE12" s="0">
-        <v>26.666666666666668</v>
-      </c>
-      <c r="AF12" s="0">
-        <v>3.4062000000000001</v>
-      </c>
-      <c r="AG12" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="0">
-        <v>240520</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="0">
-        <v>2</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="0">
-        <v>420.47899999999998</v>
-      </c>
-      <c r="G13" s="0">
-        <v>246.61199999999999</v>
-      </c>
-      <c r="H13" s="0">
-        <v>10.079000000000001</v>
-      </c>
-      <c r="I13" s="0">
-        <v>57.820999999999998</v>
-      </c>
-      <c r="J13" s="0">
-        <v>218.12100000000001</v>
-      </c>
-      <c r="K13" s="0">
-        <v>3.0350000000000001</v>
-      </c>
-      <c r="L13" s="0">
-        <v>10.795999999999999</v>
-      </c>
-      <c r="M13" s="0">
-        <v>86.477999999999994</v>
-      </c>
-      <c r="N13" s="0">
-        <v>67.518000000000001</v>
-      </c>
-      <c r="O13" s="0">
-        <v>6</v>
-      </c>
-      <c r="P13" s="0">
-        <v>389.40899999999999</v>
-      </c>
-      <c r="Q13" s="0">
-        <v>188.00899999999999</v>
-      </c>
-      <c r="R13" s="0">
-        <v>67.186000000000007</v>
-      </c>
-      <c r="S13" s="0">
-        <v>5</v>
-      </c>
-      <c r="T13" s="0">
-        <v>4</v>
-      </c>
-      <c r="U13" s="0">
-        <v>1.1282279608192343</v>
-      </c>
-      <c r="V13" s="0">
-        <v>2.25</v>
-      </c>
-      <c r="W13" s="0">
-        <v>58.489583333333329</v>
-      </c>
-      <c r="X13" s="0">
-        <v>-75.109375</v>
-      </c>
-      <c r="Y13" s="0">
-        <v>214.90867663770265</v>
-      </c>
-      <c r="Z13" s="0">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="0">
-        <v>123.828125</v>
-      </c>
-      <c r="AB13" s="0">
-        <v>0.75625899226383098</v>
-      </c>
-      <c r="AC13" s="0">
-        <v>2.21875</v>
-      </c>
-      <c r="AD13" s="0"/>
-      <c r="AE13" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="0">
-        <v>1.9061999999999999</v>
-      </c>
-      <c r="AG13" s="0">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL11"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AL9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.48828125" customWidth="true"/>
     <col min="2" max="2" width="7.15625" customWidth="true"/>
@@ -6697,7 +8687,6 @@
     <col min="11" max="11" width="8.7109375" customWidth="true"/>
     <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
-    <col min="14" max="14" width="7.7109375" customWidth="true"/>
     <col min="15" max="15" width="4.37890625" customWidth="true"/>
     <col min="16" max="16" width="7.93359375" customWidth="true"/>
     <col min="17" max="17" width="7.82421875" customWidth="true"/>
@@ -6709,9 +8698,7 @@
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="10.37890625" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="12.7109375" customWidth="true"/>
-    <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="10.26953125" customWidth="true"/>
     <col min="30" max="30" width="11.48828125" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
@@ -6719,142 +8706,145 @@
     <col min="33" max="33" width="7.93359375" customWidth="true"/>
     <col min="34" max="34" width="7.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="6.7109375" customWidth="true"/>
     <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="14" max="14" width="7.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>441</v>
+        <v>1153</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>443</v>
+        <v>1155</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>444</v>
+        <v>1156</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>446</v>
+        <v>1158</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>447</v>
+        <v>1159</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>456</v>
+        <v>1168</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>457</v>
+        <v>1169</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>458</v>
+        <v>1170</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>459</v>
+        <v>1171</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>460</v>
+        <v>1172</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>461</v>
+        <v>1173</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>462</v>
+        <v>1174</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>463</v>
+        <v>1175</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>464</v>
+        <v>1176</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>465</v>
+        <v>1177</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>466</v>
+        <v>1178</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>467</v>
+        <v>1179</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>468</v>
+        <v>1180</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>469</v>
+        <v>1181</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>470</v>
+        <v>1182</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>471</v>
+        <v>1183</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>472</v>
+        <v>1184</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>474</v>
+        <v>1186</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>475</v>
+        <v>1187</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>476</v>
+        <v>1188</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>477</v>
+        <v>1189</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>478</v>
+        <v>1190</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>479</v>
+        <v>1191</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>480</v>
+        <v>1192</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>481</v>
+        <v>1193</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>482</v>
+        <v>1194</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>483</v>
+        <v>1195</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>484</v>
+        <v>1196</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>485</v>
+        <v>1197</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>486</v>
+        <v>1198</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>487</v>
+        <v>1199</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>488</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>442</v>
+        <v>1154</v>
       </c>
       <c r="B2" s="0">
         <v>11018</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>445</v>
+        <v>1157</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>448</v>
+        <v>1160</v>
       </c>
       <c r="F2" s="0">
         <v>410.63499999999999</v>
@@ -6958,19 +8948,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>442</v>
+        <v>1154</v>
       </c>
       <c r="B3" s="0">
         <v>160519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>445</v>
+        <v>1157</v>
       </c>
       <c r="D3" s="0">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>449</v>
+        <v>1161</v>
       </c>
       <c r="F3" s="0">
         <v>409.11200000000002</v>
@@ -7072,19 +9062,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>442</v>
+        <v>1154</v>
       </c>
       <c r="B4" s="0">
         <v>160519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>445</v>
+        <v>1157</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>450</v>
+        <v>1162</v>
       </c>
       <c r="F4" s="0">
         <v>480.70400000000001</v>
@@ -7186,19 +9176,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>442</v>
+        <v>1154</v>
       </c>
       <c r="B5" s="0">
         <v>170519</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>445</v>
+        <v>1157</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>451</v>
+        <v>1163</v>
       </c>
       <c r="F5" s="0">
         <v>463.661</v>
@@ -7300,19 +9290,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>442</v>
+        <v>1154</v>
       </c>
       <c r="B6" s="0">
         <v>170519</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>445</v>
+        <v>1157</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>452</v>
+        <v>1164</v>
       </c>
       <c r="F6" s="0">
         <v>452.399</v>
@@ -7418,13 +9408,13 @@
         <v>11018</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>445</v>
+        <v>1157</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>453</v>
+        <v>1165</v>
       </c>
       <c r="F7" s="0">
         <v>385.31</v>
@@ -7532,13 +9522,13 @@
         <v>270319</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>445</v>
+        <v>1157</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>454</v>
+        <v>1166</v>
       </c>
       <c r="F8" s="0">
         <v>451.137</v>
@@ -7644,13 +9634,13 @@
         <v>270319</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>445</v>
+        <v>1157</v>
       </c>
       <c r="D9" s="0">
         <v>3</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>455</v>
+        <v>1167</v>
       </c>
       <c r="F9" s="0">
         <v>488.06900000000002</v>
@@ -7750,208 +9740,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0">
-        <v>270319</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="0">
-        <v>2</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="0">
-        <v>451.137</v>
-      </c>
-      <c r="G10" s="0">
-        <v>325.56900000000002</v>
-      </c>
-      <c r="H10" s="0">
-        <v>12.055</v>
-      </c>
-      <c r="I10" s="0">
-        <v>48.258000000000003</v>
-      </c>
-      <c r="J10" s="0">
-        <v>159.155</v>
-      </c>
-      <c r="K10" s="0">
-        <v>2.3690000000000002</v>
-      </c>
-      <c r="L10" s="0">
-        <v>11.589</v>
-      </c>
-      <c r="M10" s="0">
-        <v>167.91399999999999</v>
-      </c>
-      <c r="N10" s="0">
-        <v>92.045000000000002</v>
-      </c>
-      <c r="O10" s="0">
-        <v>4</v>
-      </c>
-      <c r="P10" s="0">
-        <v>186.37100000000001</v>
-      </c>
-      <c r="Q10" s="0">
-        <v>124.443</v>
-      </c>
-      <c r="R10" s="0">
-        <v>77.769000000000005</v>
-      </c>
-      <c r="S10" s="0">
-        <v>4</v>
-      </c>
-      <c r="T10" s="0">
-        <v>4</v>
-      </c>
-      <c r="U10" s="0">
-        <v>1.1842496285289748</v>
-      </c>
-      <c r="V10" s="0">
-        <v>3.875</v>
-      </c>
-      <c r="W10" s="0">
-        <v>75.010416666666657</v>
-      </c>
-      <c r="X10" s="0">
-        <v>-58.590625000000003</v>
-      </c>
-      <c r="Y10" s="0">
-        <v>108.37022759616001</v>
-      </c>
-      <c r="Z10" s="0">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="0">
-        <v>110.49687499999999</v>
-      </c>
-      <c r="AB10" s="0">
-        <v>0.64974014483610532</v>
-      </c>
-      <c r="AC10" s="0">
-        <v>10</v>
-      </c>
-      <c r="AD10" s="0"/>
-      <c r="AE10" s="0">
-        <v>16.666666666666668</v>
-      </c>
-      <c r="AF10" s="0">
-        <v>4.5</v>
-      </c>
-      <c r="AG10" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0">
-        <v>270319</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="0">
-        <v>3</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="0">
-        <v>488.06900000000002</v>
-      </c>
-      <c r="G11" s="0">
-        <v>309.09100000000001</v>
-      </c>
-      <c r="H11" s="0">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="I11" s="0">
-        <v>49.122</v>
-      </c>
-      <c r="J11" s="0">
-        <v>143.66</v>
-      </c>
-      <c r="K11" s="0">
-        <v>2.7029999999999998</v>
-      </c>
-      <c r="L11" s="0">
-        <v>13.068</v>
-      </c>
-      <c r="M11" s="0">
-        <v>89.772999999999996</v>
-      </c>
-      <c r="N11" s="0">
-        <v>81.501000000000005</v>
-      </c>
-      <c r="O11" s="0">
-        <v>4</v>
-      </c>
-      <c r="P11" s="0">
-        <v>146.59100000000001</v>
-      </c>
-      <c r="Q11" s="0">
-        <v>112.501</v>
-      </c>
-      <c r="R11" s="0">
-        <v>38.253999999999998</v>
-      </c>
-      <c r="S11" s="0">
-        <v>5</v>
-      </c>
-      <c r="T11" s="0">
-        <v>4</v>
-      </c>
-      <c r="U11" s="0">
-        <v>1.1585106382978723</v>
-      </c>
-      <c r="V11" s="0">
-        <v>4.65625</v>
-      </c>
-      <c r="W11" s="0">
-        <v>98.604166666666643</v>
-      </c>
-      <c r="X11" s="0">
-        <v>-71.793750000000003</v>
-      </c>
-      <c r="Y11" s="0">
-        <v>111.71955309804117</v>
-      </c>
-      <c r="Z11" s="0">
-        <v>13.375</v>
-      </c>
-      <c r="AA11" s="0">
-        <v>123.98124999999999</v>
-      </c>
-      <c r="AB11" s="0">
-        <v>0.72256668164666138</v>
-      </c>
-      <c r="AC11" s="0">
-        <v>10</v>
-      </c>
-      <c r="AD11" s="0"/>
-      <c r="AE11" s="0">
-        <v>16.666666666666668</v>
-      </c>
-      <c r="AF11" s="0">
-        <v>4.1224999999999996</v>
-      </c>
-      <c r="AG11" s="0">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL31"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.48828125" customWidth="true"/>
     <col min="2" max="2" width="7.15625" customWidth="true"/>
@@ -7966,7 +9766,6 @@
     <col min="11" max="11" width="8.7109375" customWidth="true"/>
     <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
-    <col min="14" max="14" width="7.7109375" customWidth="true"/>
     <col min="15" max="15" width="4.37890625" customWidth="true"/>
     <col min="16" max="16" width="7.93359375" customWidth="true"/>
     <col min="17" max="17" width="7.82421875" customWidth="true"/>
@@ -7978,152 +9777,153 @@
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="12.37890625" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="10.26953125" customWidth="true"/>
     <col min="30" max="30" width="11.7109375" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
     <col min="32" max="32" width="10.7109375" customWidth="true"/>
-    <col min="33" max="33" width="10.7109375" customWidth="true"/>
     <col min="34" max="34" width="8.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
     <col min="36" max="36" width="3.7109375" customWidth="true"/>
     <col min="37" max="37" width="6.7109375" customWidth="true"/>
     <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="14" max="14" width="7.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="33" max="33" width="10.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>489</v>
+        <v>1201</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>495</v>
+        <v>1207</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>496</v>
+        <v>1208</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>498</v>
+        <v>1210</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>499</v>
+        <v>1211</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>530</v>
+        <v>1242</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>531</v>
+        <v>1243</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>532</v>
+        <v>1244</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>533</v>
+        <v>1245</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>534</v>
+        <v>1246</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>535</v>
+        <v>1247</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>536</v>
+        <v>1248</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>537</v>
+        <v>1249</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>538</v>
+        <v>1250</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>539</v>
+        <v>1251</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>540</v>
+        <v>1252</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>541</v>
+        <v>1253</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>542</v>
+        <v>1254</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>543</v>
+        <v>1255</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>544</v>
+        <v>1256</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>545</v>
+        <v>1257</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>546</v>
+        <v>1258</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>547</v>
+        <v>1259</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>548</v>
+        <v>1260</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>549</v>
+        <v>1261</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>550</v>
+        <v>1262</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>551</v>
+        <v>1263</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>552</v>
+        <v>1264</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>553</v>
+        <v>1265</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>554</v>
+        <v>1266</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>555</v>
+        <v>1267</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>556</v>
+        <v>1268</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>557</v>
+        <v>1269</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>558</v>
+        <v>1270</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>559</v>
+        <v>1271</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>560</v>
+        <v>1272</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>561</v>
+        <v>1273</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>562</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B2" s="0">
         <v>30518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>500</v>
+        <v>1212</v>
       </c>
       <c r="F2" s="0">
         <v>532.80600000000004</v>
@@ -8225,19 +10025,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B3" s="0">
         <v>30518</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>501</v>
+        <v>1213</v>
       </c>
       <c r="F3" s="0">
         <v>462.94099999999997</v>
@@ -8339,19 +10139,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B4" s="0">
         <v>80518</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>502</v>
+        <v>1214</v>
       </c>
       <c r="F4" s="0">
         <v>484.14499999999998</v>
@@ -8453,19 +10253,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B5" s="0">
         <v>80518</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>503</v>
+        <v>1215</v>
       </c>
       <c r="F5" s="0">
         <v>472.774</v>
@@ -8567,19 +10367,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B6" s="0">
         <v>80518</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>504</v>
+        <v>1216</v>
       </c>
       <c r="F6" s="0">
         <v>499.76400000000001</v>
@@ -8679,19 +10479,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B7" s="0">
         <v>80818</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>505</v>
+        <v>1217</v>
       </c>
       <c r="F7" s="0">
         <v>486.38900000000001</v>
@@ -8793,19 +10593,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B8" s="0">
         <v>80818</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>506</v>
+        <v>1218</v>
       </c>
       <c r="F8" s="0">
         <v>448.62900000000002</v>
@@ -8907,19 +10707,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B9" s="0">
         <v>80818</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>507</v>
+        <v>1219</v>
       </c>
       <c r="F9" s="0">
         <v>482.81599999999997</v>
@@ -9019,19 +10819,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B10" s="0">
         <v>80818</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>508</v>
+        <v>1220</v>
       </c>
       <c r="F10" s="0">
         <v>361.84899999999999</v>
@@ -9133,19 +10933,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B11" s="0">
         <v>80818</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>509</v>
+        <v>1221</v>
       </c>
       <c r="F11" s="0">
         <v>417.62</v>
@@ -9247,19 +11047,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B12" s="0">
         <v>41220</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>510</v>
+        <v>1222</v>
       </c>
       <c r="F12" s="0">
         <v>443.95999999999998</v>
@@ -9361,19 +11161,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B13" s="0">
         <v>81220</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>511</v>
+        <v>1223</v>
       </c>
       <c r="F13" s="0">
         <v>337.86000000000001</v>
@@ -9475,19 +11275,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B14" s="0">
         <v>81220</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>512</v>
+        <v>1224</v>
       </c>
       <c r="F14" s="0">
         <v>395.22399999999999</v>
@@ -9589,19 +11389,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B15" s="0">
         <v>91220</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D15" s="0">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>513</v>
+        <v>1225</v>
       </c>
       <c r="F15" s="0">
         <v>402.30399999999997</v>
@@ -9703,19 +11503,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B16" s="0">
         <v>91220</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D16" s="0">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>514</v>
+        <v>1226</v>
       </c>
       <c r="F16" s="0">
         <v>420.47300000000001</v>
@@ -9817,19 +11617,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B17" s="0">
         <v>130121</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D17" s="0">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>515</v>
+        <v>1227</v>
       </c>
       <c r="F17" s="0">
         <v>433.36700000000002</v>
@@ -9931,19 +11731,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B18" s="0">
         <v>130121</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D18" s="0">
         <v>3</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>516</v>
+        <v>1228</v>
       </c>
       <c r="F18" s="0">
         <v>494.46800000000002</v>
@@ -10047,19 +11847,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B19" s="0">
         <v>130121</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D19" s="0">
         <v>5</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>517</v>
+        <v>1229</v>
       </c>
       <c r="F19" s="0">
         <v>457.59800000000001</v>
@@ -10161,19 +11961,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B20" s="0">
         <v>180121</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D20" s="0">
         <v>2</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>518</v>
+        <v>1230</v>
       </c>
       <c r="F20" s="0">
         <v>361.38999999999999</v>
@@ -10277,19 +12077,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>490</v>
+        <v>1202</v>
       </c>
       <c r="B21" s="0">
         <v>180121</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D21" s="0">
         <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>519</v>
+        <v>1231</v>
       </c>
       <c r="F21" s="0">
         <v>416.15499999999997</v>
@@ -10393,19 +12193,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>491</v>
+        <v>1203</v>
       </c>
       <c r="B22" s="0">
         <v>180121</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D22" s="0">
         <v>3</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>520</v>
+        <v>1232</v>
       </c>
       <c r="F22" s="0">
         <v>404.61900000000003</v>
@@ -10507,19 +12307,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>492</v>
+        <v>1204</v>
       </c>
       <c r="B23" s="0">
         <v>180121</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D23" s="0">
         <v>3</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>521</v>
+        <v>1233</v>
       </c>
       <c r="F23" s="0">
         <v>402.56</v>
@@ -10621,19 +12421,19 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>492</v>
+        <v>1204</v>
       </c>
       <c r="B24" s="0">
         <v>190121</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D24" s="0">
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>522</v>
+        <v>1234</v>
       </c>
       <c r="F24" s="0">
         <v>517.55600000000004</v>
@@ -10737,19 +12537,19 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>492</v>
+        <v>1204</v>
       </c>
       <c r="B25" s="0">
         <v>250121</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D25" s="0">
         <v>2</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>523</v>
+        <v>1235</v>
       </c>
       <c r="F25" s="0">
         <v>418.19600000000003</v>
@@ -10851,19 +12651,19 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>492</v>
+        <v>1204</v>
       </c>
       <c r="B26" s="0">
         <v>250121</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D26" s="0">
         <v>2</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>524</v>
+        <v>1236</v>
       </c>
       <c r="F26" s="0">
         <v>421.99000000000001</v>
@@ -10967,19 +12767,19 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>492</v>
+        <v>1204</v>
       </c>
       <c r="B27" s="0">
         <v>250121</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D27" s="0">
         <v>2</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>525</v>
+        <v>1237</v>
       </c>
       <c r="F27" s="0">
         <v>450.01600000000002</v>
@@ -11081,19 +12881,19 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>493</v>
+        <v>1205</v>
       </c>
       <c r="B28" s="0">
         <v>250121</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D28" s="0">
         <v>2</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>526</v>
+        <v>1238</v>
       </c>
       <c r="F28" s="0">
         <v>455.69900000000001</v>
@@ -11197,19 +12997,19 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>494</v>
+        <v>1206</v>
       </c>
       <c r="B29" s="0">
         <v>250121</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D29" s="0">
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>527</v>
+        <v>1239</v>
       </c>
       <c r="F29" s="0">
         <v>479.04000000000002</v>
@@ -11311,19 +13111,19 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>494</v>
+        <v>1206</v>
       </c>
       <c r="B30" s="0">
         <v>250121</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D30" s="0">
         <v>3</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>528</v>
+        <v>1240</v>
       </c>
       <c r="F30" s="0">
         <v>457.59699999999998</v>
@@ -11423,19 +13223,19 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>494</v>
+        <v>1206</v>
       </c>
       <c r="B31" s="0">
         <v>250121</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>497</v>
+        <v>1209</v>
       </c>
       <c r="D31" s="0">
         <v>3</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>529</v>
+        <v>1241</v>
       </c>
       <c r="F31" s="0">
         <v>387.173</v>
@@ -11530,13 +13330,17 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AL14"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.48828125" customWidth="true"/>
     <col min="2" max="2" width="7.15625" customWidth="true"/>
@@ -11551,7 +13355,6 @@
     <col min="11" max="11" width="8.7109375" customWidth="true"/>
     <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
-    <col min="14" max="14" width="7.7109375" customWidth="true"/>
     <col min="15" max="15" width="4.37890625" customWidth="true"/>
     <col min="16" max="16" width="7.93359375" customWidth="true"/>
     <col min="17" max="17" width="7.82421875" customWidth="true"/>
@@ -11563,7 +13366,6 @@
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="10.37890625" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="10.26953125" customWidth="true"/>
@@ -11573,142 +13375,144 @@
     <col min="33" max="33" width="7.93359375" customWidth="true"/>
     <col min="34" max="34" width="8.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="6.7109375" customWidth="true"/>
     <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="14" max="14" width="7.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
+    <col min="36" max="36" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>563</v>
+        <v>1275</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>567</v>
+        <v>1279</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>568</v>
+        <v>1280</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>570</v>
+        <v>1282</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>571</v>
+        <v>1283</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>585</v>
+        <v>1297</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>586</v>
+        <v>1298</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>587</v>
+        <v>1299</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>588</v>
+        <v>1300</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>589</v>
+        <v>1301</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>590</v>
+        <v>1302</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>591</v>
+        <v>1303</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>592</v>
+        <v>1304</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>593</v>
+        <v>1305</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>594</v>
+        <v>1306</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>595</v>
+        <v>1307</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>596</v>
+        <v>1308</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>597</v>
+        <v>1309</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>598</v>
+        <v>1310</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>599</v>
+        <v>1311</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>600</v>
+        <v>1312</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>601</v>
+        <v>1313</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>602</v>
+        <v>1314</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>603</v>
+        <v>1315</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>604</v>
+        <v>1316</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>605</v>
+        <v>1317</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>606</v>
+        <v>1318</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>607</v>
+        <v>1319</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>608</v>
+        <v>1320</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>609</v>
+        <v>1321</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>610</v>
+        <v>1322</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>611</v>
+        <v>1323</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>612</v>
+        <v>1324</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>613</v>
+        <v>1325</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>614</v>
+        <v>1326</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>615</v>
+        <v>1327</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>616</v>
+        <v>1328</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>617</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>564</v>
+        <v>1276</v>
       </c>
       <c r="B2" s="0">
         <v>220519</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>569</v>
+        <v>1281</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>572</v>
+        <v>1284</v>
       </c>
       <c r="F2" s="0">
         <v>588.45399999999995</v>
@@ -11812,19 +13616,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>564</v>
+        <v>1276</v>
       </c>
       <c r="B3" s="0">
         <v>220519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>569</v>
+        <v>1281</v>
       </c>
       <c r="D3" s="0">
         <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>573</v>
+        <v>1285</v>
       </c>
       <c r="F3" s="0">
         <v>505.04199999999997</v>
@@ -11928,19 +13732,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>564</v>
+        <v>1276</v>
       </c>
       <c r="B4" s="0">
         <v>220519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>569</v>
+        <v>1281</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>574</v>
+        <v>1286</v>
       </c>
       <c r="F4" s="0">
         <v>488.39400000000001</v>
@@ -12040,19 +13844,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>564</v>
+        <v>1276</v>
       </c>
       <c r="B5" s="0">
         <v>290519</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>569</v>
+        <v>1281</v>
       </c>
       <c r="D5" s="0">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>575</v>
+        <v>1287</v>
       </c>
       <c r="F5" s="0">
         <v>421.226</v>
@@ -12156,19 +13960,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>564</v>
+        <v>1276</v>
       </c>
       <c r="B6" s="0">
         <v>300519</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>569</v>
+        <v>1281</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>576</v>
+        <v>1288</v>
       </c>
       <c r="F6" s="0">
         <v>434.90699999999998</v>
@@ -12268,19 +14072,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>564</v>
+        <v>1276</v>
       </c>
       <c r="B7" s="0">
         <v>300519</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>569</v>
+        <v>1281</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>577</v>
+        <v>1289</v>
       </c>
       <c r="F7" s="0">
         <v>528.89200000000005</v>
@@ -12382,19 +14186,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>565</v>
+        <v>1277</v>
       </c>
       <c r="B8" s="0">
         <v>300519</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>569</v>
+        <v>1281</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>578</v>
+        <v>1290</v>
       </c>
       <c r="F8" s="0">
         <v>593.97900000000004</v>
@@ -12496,19 +14300,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>566</v>
+        <v>1278</v>
       </c>
       <c r="B9" s="0">
         <v>270520</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>569</v>
+        <v>1281</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>579</v>
+        <v>1291</v>
       </c>
       <c r="F9" s="0">
         <v>391.40600000000001</v>
@@ -12610,19 +14414,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>566</v>
+        <v>1278</v>
       </c>
       <c r="B10" s="0">
         <v>270520</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>569</v>
+        <v>1281</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>580</v>
+        <v>1292</v>
       </c>
       <c r="F10" s="0">
         <v>400.02699999999999</v>
@@ -12728,13 +14532,13 @@
         <v>261018</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>569</v>
+        <v>1281</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>581</v>
+        <v>1293</v>
       </c>
       <c r="F11" s="0">
         <v>414.041</v>
@@ -12840,13 +14644,13 @@
         <v>261018</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>569</v>
+        <v>1281</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>582</v>
+        <v>1294</v>
       </c>
       <c r="F12" s="0">
         <v>443.61500000000001</v>
@@ -12952,13 +14756,13 @@
         <v>261018</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>569</v>
+        <v>1281</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>583</v>
+        <v>1295</v>
       </c>
       <c r="F13" s="0">
         <v>416.31799999999998</v>
@@ -13064,13 +14868,13 @@
         <v>261018</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>569</v>
+        <v>1281</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>584</v>
+        <v>1296</v>
       </c>
       <c r="F14" s="0">
         <v>440.20499999999998</v>
@@ -13171,13 +14975,19 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL12"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AL11"/>
+  <sheetViews>
+    <sheetView tabSelected="true" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.48828125" customWidth="true"/>
     <col min="2" max="2" width="7.15625" customWidth="true"/>
@@ -13192,7 +15002,6 @@
     <col min="11" max="11" width="8.7109375" customWidth="true"/>
     <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
-    <col min="14" max="14" width="7.7109375" customWidth="true"/>
     <col min="15" max="15" width="4.37890625" customWidth="true"/>
     <col min="16" max="16" width="7.93359375" customWidth="true"/>
     <col min="17" max="17" width="7.82421875" customWidth="true"/>
@@ -13204,7 +15013,6 @@
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
     <col min="24" max="24" width="10.37890625" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="10.26953125" customWidth="true"/>
@@ -13217,139 +15025,141 @@
     <col min="36" max="36" width="3.7109375" customWidth="true"/>
     <col min="37" max="37" width="6.7109375" customWidth="true"/>
     <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="14" max="14" width="7.7109375" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>618</v>
+        <v>1330</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>620</v>
+        <v>1332</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>621</v>
+        <v>1333</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>623</v>
+        <v>1335</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>624</v>
+        <v>1336</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>635</v>
+        <v>1347</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>636</v>
+        <v>1348</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>637</v>
+        <v>1349</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>638</v>
+        <v>1350</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>639</v>
+        <v>1351</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>640</v>
+        <v>1352</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>641</v>
+        <v>1353</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>642</v>
+        <v>1354</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>643</v>
+        <v>1355</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>644</v>
+        <v>1356</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>645</v>
+        <v>1357</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>646</v>
+        <v>1358</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>647</v>
+        <v>1359</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>648</v>
+        <v>1360</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>649</v>
+        <v>1361</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>650</v>
+        <v>1362</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>651</v>
+        <v>1363</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>652</v>
+        <v>1364</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>653</v>
+        <v>1365</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>654</v>
+        <v>1366</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>655</v>
+        <v>1367</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>656</v>
+        <v>1368</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>657</v>
+        <v>1369</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>658</v>
+        <v>1370</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>659</v>
+        <v>1371</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>660</v>
+        <v>1372</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>661</v>
+        <v>1373</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>662</v>
+        <v>1374</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>663</v>
+        <v>1375</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>664</v>
+        <v>1376</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>665</v>
+        <v>1377</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>666</v>
+        <v>1378</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>667</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>619</v>
+        <v>1331</v>
       </c>
       <c r="B2" s="0">
         <v>31218</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>622</v>
+        <v>1334</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>625</v>
+        <v>1337</v>
       </c>
       <c r="F2" s="0">
         <v>429.56400000000002</v>
@@ -13451,19 +15261,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>619</v>
+        <v>1331</v>
       </c>
       <c r="B3" s="0">
         <v>31218</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>622</v>
+        <v>1334</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>626</v>
+        <v>1338</v>
       </c>
       <c r="F3" s="0">
         <v>387.68099999999998</v>
@@ -13565,19 +15375,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>619</v>
+        <v>1331</v>
       </c>
       <c r="B4" s="0">
         <v>171218</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>622</v>
+        <v>1334</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>627</v>
+        <v>1339</v>
       </c>
       <c r="F4" s="0">
         <v>389.012</v>
@@ -13679,19 +15489,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>619</v>
+        <v>1331</v>
       </c>
       <c r="B5" s="0">
         <v>70219</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>622</v>
+        <v>1334</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>628</v>
+        <v>1340</v>
       </c>
       <c r="F5" s="0">
         <v>404.084</v>
@@ -13793,19 +15603,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>619</v>
+        <v>1331</v>
       </c>
       <c r="B6" s="0">
         <v>80219</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>622</v>
+        <v>1334</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>629</v>
+        <v>1341</v>
       </c>
       <c r="F6" s="0">
         <v>409.024</v>
@@ -13907,19 +15717,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>619</v>
+        <v>1331</v>
       </c>
       <c r="B7" s="0">
         <v>80219</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>622</v>
+        <v>1334</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>630</v>
+        <v>1342</v>
       </c>
       <c r="F7" s="0">
         <v>428.99900000000002</v>
@@ -14021,19 +15831,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>619</v>
+        <v>1331</v>
       </c>
       <c r="B8" s="0">
         <v>120219</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>622</v>
+        <v>1334</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>631</v>
+        <v>1343</v>
       </c>
       <c r="F8" s="0">
         <v>362.279</v>
@@ -14135,19 +15945,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>619</v>
+        <v>1331</v>
       </c>
       <c r="B9" s="0">
         <v>120219</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>622</v>
+        <v>1334</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>632</v>
+        <v>1344</v>
       </c>
       <c r="F9" s="0">
         <v>341.43299999999999</v>
@@ -14249,19 +16059,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>619</v>
+        <v>1331</v>
       </c>
       <c r="B10" s="0">
         <v>120219</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>622</v>
+        <v>1334</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>633</v>
+        <v>1345</v>
       </c>
       <c r="F10" s="0">
         <v>500.5</v>
@@ -14361,19 +16171,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>619</v>
+        <v>1331</v>
       </c>
       <c r="B11" s="0">
         <v>150519</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>622</v>
+        <v>1334</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>634</v>
+        <v>1346</v>
       </c>
       <c r="F11" s="0">
         <v>499.39800000000002</v>
@@ -14475,103 +16285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="B12" s="0">
-        <v>120219</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="D12" s="0">
-        <v>2</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="F12" s="0">
-        <v>500.5</v>
-      </c>
-      <c r="G12" s="0">
-        <v>320.55099999999999</v>
-      </c>
-      <c r="H12" s="0">
-        <v>11.882999999999999</v>
-      </c>
-      <c r="I12" s="0">
-        <v>54.436</v>
-      </c>
-      <c r="J12" s="0">
-        <v>182.595</v>
-      </c>
-      <c r="K12" s="0">
-        <v>3.4180000000000001</v>
-      </c>
-      <c r="L12" s="0">
-        <v>13.473000000000001</v>
-      </c>
-      <c r="M12" s="0">
-        <v>200.48699999999999</v>
-      </c>
-      <c r="N12" s="0">
-        <v>164.32400000000001</v>
-      </c>
-      <c r="O12" s="0">
-        <v>4</v>
-      </c>
-      <c r="P12" s="0">
-        <v>222.97</v>
-      </c>
-      <c r="Q12" s="0">
-        <v>168.53999999999999</v>
-      </c>
-      <c r="R12" s="0">
-        <v>34.561999999999998</v>
-      </c>
-      <c r="S12" s="0">
-        <v>4</v>
-      </c>
-      <c r="T12" s="0">
-        <v>11</v>
-      </c>
-      <c r="U12" s="0">
-        <v>1.2230009557183816</v>
-      </c>
-      <c r="V12" s="0">
-        <v>2.1875</v>
-      </c>
-      <c r="W12" s="0">
-        <v>32.697916666666679</v>
-      </c>
-      <c r="X12" s="0">
-        <v>-63.190624999999997</v>
-      </c>
-      <c r="Y12" s="0">
-        <v>252.73944893696972</v>
-      </c>
-      <c r="Z12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="0">
-        <v>98.471875000000011</v>
-      </c>
-      <c r="AB12" s="0">
-        <v>1.0508429861355815</v>
-      </c>
-      <c r="AC12" s="0"/>
-      <c r="AD12" s="0"/>
-      <c r="AE12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="0">
-        <v>1.9375</v>
-      </c>
-      <c r="AG12" s="0">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/out/Re-organization_1.xlsx
+++ b/Data/out/Re-organization_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="1009">
   <si>
     <t>Label</t>
   </si>
@@ -991,6 +991,1029 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t17</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t34</t>
+  </si>
+  <si>
+    <t>t39</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t15</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
   </si>
   <si>
     <t>IInj</t>
@@ -2093,177 +3116,177 @@
   <dimension ref="A1:AL27"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.48828125" customWidth="true"/>
-    <col min="2" max="2" width="7.15625" customWidth="true"/>
-    <col min="3" max="3" width="10.37890625" customWidth="true"/>
-    <col min="4" max="4" width="4.82421875" customWidth="true"/>
-    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.42578125" customWidth="true"/>
+    <col min="4" max="4" width="5.28515625" customWidth="true"/>
+    <col min="5" max="5" width="3.85546875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.15625" customWidth="true"/>
-    <col min="8" max="8" width="7.37890625" customWidth="true"/>
-    <col min="9" max="9" width="9.15625" customWidth="true"/>
+    <col min="7" max="7" width="10.85546875" customWidth="true"/>
+    <col min="8" max="8" width="8" customWidth="true"/>
+    <col min="9" max="9" width="10.140625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="8.7109375" customWidth="true"/>
-    <col min="12" max="12" width="9.26953125" customWidth="true"/>
+    <col min="11" max="11" width="9.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.37890625" customWidth="true"/>
-    <col min="16" max="16" width="7.93359375" customWidth="true"/>
-    <col min="17" max="17" width="7.82421875" customWidth="true"/>
+    <col min="15" max="15" width="4.7109375" customWidth="true"/>
+    <col min="16" max="16" width="8.140625" customWidth="true"/>
+    <col min="17" max="17" width="8.140625" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="9.37890625" customWidth="true"/>
-    <col min="20" max="20" width="7.37890625" customWidth="true"/>
+    <col min="19" max="19" width="10" customWidth="true"/>
+    <col min="20" max="20" width="8.28515625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.7109375" customWidth="true"/>
+    <col min="22" max="22" width="8.85546875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.37890625" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="10.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
-    <col min="29" max="29" width="10.26953125" customWidth="true"/>
-    <col min="30" max="30" width="11.48828125" customWidth="true"/>
+    <col min="29" max="29" width="11.28515625" customWidth="true"/>
+    <col min="30" max="30" width="13" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
     <col min="32" max="32" width="10.7109375" customWidth="true"/>
     <col min="33" max="33" width="9.7109375" customWidth="true"/>
     <col min="34" max="34" width="8.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="3.7109375" customWidth="true"/>
+    <col min="36" max="36" width="4" customWidth="true"/>
     <col min="37" max="37" width="6.7109375" customWidth="true"/>
-    <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="38" max="38" width="15" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>327</v>
+        <v>668</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>331</v>
+        <v>672</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>332</v>
+        <v>673</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>334</v>
+        <v>675</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>335</v>
+        <v>676</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>358</v>
+        <v>699</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>359</v>
+        <v>700</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>360</v>
+        <v>701</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>361</v>
+        <v>702</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>362</v>
+        <v>703</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>363</v>
+        <v>704</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>364</v>
+        <v>705</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>365</v>
+        <v>706</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>366</v>
+        <v>707</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>367</v>
+        <v>708</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>368</v>
+        <v>709</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>369</v>
+        <v>710</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>370</v>
+        <v>711</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>371</v>
+        <v>712</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>372</v>
+        <v>713</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>373</v>
+        <v>714</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>374</v>
+        <v>715</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>375</v>
+        <v>716</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>376</v>
+        <v>717</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>377</v>
+        <v>718</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>378</v>
+        <v>719</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>379</v>
+        <v>720</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>380</v>
+        <v>721</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>381</v>
+        <v>722</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>382</v>
+        <v>723</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>383</v>
+        <v>724</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>384</v>
+        <v>725</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>385</v>
+        <v>726</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>386</v>
+        <v>727</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>387</v>
+        <v>728</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>388</v>
+        <v>729</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>389</v>
+        <v>730</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>390</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B2" s="0">
         <v>70518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>336</v>
+        <v>677</v>
       </c>
       <c r="F2" s="0">
         <v>403.43200000000002</v>
@@ -2365,19 +3388,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B3" s="0">
         <v>50618</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D3" s="0">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>337</v>
+        <v>678</v>
       </c>
       <c r="F3" s="0">
         <v>478.911</v>
@@ -2479,19 +3502,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B4" s="0">
         <v>50618</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D4" s="0">
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>338</v>
+        <v>679</v>
       </c>
       <c r="F4" s="0">
         <v>429.96600000000001</v>
@@ -2593,19 +3616,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B5" s="0">
         <v>50618</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D5" s="0">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>339</v>
+        <v>680</v>
       </c>
       <c r="F5" s="0">
         <v>513.00300000000004</v>
@@ -2707,19 +3730,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B6" s="0">
         <v>50618</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>340</v>
+        <v>681</v>
       </c>
       <c r="F6" s="0">
         <v>474.71600000000001</v>
@@ -2821,19 +3844,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B7" s="0">
         <v>50618</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>341</v>
+        <v>682</v>
       </c>
       <c r="F7" s="0">
         <v>354.89999999999998</v>
@@ -2935,19 +3958,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B8" s="0">
         <v>50618</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>342</v>
+        <v>683</v>
       </c>
       <c r="F8" s="0">
         <v>460.68299999999999</v>
@@ -3047,19 +4070,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B9" s="0">
         <v>311018</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>343</v>
+        <v>684</v>
       </c>
       <c r="F9" s="0">
         <v>575.81500000000005</v>
@@ -3161,19 +4184,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B10" s="0">
         <v>311018</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>344</v>
+        <v>685</v>
       </c>
       <c r="F10" s="0">
         <v>620.48500000000001</v>
@@ -3275,19 +4298,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B11" s="0">
         <v>311018</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>345</v>
+        <v>686</v>
       </c>
       <c r="F11" s="0">
         <v>532.50900000000001</v>
@@ -3391,19 +4414,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B12" s="0">
         <v>280420</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>346</v>
+        <v>687</v>
       </c>
       <c r="F12" s="0">
         <v>345.839</v>
@@ -3505,19 +4528,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B13" s="0">
         <v>290420</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>346</v>
+        <v>687</v>
       </c>
       <c r="F13" s="0">
         <v>386.48500000000001</v>
@@ -3619,19 +4642,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B14" s="0">
         <v>290420</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D14" s="0">
         <v>3</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>347</v>
+        <v>688</v>
       </c>
       <c r="F14" s="0">
         <v>497.36599999999999</v>
@@ -3733,19 +4756,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B15" s="0">
         <v>290420</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D15" s="0">
         <v>3</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>348</v>
+        <v>689</v>
       </c>
       <c r="F15" s="0">
         <v>530.32899999999995</v>
@@ -3847,19 +4870,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B16" s="0">
         <v>20520</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D16" s="0">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>349</v>
+        <v>690</v>
       </c>
       <c r="F16" s="0">
         <v>509.142</v>
@@ -3961,19 +4984,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B17" s="0">
         <v>20520</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D17" s="0">
         <v>3</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>350</v>
+        <v>691</v>
       </c>
       <c r="F17" s="0">
         <v>377.27699999999999</v>
@@ -4075,19 +5098,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B18" s="0">
         <v>60520</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D18" s="0">
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>351</v>
+        <v>692</v>
       </c>
       <c r="F18" s="0">
         <v>554.601</v>
@@ -4191,19 +5214,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>328</v>
+        <v>669</v>
       </c>
       <c r="B19" s="0">
         <v>60520</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D19" s="0">
         <v>3</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>352</v>
+        <v>693</v>
       </c>
       <c r="F19" s="0">
         <v>439.82600000000002</v>
@@ -4305,19 +5328,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>329</v>
+        <v>670</v>
       </c>
       <c r="B20" s="0">
         <v>60520</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D20" s="0">
         <v>3</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>353</v>
+        <v>694</v>
       </c>
       <c r="F20" s="0">
         <v>427.69200000000001</v>
@@ -4417,19 +5440,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>330</v>
+        <v>671</v>
       </c>
       <c r="B21" s="0">
         <v>41220</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D21" s="0">
         <v>3</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>354</v>
+        <v>695</v>
       </c>
       <c r="F21" s="0">
         <v>468.20600000000002</v>
@@ -4531,19 +5554,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>330</v>
+        <v>671</v>
       </c>
       <c r="B22" s="0">
         <v>30221</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D22" s="0">
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>355</v>
+        <v>696</v>
       </c>
       <c r="F22" s="0">
         <v>445.892</v>
@@ -4645,19 +5668,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>330</v>
+        <v>671</v>
       </c>
       <c r="B23" s="0">
         <v>40221</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D23" s="0">
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>356</v>
+        <v>697</v>
       </c>
       <c r="F23" s="0">
         <v>476.60199999999998</v>
@@ -4759,19 +5782,19 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>330</v>
+        <v>671</v>
       </c>
       <c r="B24" s="0">
         <v>40221</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>333</v>
+        <v>674</v>
       </c>
       <c r="D24" s="0">
         <v>1</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>357</v>
+        <v>698</v>
       </c>
       <c r="F24" s="0">
         <v>531.20100000000002</v>
@@ -5177,177 +6200,177 @@
   <dimension ref="A1:AL13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.48828125" customWidth="true"/>
-    <col min="2" max="2" width="7.15625" customWidth="true"/>
-    <col min="3" max="3" width="10.37890625" customWidth="true"/>
-    <col min="4" max="4" width="4.82421875" customWidth="true"/>
-    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.42578125" customWidth="true"/>
+    <col min="4" max="4" width="5.28515625" customWidth="true"/>
+    <col min="5" max="5" width="3.85546875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.15625" customWidth="true"/>
-    <col min="8" max="8" width="7.37890625" customWidth="true"/>
-    <col min="9" max="9" width="9.15625" customWidth="true"/>
+    <col min="7" max="7" width="10.85546875" customWidth="true"/>
+    <col min="8" max="8" width="8" customWidth="true"/>
+    <col min="9" max="9" width="10.140625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="8.7109375" customWidth="true"/>
-    <col min="12" max="12" width="9.26953125" customWidth="true"/>
+    <col min="11" max="11" width="9.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.37890625" customWidth="true"/>
-    <col min="16" max="16" width="7.93359375" customWidth="true"/>
-    <col min="17" max="17" width="7.82421875" customWidth="true"/>
+    <col min="15" max="15" width="4.7109375" customWidth="true"/>
+    <col min="16" max="16" width="8.140625" customWidth="true"/>
+    <col min="17" max="17" width="8.140625" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="9.37890625" customWidth="true"/>
-    <col min="20" max="20" width="7.37890625" customWidth="true"/>
+    <col min="19" max="19" width="10" customWidth="true"/>
+    <col min="20" max="20" width="8.28515625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.7109375" customWidth="true"/>
+    <col min="22" max="22" width="8.85546875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.37890625" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="10.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
-    <col min="29" max="29" width="10.26953125" customWidth="true"/>
-    <col min="30" max="30" width="11.48828125" customWidth="true"/>
+    <col min="29" max="29" width="11.28515625" customWidth="true"/>
+    <col min="30" max="30" width="13" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
-    <col min="32" max="32" width="9.15625" customWidth="true"/>
-    <col min="33" max="33" width="7.93359375" customWidth="true"/>
+    <col min="32" max="32" width="10" customWidth="true"/>
+    <col min="33" max="33" width="8.7109375" customWidth="true"/>
     <col min="34" max="34" width="7.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="3.7109375" customWidth="true"/>
+    <col min="36" max="36" width="4" customWidth="true"/>
     <col min="37" max="37" width="6.7109375" customWidth="true"/>
-    <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="38" max="38" width="15" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>391</v>
+        <v>732</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>394</v>
+        <v>735</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>395</v>
+        <v>736</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>397</v>
+        <v>738</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>398</v>
+        <v>739</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>408</v>
+        <v>749</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>409</v>
+        <v>750</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>410</v>
+        <v>751</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>411</v>
+        <v>752</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>412</v>
+        <v>753</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>413</v>
+        <v>754</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>414</v>
+        <v>755</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>415</v>
+        <v>756</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>416</v>
+        <v>757</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>417</v>
+        <v>758</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>418</v>
+        <v>759</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>419</v>
+        <v>760</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>420</v>
+        <v>761</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>421</v>
+        <v>762</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>422</v>
+        <v>763</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>423</v>
+        <v>764</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>424</v>
+        <v>765</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>425</v>
+        <v>766</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>426</v>
+        <v>767</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>427</v>
+        <v>768</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>428</v>
+        <v>769</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>429</v>
+        <v>770</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>430</v>
+        <v>771</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>431</v>
+        <v>772</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>432</v>
+        <v>773</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>433</v>
+        <v>774</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>434</v>
+        <v>775</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>435</v>
+        <v>776</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>436</v>
+        <v>777</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>437</v>
+        <v>778</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>438</v>
+        <v>779</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>439</v>
+        <v>780</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>440</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>392</v>
+        <v>733</v>
       </c>
       <c r="B2" s="0">
         <v>220918</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>396</v>
+        <v>737</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>399</v>
+        <v>740</v>
       </c>
       <c r="F2" s="0">
         <v>480.77300000000002</v>
@@ -5449,19 +6472,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>392</v>
+        <v>733</v>
       </c>
       <c r="B3" s="0">
         <v>250320</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>396</v>
+        <v>737</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>400</v>
+        <v>741</v>
       </c>
       <c r="F3" s="0">
         <v>480.77499999999998</v>
@@ -5563,19 +6586,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>392</v>
+        <v>733</v>
       </c>
       <c r="B4" s="0">
         <v>260320</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>396</v>
+        <v>737</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>401</v>
+        <v>742</v>
       </c>
       <c r="F4" s="0">
         <v>524.59799999999996</v>
@@ -5675,19 +6698,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>392</v>
+        <v>733</v>
       </c>
       <c r="B5" s="0">
         <v>150520</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>396</v>
+        <v>737</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>402</v>
+        <v>743</v>
       </c>
       <c r="F5" s="0">
         <v>462.14400000000001</v>
@@ -5791,19 +6814,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>392</v>
+        <v>733</v>
       </c>
       <c r="B6" s="0">
         <v>180520</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>396</v>
+        <v>737</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>403</v>
+        <v>744</v>
       </c>
       <c r="F6" s="0">
         <v>424.25799999999998</v>
@@ -5905,19 +6928,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>392</v>
+        <v>733</v>
       </c>
       <c r="B7" s="0">
         <v>180520</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>396</v>
+        <v>737</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>404</v>
+        <v>745</v>
       </c>
       <c r="F7" s="0">
         <v>383.39499999999998</v>
@@ -6021,19 +7044,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>392</v>
+        <v>733</v>
       </c>
       <c r="B8" s="0">
         <v>190520</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>396</v>
+        <v>737</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>405</v>
+        <v>746</v>
       </c>
       <c r="F8" s="0">
         <v>450.01600000000002</v>
@@ -6135,19 +7158,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>392</v>
+        <v>733</v>
       </c>
       <c r="B9" s="0">
         <v>190520</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>396</v>
+        <v>737</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>406</v>
+        <v>747</v>
       </c>
       <c r="F9" s="0">
         <v>424.30099999999999</v>
@@ -6249,19 +7272,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>392</v>
+        <v>733</v>
       </c>
       <c r="B10" s="0">
         <v>200520</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>396</v>
+        <v>737</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>406</v>
+        <v>747</v>
       </c>
       <c r="F10" s="0">
         <v>520.65999999999997</v>
@@ -6363,19 +7386,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>393</v>
+        <v>734</v>
       </c>
       <c r="B11" s="0">
         <v>240520</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>396</v>
+        <v>737</v>
       </c>
       <c r="D11" s="0">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>407</v>
+        <v>748</v>
       </c>
       <c r="F11" s="0">
         <v>378.04399999999998</v>
@@ -6684,177 +7707,177 @@
   <dimension ref="A1:AL11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.48828125" customWidth="true"/>
-    <col min="2" max="2" width="7.15625" customWidth="true"/>
-    <col min="3" max="3" width="10.37890625" customWidth="true"/>
-    <col min="4" max="4" width="4.82421875" customWidth="true"/>
-    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.42578125" customWidth="true"/>
+    <col min="4" max="4" width="5.28515625" customWidth="true"/>
+    <col min="5" max="5" width="3.85546875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.15625" customWidth="true"/>
-    <col min="8" max="8" width="7.37890625" customWidth="true"/>
-    <col min="9" max="9" width="9.15625" customWidth="true"/>
+    <col min="7" max="7" width="10.85546875" customWidth="true"/>
+    <col min="8" max="8" width="8" customWidth="true"/>
+    <col min="9" max="9" width="10.140625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="8.7109375" customWidth="true"/>
-    <col min="12" max="12" width="9.26953125" customWidth="true"/>
+    <col min="11" max="11" width="9.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.37890625" customWidth="true"/>
-    <col min="16" max="16" width="7.93359375" customWidth="true"/>
-    <col min="17" max="17" width="7.82421875" customWidth="true"/>
+    <col min="15" max="15" width="4.7109375" customWidth="true"/>
+    <col min="16" max="16" width="8.140625" customWidth="true"/>
+    <col min="17" max="17" width="8.140625" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="9.37890625" customWidth="true"/>
-    <col min="20" max="20" width="7.37890625" customWidth="true"/>
+    <col min="19" max="19" width="10" customWidth="true"/>
+    <col min="20" max="20" width="8.28515625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.046875" customWidth="true"/>
+    <col min="22" max="22" width="8.85546875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.37890625" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="10.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="12.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
-    <col min="29" max="29" width="10.26953125" customWidth="true"/>
-    <col min="30" max="30" width="11.48828125" customWidth="true"/>
+    <col min="29" max="29" width="11.28515625" customWidth="true"/>
+    <col min="30" max="30" width="13" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
-    <col min="32" max="32" width="9.15625" customWidth="true"/>
-    <col min="33" max="33" width="7.93359375" customWidth="true"/>
+    <col min="32" max="32" width="10" customWidth="true"/>
+    <col min="33" max="33" width="8.7109375" customWidth="true"/>
     <col min="34" max="34" width="7.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
     <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="6.7109375" customWidth="true"/>
-    <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="38" max="38" width="15" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>441</v>
+        <v>782</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>443</v>
+        <v>784</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>444</v>
+        <v>785</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>446</v>
+        <v>787</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>447</v>
+        <v>788</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>456</v>
+        <v>797</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>457</v>
+        <v>798</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>458</v>
+        <v>799</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>459</v>
+        <v>800</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>460</v>
+        <v>801</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>461</v>
+        <v>802</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>462</v>
+        <v>803</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>463</v>
+        <v>804</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>464</v>
+        <v>805</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>465</v>
+        <v>806</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>466</v>
+        <v>807</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>467</v>
+        <v>808</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>468</v>
+        <v>809</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>469</v>
+        <v>810</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>470</v>
+        <v>811</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>471</v>
+        <v>812</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>472</v>
+        <v>813</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>473</v>
+        <v>814</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>474</v>
+        <v>815</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>475</v>
+        <v>816</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>476</v>
+        <v>817</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>477</v>
+        <v>818</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>478</v>
+        <v>819</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>479</v>
+        <v>820</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>480</v>
+        <v>821</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>481</v>
+        <v>822</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>482</v>
+        <v>823</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>483</v>
+        <v>824</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>484</v>
+        <v>825</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>485</v>
+        <v>826</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>486</v>
+        <v>827</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>487</v>
+        <v>828</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>488</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>442</v>
+        <v>783</v>
       </c>
       <c r="B2" s="0">
         <v>11018</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>445</v>
+        <v>786</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>448</v>
+        <v>789</v>
       </c>
       <c r="F2" s="0">
         <v>410.63499999999999</v>
@@ -6958,19 +7981,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>442</v>
+        <v>783</v>
       </c>
       <c r="B3" s="0">
         <v>160519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>445</v>
+        <v>786</v>
       </c>
       <c r="D3" s="0">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>449</v>
+        <v>790</v>
       </c>
       <c r="F3" s="0">
         <v>409.11200000000002</v>
@@ -7072,19 +8095,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>442</v>
+        <v>783</v>
       </c>
       <c r="B4" s="0">
         <v>160519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>445</v>
+        <v>786</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>450</v>
+        <v>791</v>
       </c>
       <c r="F4" s="0">
         <v>480.70400000000001</v>
@@ -7186,19 +8209,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>442</v>
+        <v>783</v>
       </c>
       <c r="B5" s="0">
         <v>170519</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>445</v>
+        <v>786</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>451</v>
+        <v>792</v>
       </c>
       <c r="F5" s="0">
         <v>463.661</v>
@@ -7300,19 +8323,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>442</v>
+        <v>783</v>
       </c>
       <c r="B6" s="0">
         <v>170519</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>445</v>
+        <v>786</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>452</v>
+        <v>793</v>
       </c>
       <c r="F6" s="0">
         <v>452.399</v>
@@ -7418,13 +8441,13 @@
         <v>11018</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>445</v>
+        <v>786</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>453</v>
+        <v>794</v>
       </c>
       <c r="F7" s="0">
         <v>385.31</v>
@@ -7532,13 +8555,13 @@
         <v>270319</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>445</v>
+        <v>786</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>454</v>
+        <v>795</v>
       </c>
       <c r="F8" s="0">
         <v>451.137</v>
@@ -7644,13 +8667,13 @@
         <v>270319</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>445</v>
+        <v>786</v>
       </c>
       <c r="D9" s="0">
         <v>3</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>455</v>
+        <v>796</v>
       </c>
       <c r="F9" s="0">
         <v>488.06900000000002</v>
@@ -7953,177 +8976,177 @@
   <dimension ref="A1:AL31"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.48828125" customWidth="true"/>
-    <col min="2" max="2" width="7.15625" customWidth="true"/>
-    <col min="3" max="3" width="10.37890625" customWidth="true"/>
-    <col min="4" max="4" width="4.82421875" customWidth="true"/>
-    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.42578125" customWidth="true"/>
+    <col min="4" max="4" width="5.28515625" customWidth="true"/>
+    <col min="5" max="5" width="3.85546875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.15625" customWidth="true"/>
-    <col min="8" max="8" width="7.37890625" customWidth="true"/>
-    <col min="9" max="9" width="9.15625" customWidth="true"/>
+    <col min="7" max="7" width="10.85546875" customWidth="true"/>
+    <col min="8" max="8" width="8" customWidth="true"/>
+    <col min="9" max="9" width="10.140625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="8.7109375" customWidth="true"/>
-    <col min="12" max="12" width="9.26953125" customWidth="true"/>
+    <col min="11" max="11" width="9.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.37890625" customWidth="true"/>
-    <col min="16" max="16" width="7.93359375" customWidth="true"/>
-    <col min="17" max="17" width="7.82421875" customWidth="true"/>
+    <col min="15" max="15" width="4.7109375" customWidth="true"/>
+    <col min="16" max="16" width="8.140625" customWidth="true"/>
+    <col min="17" max="17" width="8.140625" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="9.37890625" customWidth="true"/>
-    <col min="20" max="20" width="7.37890625" customWidth="true"/>
+    <col min="19" max="19" width="10" customWidth="true"/>
+    <col min="20" max="20" width="8.28515625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.7109375" customWidth="true"/>
+    <col min="22" max="22" width="8.85546875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="12.37890625" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
-    <col min="29" max="29" width="10.26953125" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.28515625" customWidth="true"/>
+    <col min="30" max="30" width="13" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
     <col min="32" max="32" width="10.7109375" customWidth="true"/>
     <col min="33" max="33" width="10.7109375" customWidth="true"/>
     <col min="34" max="34" width="8.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="3.7109375" customWidth="true"/>
+    <col min="36" max="36" width="4" customWidth="true"/>
     <col min="37" max="37" width="6.7109375" customWidth="true"/>
-    <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="38" max="38" width="15" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>489</v>
+        <v>830</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>495</v>
+        <v>836</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>496</v>
+        <v>837</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>498</v>
+        <v>839</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>499</v>
+        <v>840</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>530</v>
+        <v>871</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>531</v>
+        <v>872</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>532</v>
+        <v>873</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>533</v>
+        <v>874</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>534</v>
+        <v>875</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>535</v>
+        <v>876</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>536</v>
+        <v>877</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>537</v>
+        <v>878</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>538</v>
+        <v>879</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>539</v>
+        <v>880</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>540</v>
+        <v>881</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>541</v>
+        <v>882</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>542</v>
+        <v>883</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>543</v>
+        <v>884</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>544</v>
+        <v>885</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>545</v>
+        <v>886</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>546</v>
+        <v>887</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>547</v>
+        <v>888</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>548</v>
+        <v>889</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>549</v>
+        <v>890</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>550</v>
+        <v>891</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>551</v>
+        <v>892</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>552</v>
+        <v>893</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>553</v>
+        <v>894</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>554</v>
+        <v>895</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>555</v>
+        <v>896</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>556</v>
+        <v>897</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>557</v>
+        <v>898</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>558</v>
+        <v>899</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>559</v>
+        <v>900</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>560</v>
+        <v>901</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>561</v>
+        <v>902</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>562</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B2" s="0">
         <v>30518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>500</v>
+        <v>841</v>
       </c>
       <c r="F2" s="0">
         <v>532.80600000000004</v>
@@ -8225,19 +9248,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B3" s="0">
         <v>30518</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>501</v>
+        <v>842</v>
       </c>
       <c r="F3" s="0">
         <v>462.94099999999997</v>
@@ -8339,19 +9362,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B4" s="0">
         <v>80518</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>502</v>
+        <v>843</v>
       </c>
       <c r="F4" s="0">
         <v>484.14499999999998</v>
@@ -8453,19 +9476,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B5" s="0">
         <v>80518</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>503</v>
+        <v>844</v>
       </c>
       <c r="F5" s="0">
         <v>472.774</v>
@@ -8567,19 +9590,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B6" s="0">
         <v>80518</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>504</v>
+        <v>845</v>
       </c>
       <c r="F6" s="0">
         <v>499.76400000000001</v>
@@ -8679,19 +9702,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B7" s="0">
         <v>80818</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>505</v>
+        <v>846</v>
       </c>
       <c r="F7" s="0">
         <v>486.38900000000001</v>
@@ -8793,19 +9816,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B8" s="0">
         <v>80818</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>506</v>
+        <v>847</v>
       </c>
       <c r="F8" s="0">
         <v>448.62900000000002</v>
@@ -8907,19 +9930,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B9" s="0">
         <v>80818</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>507</v>
+        <v>848</v>
       </c>
       <c r="F9" s="0">
         <v>482.81599999999997</v>
@@ -9019,19 +10042,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B10" s="0">
         <v>80818</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>508</v>
+        <v>849</v>
       </c>
       <c r="F10" s="0">
         <v>361.84899999999999</v>
@@ -9133,19 +10156,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B11" s="0">
         <v>80818</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>509</v>
+        <v>850</v>
       </c>
       <c r="F11" s="0">
         <v>417.62</v>
@@ -9247,19 +10270,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B12" s="0">
         <v>41220</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>510</v>
+        <v>851</v>
       </c>
       <c r="F12" s="0">
         <v>443.95999999999998</v>
@@ -9361,19 +10384,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B13" s="0">
         <v>81220</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>511</v>
+        <v>852</v>
       </c>
       <c r="F13" s="0">
         <v>337.86000000000001</v>
@@ -9475,19 +10498,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B14" s="0">
         <v>81220</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>512</v>
+        <v>853</v>
       </c>
       <c r="F14" s="0">
         <v>395.22399999999999</v>
@@ -9589,19 +10612,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B15" s="0">
         <v>91220</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D15" s="0">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>513</v>
+        <v>854</v>
       </c>
       <c r="F15" s="0">
         <v>402.30399999999997</v>
@@ -9703,19 +10726,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B16" s="0">
         <v>91220</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D16" s="0">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>514</v>
+        <v>855</v>
       </c>
       <c r="F16" s="0">
         <v>420.47300000000001</v>
@@ -9817,19 +10840,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B17" s="0">
         <v>130121</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D17" s="0">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>515</v>
+        <v>856</v>
       </c>
       <c r="F17" s="0">
         <v>433.36700000000002</v>
@@ -9931,19 +10954,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B18" s="0">
         <v>130121</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D18" s="0">
         <v>3</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>516</v>
+        <v>857</v>
       </c>
       <c r="F18" s="0">
         <v>494.46800000000002</v>
@@ -10047,19 +11070,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B19" s="0">
         <v>130121</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D19" s="0">
         <v>5</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>517</v>
+        <v>858</v>
       </c>
       <c r="F19" s="0">
         <v>457.59800000000001</v>
@@ -10161,19 +11184,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B20" s="0">
         <v>180121</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D20" s="0">
         <v>2</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>518</v>
+        <v>859</v>
       </c>
       <c r="F20" s="0">
         <v>361.38999999999999</v>
@@ -10277,19 +11300,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>490</v>
+        <v>831</v>
       </c>
       <c r="B21" s="0">
         <v>180121</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D21" s="0">
         <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>519</v>
+        <v>860</v>
       </c>
       <c r="F21" s="0">
         <v>416.15499999999997</v>
@@ -10393,19 +11416,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>491</v>
+        <v>832</v>
       </c>
       <c r="B22" s="0">
         <v>180121</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D22" s="0">
         <v>3</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>520</v>
+        <v>861</v>
       </c>
       <c r="F22" s="0">
         <v>404.61900000000003</v>
@@ -10507,19 +11530,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>492</v>
+        <v>833</v>
       </c>
       <c r="B23" s="0">
         <v>180121</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D23" s="0">
         <v>3</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>521</v>
+        <v>862</v>
       </c>
       <c r="F23" s="0">
         <v>402.56</v>
@@ -10621,19 +11644,19 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>492</v>
+        <v>833</v>
       </c>
       <c r="B24" s="0">
         <v>190121</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D24" s="0">
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>522</v>
+        <v>863</v>
       </c>
       <c r="F24" s="0">
         <v>517.55600000000004</v>
@@ -10737,19 +11760,19 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>492</v>
+        <v>833</v>
       </c>
       <c r="B25" s="0">
         <v>250121</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D25" s="0">
         <v>2</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>523</v>
+        <v>864</v>
       </c>
       <c r="F25" s="0">
         <v>418.19600000000003</v>
@@ -10851,19 +11874,19 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>492</v>
+        <v>833</v>
       </c>
       <c r="B26" s="0">
         <v>250121</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D26" s="0">
         <v>2</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>524</v>
+        <v>865</v>
       </c>
       <c r="F26" s="0">
         <v>421.99000000000001</v>
@@ -10967,19 +11990,19 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>492</v>
+        <v>833</v>
       </c>
       <c r="B27" s="0">
         <v>250121</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D27" s="0">
         <v>2</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>525</v>
+        <v>866</v>
       </c>
       <c r="F27" s="0">
         <v>450.01600000000002</v>
@@ -11081,19 +12104,19 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>493</v>
+        <v>834</v>
       </c>
       <c r="B28" s="0">
         <v>250121</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D28" s="0">
         <v>2</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>526</v>
+        <v>867</v>
       </c>
       <c r="F28" s="0">
         <v>455.69900000000001</v>
@@ -11197,19 +12220,19 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>494</v>
+        <v>835</v>
       </c>
       <c r="B29" s="0">
         <v>250121</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D29" s="0">
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>527</v>
+        <v>868</v>
       </c>
       <c r="F29" s="0">
         <v>479.04000000000002</v>
@@ -11311,19 +12334,19 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>494</v>
+        <v>835</v>
       </c>
       <c r="B30" s="0">
         <v>250121</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D30" s="0">
         <v>3</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>528</v>
+        <v>869</v>
       </c>
       <c r="F30" s="0">
         <v>457.59699999999998</v>
@@ -11423,19 +12446,19 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>494</v>
+        <v>835</v>
       </c>
       <c r="B31" s="0">
         <v>250121</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>497</v>
+        <v>838</v>
       </c>
       <c r="D31" s="0">
         <v>3</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>529</v>
+        <v>870</v>
       </c>
       <c r="F31" s="0">
         <v>387.173</v>
@@ -11538,177 +12561,177 @@
   <dimension ref="A1:AL14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.48828125" customWidth="true"/>
-    <col min="2" max="2" width="7.15625" customWidth="true"/>
-    <col min="3" max="3" width="10.37890625" customWidth="true"/>
-    <col min="4" max="4" width="4.82421875" customWidth="true"/>
-    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.42578125" customWidth="true"/>
+    <col min="4" max="4" width="5.28515625" customWidth="true"/>
+    <col min="5" max="5" width="3.85546875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.15625" customWidth="true"/>
-    <col min="8" max="8" width="7.37890625" customWidth="true"/>
-    <col min="9" max="9" width="9.15625" customWidth="true"/>
+    <col min="7" max="7" width="10.85546875" customWidth="true"/>
+    <col min="8" max="8" width="8" customWidth="true"/>
+    <col min="9" max="9" width="10.140625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="8.7109375" customWidth="true"/>
-    <col min="12" max="12" width="9.26953125" customWidth="true"/>
+    <col min="11" max="11" width="9.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.37890625" customWidth="true"/>
-    <col min="16" max="16" width="7.93359375" customWidth="true"/>
-    <col min="17" max="17" width="7.82421875" customWidth="true"/>
+    <col min="15" max="15" width="4.7109375" customWidth="true"/>
+    <col min="16" max="16" width="8.140625" customWidth="true"/>
+    <col min="17" max="17" width="8.140625" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="9.37890625" customWidth="true"/>
-    <col min="20" max="20" width="7.37890625" customWidth="true"/>
+    <col min="19" max="19" width="10" customWidth="true"/>
+    <col min="20" max="20" width="8.28515625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.046875" customWidth="true"/>
+    <col min="22" max="22" width="8.85546875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.37890625" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="10.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
-    <col min="29" max="29" width="10.26953125" customWidth="true"/>
-    <col min="30" max="30" width="11.48828125" customWidth="true"/>
+    <col min="29" max="29" width="11.28515625" customWidth="true"/>
+    <col min="30" max="30" width="13" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
-    <col min="32" max="32" width="9.15625" customWidth="true"/>
-    <col min="33" max="33" width="7.93359375" customWidth="true"/>
+    <col min="32" max="32" width="10" customWidth="true"/>
+    <col min="33" max="33" width="8.7109375" customWidth="true"/>
     <col min="34" max="34" width="8.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
     <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="6.7109375" customWidth="true"/>
-    <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="38" max="38" width="15" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>563</v>
+        <v>904</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>567</v>
+        <v>908</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>568</v>
+        <v>909</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>570</v>
+        <v>911</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>571</v>
+        <v>912</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>585</v>
+        <v>926</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>586</v>
+        <v>927</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>587</v>
+        <v>928</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>588</v>
+        <v>929</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>589</v>
+        <v>930</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>590</v>
+        <v>931</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>591</v>
+        <v>932</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>592</v>
+        <v>933</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>593</v>
+        <v>934</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>594</v>
+        <v>935</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>595</v>
+        <v>936</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>596</v>
+        <v>937</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>597</v>
+        <v>938</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>598</v>
+        <v>939</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>599</v>
+        <v>940</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>600</v>
+        <v>941</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>601</v>
+        <v>942</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>602</v>
+        <v>943</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>603</v>
+        <v>944</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>604</v>
+        <v>945</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>605</v>
+        <v>946</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>606</v>
+        <v>947</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>607</v>
+        <v>948</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>608</v>
+        <v>949</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>609</v>
+        <v>950</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>610</v>
+        <v>951</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>611</v>
+        <v>952</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>612</v>
+        <v>953</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>613</v>
+        <v>954</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>614</v>
+        <v>955</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>615</v>
+        <v>956</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>616</v>
+        <v>957</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>617</v>
+        <v>958</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>564</v>
+        <v>905</v>
       </c>
       <c r="B2" s="0">
         <v>220519</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>569</v>
+        <v>910</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>572</v>
+        <v>913</v>
       </c>
       <c r="F2" s="0">
         <v>588.45399999999995</v>
@@ -11812,19 +12835,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>564</v>
+        <v>905</v>
       </c>
       <c r="B3" s="0">
         <v>220519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>569</v>
+        <v>910</v>
       </c>
       <c r="D3" s="0">
         <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>573</v>
+        <v>914</v>
       </c>
       <c r="F3" s="0">
         <v>505.04199999999997</v>
@@ -11928,19 +12951,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>564</v>
+        <v>905</v>
       </c>
       <c r="B4" s="0">
         <v>220519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>569</v>
+        <v>910</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>574</v>
+        <v>915</v>
       </c>
       <c r="F4" s="0">
         <v>488.39400000000001</v>
@@ -12040,19 +13063,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>564</v>
+        <v>905</v>
       </c>
       <c r="B5" s="0">
         <v>290519</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>569</v>
+        <v>910</v>
       </c>
       <c r="D5" s="0">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>575</v>
+        <v>916</v>
       </c>
       <c r="F5" s="0">
         <v>421.226</v>
@@ -12156,19 +13179,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>564</v>
+        <v>905</v>
       </c>
       <c r="B6" s="0">
         <v>300519</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>569</v>
+        <v>910</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>576</v>
+        <v>917</v>
       </c>
       <c r="F6" s="0">
         <v>434.90699999999998</v>
@@ -12268,19 +13291,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>564</v>
+        <v>905</v>
       </c>
       <c r="B7" s="0">
         <v>300519</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>569</v>
+        <v>910</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>577</v>
+        <v>918</v>
       </c>
       <c r="F7" s="0">
         <v>528.89200000000005</v>
@@ -12382,19 +13405,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>565</v>
+        <v>906</v>
       </c>
       <c r="B8" s="0">
         <v>300519</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>569</v>
+        <v>910</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>578</v>
+        <v>919</v>
       </c>
       <c r="F8" s="0">
         <v>593.97900000000004</v>
@@ -12496,19 +13519,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>566</v>
+        <v>907</v>
       </c>
       <c r="B9" s="0">
         <v>270520</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>569</v>
+        <v>910</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>579</v>
+        <v>920</v>
       </c>
       <c r="F9" s="0">
         <v>391.40600000000001</v>
@@ -12610,19 +13633,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>566</v>
+        <v>907</v>
       </c>
       <c r="B10" s="0">
         <v>270520</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>569</v>
+        <v>910</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>580</v>
+        <v>921</v>
       </c>
       <c r="F10" s="0">
         <v>400.02699999999999</v>
@@ -12728,13 +13751,13 @@
         <v>261018</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>569</v>
+        <v>910</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>581</v>
+        <v>922</v>
       </c>
       <c r="F11" s="0">
         <v>414.041</v>
@@ -12840,13 +13863,13 @@
         <v>261018</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>569</v>
+        <v>910</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>582</v>
+        <v>923</v>
       </c>
       <c r="F12" s="0">
         <v>443.61500000000001</v>
@@ -12952,13 +13975,13 @@
         <v>261018</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>569</v>
+        <v>910</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>583</v>
+        <v>924</v>
       </c>
       <c r="F13" s="0">
         <v>416.31799999999998</v>
@@ -13064,13 +14087,13 @@
         <v>261018</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>569</v>
+        <v>910</v>
       </c>
       <c r="D14" s="0">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>584</v>
+        <v>925</v>
       </c>
       <c r="F14" s="0">
         <v>440.20499999999998</v>
@@ -13179,177 +14202,177 @@
   <dimension ref="A1:AL12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.48828125" customWidth="true"/>
-    <col min="2" max="2" width="7.15625" customWidth="true"/>
-    <col min="3" max="3" width="10.6015625" customWidth="true"/>
-    <col min="4" max="4" width="4.82421875" customWidth="true"/>
-    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.5703125" customWidth="true"/>
+    <col min="4" max="4" width="5.28515625" customWidth="true"/>
+    <col min="5" max="5" width="3.85546875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.15625" customWidth="true"/>
-    <col min="8" max="8" width="7.37890625" customWidth="true"/>
-    <col min="9" max="9" width="9.15625" customWidth="true"/>
+    <col min="7" max="7" width="10.85546875" customWidth="true"/>
+    <col min="8" max="8" width="8" customWidth="true"/>
+    <col min="9" max="9" width="10.140625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="8.7109375" customWidth="true"/>
-    <col min="12" max="12" width="9.26953125" customWidth="true"/>
+    <col min="11" max="11" width="9.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.37890625" customWidth="true"/>
-    <col min="16" max="16" width="7.93359375" customWidth="true"/>
-    <col min="17" max="17" width="7.82421875" customWidth="true"/>
+    <col min="15" max="15" width="4.7109375" customWidth="true"/>
+    <col min="16" max="16" width="8.140625" customWidth="true"/>
+    <col min="17" max="17" width="8.140625" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="9.37890625" customWidth="true"/>
-    <col min="20" max="20" width="7.37890625" customWidth="true"/>
+    <col min="19" max="19" width="10" customWidth="true"/>
+    <col min="20" max="20" width="8.28515625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.046875" customWidth="true"/>
+    <col min="22" max="22" width="8.85546875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.37890625" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="10.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
-    <col min="29" max="29" width="10.26953125" customWidth="true"/>
-    <col min="30" max="30" width="11.48828125" customWidth="true"/>
+    <col min="29" max="29" width="11.28515625" customWidth="true"/>
+    <col min="30" max="30" width="13" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
-    <col min="32" max="32" width="9.15625" customWidth="true"/>
-    <col min="33" max="33" width="7.93359375" customWidth="true"/>
+    <col min="32" max="32" width="10" customWidth="true"/>
+    <col min="33" max="33" width="8.7109375" customWidth="true"/>
     <col min="34" max="34" width="7.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="3.7109375" customWidth="true"/>
+    <col min="36" max="36" width="4" customWidth="true"/>
     <col min="37" max="37" width="6.7109375" customWidth="true"/>
-    <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="38" max="38" width="15" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>618</v>
+        <v>959</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>620</v>
+        <v>961</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>621</v>
+        <v>962</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>623</v>
+        <v>964</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>624</v>
+        <v>965</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>635</v>
+        <v>976</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>636</v>
+        <v>977</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>637</v>
+        <v>978</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>638</v>
+        <v>979</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>639</v>
+        <v>980</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>640</v>
+        <v>981</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>641</v>
+        <v>982</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>642</v>
+        <v>983</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>643</v>
+        <v>984</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>644</v>
+        <v>985</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>645</v>
+        <v>986</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>646</v>
+        <v>987</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>647</v>
+        <v>988</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>648</v>
+        <v>989</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>649</v>
+        <v>990</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>650</v>
+        <v>991</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>651</v>
+        <v>992</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>652</v>
+        <v>993</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>653</v>
+        <v>994</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>654</v>
+        <v>995</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>655</v>
+        <v>996</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>656</v>
+        <v>997</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>657</v>
+        <v>998</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>658</v>
+        <v>999</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>659</v>
+        <v>1000</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>660</v>
+        <v>1001</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>661</v>
+        <v>1002</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>662</v>
+        <v>1003</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>663</v>
+        <v>1004</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>664</v>
+        <v>1005</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>665</v>
+        <v>1006</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>666</v>
+        <v>1007</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>667</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>619</v>
+        <v>960</v>
       </c>
       <c r="B2" s="0">
         <v>31218</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>622</v>
+        <v>963</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>625</v>
+        <v>966</v>
       </c>
       <c r="F2" s="0">
         <v>429.56400000000002</v>
@@ -13451,19 +14474,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>619</v>
+        <v>960</v>
       </c>
       <c r="B3" s="0">
         <v>31218</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>622</v>
+        <v>963</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>626</v>
+        <v>967</v>
       </c>
       <c r="F3" s="0">
         <v>387.68099999999998</v>
@@ -13565,19 +14588,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>619</v>
+        <v>960</v>
       </c>
       <c r="B4" s="0">
         <v>171218</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>622</v>
+        <v>963</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>627</v>
+        <v>968</v>
       </c>
       <c r="F4" s="0">
         <v>389.012</v>
@@ -13679,19 +14702,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>619</v>
+        <v>960</v>
       </c>
       <c r="B5" s="0">
         <v>70219</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>622</v>
+        <v>963</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>628</v>
+        <v>969</v>
       </c>
       <c r="F5" s="0">
         <v>404.084</v>
@@ -13793,19 +14816,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>619</v>
+        <v>960</v>
       </c>
       <c r="B6" s="0">
         <v>80219</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>622</v>
+        <v>963</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>629</v>
+        <v>970</v>
       </c>
       <c r="F6" s="0">
         <v>409.024</v>
@@ -13907,19 +14930,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>619</v>
+        <v>960</v>
       </c>
       <c r="B7" s="0">
         <v>80219</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>622</v>
+        <v>963</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>630</v>
+        <v>971</v>
       </c>
       <c r="F7" s="0">
         <v>428.99900000000002</v>
@@ -14021,19 +15044,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>619</v>
+        <v>960</v>
       </c>
       <c r="B8" s="0">
         <v>120219</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>622</v>
+        <v>963</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>631</v>
+        <v>972</v>
       </c>
       <c r="F8" s="0">
         <v>362.279</v>
@@ -14135,19 +15158,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>619</v>
+        <v>960</v>
       </c>
       <c r="B9" s="0">
         <v>120219</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>622</v>
+        <v>963</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>632</v>
+        <v>973</v>
       </c>
       <c r="F9" s="0">
         <v>341.43299999999999</v>
@@ -14249,19 +15272,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>619</v>
+        <v>960</v>
       </c>
       <c r="B10" s="0">
         <v>120219</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>622</v>
+        <v>963</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>633</v>
+        <v>974</v>
       </c>
       <c r="F10" s="0">
         <v>500.5</v>
@@ -14361,19 +15384,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>619</v>
+        <v>960</v>
       </c>
       <c r="B11" s="0">
         <v>150519</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>622</v>
+        <v>963</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>634</v>
+        <v>975</v>
       </c>
       <c r="F11" s="0">
         <v>499.39800000000002</v>
